--- a/Gaming/DKNG.xlsx
+++ b/Gaming/DKNG.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27425"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\simon\Documents\models\Gaming\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{687AE077-6E20-4094-86BD-176257421D05}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45F72888-3C31-402C-BA7A-625303646A83}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,16 +20,16 @@
     <sheet name="DoR" sheetId="5" r:id="rId5"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlchart.v1.0" hidden="1">Model!$A$3</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">Model!$A$4</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">Model!$E$2:$U$2</definedName>
-    <definedName name="_xlchart.v1.3" hidden="1">Model!$E$3:$U$3</definedName>
-    <definedName name="_xlchart.v1.4" hidden="1">Model!$E$4:$U$4</definedName>
-    <definedName name="_xlchart.v1.5" hidden="1">Model!$A$17</definedName>
-    <definedName name="_xlchart.v1.6" hidden="1">Model!$A$18</definedName>
-    <definedName name="_xlchart.v1.7" hidden="1">Model!$E$17:$U$17</definedName>
-    <definedName name="_xlchart.v1.8" hidden="1">Model!$E$18:$U$18</definedName>
-    <definedName name="_xlchart.v1.9" hidden="1">Model!$E$2:$U$2</definedName>
+    <definedName name="_xlchart.v1.0" hidden="1">Model!$A$17</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">Model!$A$18</definedName>
+    <definedName name="_xlchart.v1.2" hidden="1">Model!$B$17:$R$17</definedName>
+    <definedName name="_xlchart.v1.3" hidden="1">Model!$B$18:$R$18</definedName>
+    <definedName name="_xlchart.v1.4" hidden="1">Model!$B$2:$R$2</definedName>
+    <definedName name="_xlchart.v1.5" hidden="1">Model!$A$3</definedName>
+    <definedName name="_xlchart.v1.6" hidden="1">Model!$A$4</definedName>
+    <definedName name="_xlchart.v1.7" hidden="1">Model!$B$2:$R$2</definedName>
+    <definedName name="_xlchart.v1.8" hidden="1">Model!$B$3:$R$3</definedName>
+    <definedName name="_xlchart.v1.9" hidden="1">Model!$B$4:$R$4</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -52,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="171">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="169">
   <si>
     <t>Price</t>
   </si>
@@ -396,15 +396,6 @@
     <t>Q120</t>
   </si>
   <si>
-    <t>Q219</t>
-  </si>
-  <si>
-    <t>Q319</t>
-  </si>
-  <si>
-    <t>Q419</t>
-  </si>
-  <si>
     <t>COGS</t>
   </si>
   <si>
@@ -566,6 +557,9 @@
   <si>
     <t>EV/EBITDA</t>
   </si>
+  <si>
+    <t>G&amp;A / REV</t>
+  </si>
 </sst>
 </file>
 
@@ -574,7 +568,7 @@
   <numFmts count="3">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="0.000%"/>
-    <numFmt numFmtId="167" formatCode="#,##0.000"/>
+    <numFmt numFmtId="166" formatCode="#,##0.000"/>
   </numFmts>
   <fonts count="7" x14ac:knownFonts="1">
     <font>
@@ -769,7 +763,7 @@
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="75">
+  <cellXfs count="66">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -825,7 +819,6 @@
     <xf numFmtId="165" fontId="0" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="2" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="2" fontId="5" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="2" fontId="5" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="3" fontId="5" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
@@ -838,14 +831,8 @@
     <xf numFmtId="2" fontId="2" fillId="7" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="3" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="5" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="3" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="3" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="2" fontId="6" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
@@ -854,11 +841,9 @@
     <xf numFmtId="9" fontId="5" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="9" fontId="5" fillId="6" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="5" fillId="6" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="6" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="6" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="6" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="3" fontId="6" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
@@ -979,7 +964,7 @@
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:dPt>
-            <c:idx val="14"/>
+            <c:idx val="15"/>
             <c:invertIfNegative val="0"/>
             <c:bubble3D val="0"/>
             <c:spPr>
@@ -993,12 +978,12 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000000-04A9-4BC3-B844-B084D47DE3AD}"/>
+                <c16:uniqueId val="{00000001-04A9-4BC3-B844-B084D47DE3AD}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
           <c:dPt>
-            <c:idx val="15"/>
+            <c:idx val="16"/>
             <c:invertIfNegative val="0"/>
             <c:bubble3D val="0"/>
             <c:spPr>
@@ -1012,9 +997,23 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="17"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="bg2"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000001-04A9-4BC3-B844-B084D47DE3AD}"/>
+                <c16:uniqueId val="{00000004-894D-4E89-87A6-6450899394C4}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -1075,110 +1074,125 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Model!$F$2:$U$2</c:f>
+              <c:f>Model!$B$2:$S$2</c:f>
               <c:strCache>
-                <c:ptCount val="16"/>
+                <c:ptCount val="18"/>
                 <c:pt idx="0">
+                  <c:v>Q120</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>Q220</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>Q320</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>Q420</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>Q121</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>Q221</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>Q321</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>Q421</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="8">
                   <c:v>Q122</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="9">
                   <c:v>Q222</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="10">
                   <c:v>Q322</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="11">
                   <c:v>Q422</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="12">
                   <c:v>Q123</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="13">
                   <c:v>Q223</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="14">
                   <c:v>Q323</c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="15">
                   <c:v>Q423</c:v>
                 </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="16">
                   <c:v>Q124</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>Q224</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Model!$F$3:$U$3</c:f>
+              <c:f>Model!$B$3:$S$3</c:f>
               <c:numCache>
                 <c:formatCode>#,##0</c:formatCode>
-                <c:ptCount val="16"/>
+                <c:ptCount val="18"/>
                 <c:pt idx="0">
-                  <c:v>70931</c:v>
+                  <c:v>88.542000000000002</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>132836</c:v>
+                  <c:v>70.930999999999997</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>322223</c:v>
+                  <c:v>132.83600000000001</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>312276</c:v>
+                  <c:v>322.22300000000007</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>297605</c:v>
+                  <c:v>312.27600000000001</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>212819</c:v>
+                  <c:v>297.60500000000002</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>473325</c:v>
+                  <c:v>212.81899999999999</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>417205</c:v>
+                  <c:v>473.3250000000001</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>466185</c:v>
+                  <c:v>417.20499999999998</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>501938</c:v>
+                  <c:v>466.185</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>855133</c:v>
+                  <c:v>501.93799999999999</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>769652</c:v>
+                  <c:v>855.13299999999981</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>874927</c:v>
+                  <c:v>769.65200000000004</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>789957</c:v>
+                  <c:v>874.92700000000002</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1230857</c:v>
+                  <c:v>789.95699999999999</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1230.857</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1040</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>978</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1287,54 +1301,51 @@
           </c:dLbls>
           <c:val>
             <c:numRef>
-              <c:f>Model!$F$21:$U$21</c:f>
+              <c:f>Model!$B$21:$S$21</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
-                <c:ptCount val="16"/>
-                <c:pt idx="0">
-                  <c:v>0.23594702909914611</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.98221267197898943</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>2.5268686047299584</c:v>
-                </c:pt>
+                <c:ptCount val="18"/>
                 <c:pt idx="4">
-                  <c:v>3.195697226882463</c:v>
+                  <c:v>2.5268686047299589</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.60211840163811026</c:v>
+                  <c:v>3.1956972268824639</c:v>
                 </c:pt>
                 <c:pt idx="6">
+                  <c:v>0.60211840163810981</c:v>
+                </c:pt>
+                <c:pt idx="7">
                   <c:v>0.46893610946456343</c:v>
                 </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.33601365458760846</c:v>
-                </c:pt>
                 <c:pt idx="8">
+                  <c:v>0.33601365458760823</c:v>
+                </c:pt>
+                <c:pt idx="9">
                   <c:v>0.5664555367013322</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="10">
                   <c:v>1.3585206208092324</c:v>
                 </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.80665082131727672</c:v>
-                </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.84478134250548287</c:v>
+                  <c:v>0.80665082131727583</c:v>
                 </c:pt>
                 <c:pt idx="12">
+                  <c:v>0.84478134250548309</c:v>
+                </c:pt>
+                <c:pt idx="13">
                   <c:v>0.87678067719896613</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="14">
                   <c:v>0.57381389733393373</c:v>
                 </c:pt>
-                <c:pt idx="14">
-                  <c:v>0.43937492764283448</c:v>
-                </c:pt>
                 <c:pt idx="15">
+                  <c:v>0.4393749276428347</c:v>
+                </c:pt>
+                <c:pt idx="16">
                   <c:v>0.35126004999662186</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.1178075428007137</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1737,6 +1748,27 @@
               </c:ext>
             </c:extLst>
           </c:dPt>
+          <c:dPt>
+            <c:idx val="7"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="bg1">
+                  <a:lumMod val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000004-946F-4F99-B83A-E056CDADD315}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
           <c:dLbls>
             <c:spPr>
               <a:noFill/>
@@ -1791,9 +1823,9 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Model!$Y$2:$AE$2</c:f>
+              <c:f>Model!$V$2:$AC$2</c:f>
               <c:strCache>
-                <c:ptCount val="7"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>FY18</c:v>
                 </c:pt>
@@ -1814,36 +1846,42 @@
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>FY24</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>FY25</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Model!$Y$3:$AE$3</c:f>
+              <c:f>Model!$V$3:$AC$3</c:f>
               <c:numCache>
                 <c:formatCode>#,##0</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>226277</c:v>
+                  <c:v>226.27699999999999</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>323410</c:v>
+                  <c:v>323.41000000000003</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>614532</c:v>
+                  <c:v>614.53200000000004</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1296025</c:v>
+                  <c:v>1296.0250000000001</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2240461</c:v>
+                  <c:v>2240.4609999999998</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3665393</c:v>
+                  <c:v>3665.393</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>4690000</c:v>
+                  <c:v>4810</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5680</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1961,12 +1999,12 @@
           </c:dLbls>
           <c:val>
             <c:numRef>
-              <c:f>Model!$Y$21:$AE$21</c:f>
+              <c:f>Model!$V$21:$AC$21</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="1">
-                  <c:v>0.42926589976002871</c:v>
+                  <c:v>0.42926589976002894</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0.90016387866794467</c:v>
@@ -1975,13 +2013,16 @@
                   <c:v>1.1089625926721474</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.72871742443239906</c:v>
+                  <c:v>0.72871742443239884</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>0.63599946618129044</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.27953537315098265</c:v>
+                  <c:v>0.31227401809301214</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.18087318087318094</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2345,26 +2386,21 @@
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:dPt>
-            <c:idx val="18"/>
+            <c:idx val="15"/>
             <c:invertIfNegative val="0"/>
             <c:bubble3D val="0"/>
             <c:spPr>
               <a:solidFill>
-                <a:schemeClr val="accent2"/>
+                <a:schemeClr val="accent1"/>
               </a:solidFill>
               <a:ln>
                 <a:noFill/>
               </a:ln>
               <a:effectLst/>
             </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000000-A69B-4F84-A5D2-602B92B1E5BC}"/>
-              </c:ext>
-            </c:extLst>
           </c:dPt>
           <c:dPt>
-            <c:idx val="19"/>
+            <c:idx val="16"/>
             <c:invertIfNegative val="0"/>
             <c:bubble3D val="0"/>
             <c:spPr>
@@ -2378,9 +2414,23 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="17"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="bg2"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000001-A69B-4F84-A5D2-602B92B1E5BC}"/>
+                <c16:uniqueId val="{00000004-BFF8-464D-991B-FDF806CA60C1}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -2441,125 +2491,125 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Model!$F$2:$U$2</c:f>
+              <c:f>Model!$B$2:$S$2</c:f>
               <c:strCache>
-                <c:ptCount val="16"/>
+                <c:ptCount val="18"/>
                 <c:pt idx="0">
+                  <c:v>Q120</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>Q220</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>Q320</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>Q420</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>Q121</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>Q221</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>Q321</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>Q421</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="8">
                   <c:v>Q122</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="9">
                   <c:v>Q222</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="10">
                   <c:v>Q322</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="11">
                   <c:v>Q422</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="12">
                   <c:v>Q123</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="13">
                   <c:v>Q223</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="14">
                   <c:v>Q323</c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="15">
                   <c:v>Q423</c:v>
                 </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="16">
                   <c:v>Q124</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>Q224</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Model!$B$15:$U$15</c:f>
+              <c:f>Model!$B$15:$S$15</c:f>
               <c:numCache>
                 <c:formatCode>#,##0</c:formatCode>
-                <c:ptCount val="20"/>
+                <c:ptCount val="18"/>
                 <c:pt idx="0">
-                  <c:v>-28113</c:v>
+                  <c:v>-68.680000000000007</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-55919</c:v>
+                  <c:v>-161.43700000000001</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>-347.76300000000003</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-68680</c:v>
+                  <c:v>-266.81399999999996</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-161437</c:v>
+                  <c:v>-346.34399999999999</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-347763</c:v>
+                  <c:v>-305.52600000000001</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-266814</c:v>
+                  <c:v>-545.02800000000002</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>-346344</c:v>
+                  <c:v>-319.60099999999983</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>-305526</c:v>
+                  <c:v>-462.05300000000005</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>-545028</c:v>
+                  <c:v>-217.10300000000004</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>-319601</c:v>
+                  <c:v>-450.49400000000009</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>-462053</c:v>
+                  <c:v>-222.43700000000018</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>-217103</c:v>
+                  <c:v>-397.14800000000002</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>-450494</c:v>
+                  <c:v>-77.269999999999953</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>-222437</c:v>
+                  <c:v>-283.10299999999989</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>-397148</c:v>
+                  <c:v>-44.620999999999988</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>-77270</c:v>
+                  <c:v>129.94891803278702</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>-283103</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>-44621</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>-153154.08196721313</c:v>
+                  <c:v>18.564131147541001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2668,65 +2718,56 @@
           </c:dLbls>
           <c:val>
             <c:numRef>
-              <c:f>Model!$B$19:$U$19</c:f>
+              <c:f>Model!$B$19:$S$19</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
-                <c:ptCount val="20"/>
+                <c:ptCount val="18"/>
                 <c:pt idx="0">
-                  <c:v>0.68924899808328977</c:v>
+                  <c:v>0.50965643423460061</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.62198943504342374</c:v>
+                  <c:v>0.33273180978697603</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>0.27302086783703217</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.50965643423460061</c:v>
+                  <c:v>0.50570257244206662</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.33273180978697603</c:v>
+                  <c:v>0.41325942435537799</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.27302086783703217</c:v>
+                  <c:v>0.37163018094454059</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.50570257244206651</c:v>
+                  <c:v>0.19767971844619137</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.41325942435537788</c:v>
+                  <c:v>0.46509903343368719</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.37163018094454059</c:v>
+                  <c:v>0.2488608717536942</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.19767971844619137</c:v>
+                  <c:v>0.32909252764460462</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.46509903343368719</c:v>
+                  <c:v>0.25749395343648018</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.2488608717536942</c:v>
+                  <c:v>0.43232807060422185</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.32909252764460462</c:v>
+                  <c:v>0.32210921299496398</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.25749395343648018</c:v>
+                  <c:v>0.41672505249009351</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.43232807060422185</c:v>
+                  <c:v>0.31204609871170208</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.32210921299496398</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>0.41672505249009351</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>0.31204609871170208</c:v>
-                </c:pt>
-                <c:pt idx="18">
                   <c:v>0.41775689621133894</c:v>
                 </c:pt>
               </c:numCache>
@@ -2762,7 +2803,7 @@
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
+        <c:tickLblPos val="low"/>
         <c:spPr>
           <a:noFill/>
           <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
@@ -3090,6 +3131,44 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:dPt>
+            <c:idx val="6"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="bg2"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-FA3E-4C1E-A0CC-EC95A227BB78}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="7"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="bg2"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000000-FA3E-4C1E-A0CC-EC95A227BB78}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
           <c:dLbls>
             <c:spPr>
               <a:noFill/>
@@ -3145,9 +3224,9 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Model!$Y$2:$AE$2</c:f>
+              <c:f>Model!$V$2:$AC$2</c:f>
               <c:strCache>
-                <c:ptCount val="7"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>FY18</c:v>
                 </c:pt>
@@ -3168,36 +3247,42 @@
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>FY24</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>FY25</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Model!$Y$15:$AE$15</c:f>
+              <c:f>Model!$V$15:$AC$15</c:f>
               <c:numCache>
                 <c:formatCode>#,##0</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>-76220</c:v>
+                  <c:v>-76.220000000000013</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-142734</c:v>
+                  <c:v>-142.73399999999998</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-844270</c:v>
+                  <c:v>-844.2700000000001</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-1523195</c:v>
+                  <c:v>-1523.1949999999997</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-1377987</c:v>
+                  <c:v>-1377.9870000000003</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-802142</c:v>
+                  <c:v>-802.14199999999994</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>92733.179190751456</c:v>
+                  <c:v>-60.27656647398841</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>375.56937572254321</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3229,11 +3314,11 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Model!$A$23</c:f>
+              <c:f>Model!$A$19</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Net Income y/y</c:v>
+                  <c:v>Gross Margin</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3304,24 +3389,33 @@
           </c:dLbls>
           <c:val>
             <c:numRef>
-              <c:f>Model!$Y$23:$AE$23</c:f>
+              <c:f>Model!$V$19:$AC$19</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>0.78482567826159966</c:v>
+                </c:pt>
                 <c:pt idx="1">
-                  <c:v>-0.87265809498819213</c:v>
+                  <c:v>0.67876998237531305</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-4.9149887202768783</c:v>
+                  <c:v>0.4360114688901473</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-0.80415625333128027</c:v>
+                  <c:v>0.38723249937308313</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>9.5331195283598014E-2</c:v>
+                  <c:v>0.33751446688873399</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.41788855772949962</c:v>
+                  <c:v>0.37464413775003114</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.43</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.45</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3356,7 +3450,7 @@
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
+        <c:tickLblPos val="low"/>
         <c:spPr>
           <a:noFill/>
           <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
@@ -3454,7 +3548,7 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="r"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="0%" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -3604,36 +3698,6 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:title>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="de-DE"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
@@ -3738,85 +3802,119 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                  <c15:fullRef>
-                    <c15:sqref>Model!$B$2:$S$2</c15:sqref>
-                  </c15:fullRef>
-                </c:ext>
-              </c:extLst>
-              <c:f>Model!$K$2:$S$2</c:f>
+              <c:f>Model!$B$2:$S$2</c:f>
               <c:strCache>
-                <c:ptCount val="9"/>
+                <c:ptCount val="18"/>
                 <c:pt idx="0">
+                  <c:v>Q120</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Q220</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Q320</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Q420</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Q121</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Q221</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>Q321</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="7">
                   <c:v>Q421</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="8">
                   <c:v>Q122</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="9">
                   <c:v>Q222</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="10">
                   <c:v>Q322</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="11">
                   <c:v>Q422</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="12">
                   <c:v>Q123</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="13">
                   <c:v>Q223</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="14">
                   <c:v>Q323</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>Q423</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>Q124</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>Q224</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                  <c15:fullRef>
-                    <c15:sqref>Model!$B$22:$S$22</c15:sqref>
-                  </c15:fullRef>
-                </c:ext>
-              </c:extLst>
-              <c:f>Model!$K$22:$S$22</c:f>
+              <c:f>Model!$B$22:$S$22</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
-                <c:ptCount val="9"/>
+                <c:ptCount val="18"/>
                 <c:pt idx="0">
-                  <c:v>1.4268368895634318</c:v>
+                  <c:v>0.60655959883445143</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.58827232873818203</c:v>
+                  <c:v>0.65116803654255551</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.77048932778849721</c:v>
+                  <c:v>1.5307522057273628</c:v>
                 </c:pt>
                 <c:pt idx="3">
+                  <c:v>0.59573338960905942</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.73232012706708172</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.57361939483543611</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.426836889563432</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.5882723287381818</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.77048932778849732</c:v>
+                </c:pt>
+                <c:pt idx="9">
                   <c:v>0.42371376170404451</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="10">
                   <c:v>0.64094370221023311</c:v>
                 </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.40377578692437316</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.5055960356108995</c:v>
-                </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="11">
+                  <c:v>0.40377578692437344</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.50559603561089939</c:v>
+                </c:pt>
+                <c:pt idx="13">
                   <c:v>0.23714778490091173</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="14">
                   <c:v>0.39663298128885494</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.23623784078897872</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3825,6 +3923,166 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-35FE-4BEB-944F-3D772460C6A2}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Model!$A$23</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>G&amp;A / REV</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="de-DE"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="t"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>Model!$B$23:$S$23</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="18"/>
+                <c:pt idx="0">
+                  <c:v>0.4460707912629035</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.5128505166993276</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.95897196543105767</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.53746628887447523</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.54117831661735138</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.66801969052939303</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.0323608324444715</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.50877515449215638</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.51918361476971753</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.40243465576970516</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.37108367965764694</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.20259304692954203</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.20850462286851718</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.15573413553359308</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.16552926298520046</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.14548887482461406</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-71F2-4C98-997C-B583826BC81E}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -11185,18 +11443,18 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:strDim type="cat">
-        <cx:f dir="row">_xlchart.v1.9</cx:f>
+        <cx:f dir="row">_xlchart.v1.4</cx:f>
       </cx:strDim>
       <cx:numDim type="val">
-        <cx:f dir="row">_xlchart.v1.8</cx:f>
+        <cx:f dir="row">_xlchart.v1.3</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="1">
       <cx:strDim type="cat">
-        <cx:f dir="row">_xlchart.v1.9</cx:f>
+        <cx:f dir="row">_xlchart.v1.4</cx:f>
       </cx:strDim>
       <cx:numDim type="val">
-        <cx:f dir="row">_xlchart.v1.7</cx:f>
+        <cx:f dir="row">_xlchart.v1.2</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -11240,7 +11498,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{006F4749-938E-4621-8334-C74E7B83CC40}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.6</cx:f>
+              <cx:f>_xlchart.v1.1</cx:f>
               <cx:v>EPS exp.</cx:v>
             </cx:txData>
           </cx:tx>
@@ -11260,7 +11518,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{C8A70830-D21B-405F-8F13-72F0AC678416}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.5</cx:f>
+              <cx:f>_xlchart.v1.0</cx:f>
               <cx:v>EPS</cx:v>
             </cx:txData>
           </cx:tx>
@@ -11291,18 +11549,18 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:strDim type="cat">
-        <cx:f dir="row">_xlchart.v1.2</cx:f>
+        <cx:f dir="row">_xlchart.v1.7</cx:f>
       </cx:strDim>
       <cx:numDim type="val">
-        <cx:f dir="row">_xlchart.v1.4</cx:f>
+        <cx:f dir="row">_xlchart.v1.9</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="1">
       <cx:strDim type="cat">
-        <cx:f dir="row">_xlchart.v1.2</cx:f>
+        <cx:f dir="row">_xlchart.v1.7</cx:f>
       </cx:strDim>
       <cx:numDim type="val">
-        <cx:f dir="row">_xlchart.v1.3</cx:f>
+        <cx:f dir="row">_xlchart.v1.8</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -11346,7 +11604,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{006F4749-938E-4621-8334-C74E7B83CC40}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.1</cx:f>
+              <cx:f>_xlchart.v1.6</cx:f>
               <cx:v>Rev. Exp.</cx:v>
             </cx:txData>
           </cx:tx>
@@ -11366,7 +11624,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{C8A70830-D21B-405F-8F13-72F0AC678416}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.0</cx:f>
+              <cx:f>_xlchart.v1.5</cx:f>
               <cx:v>Revenue</cx:v>
             </cx:txData>
           </cx:tx>
@@ -15923,13 +16181,13 @@
       <xdr:col>1</xdr:col>
       <xdr:colOff>219075</xdr:colOff>
       <xdr:row>15</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:rowOff>142874</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>600075</xdr:colOff>
       <xdr:row>30</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:rowOff>38099</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -16496,7 +16754,7 @@
   <dimension ref="B2:N26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I26" sqref="I26"/>
+      <selection activeCell="C33" sqref="C33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16570,13 +16828,13 @@
         <v>4.4654928110037669E-6</v>
       </c>
       <c r="L3" s="5" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="M3" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="N3" s="41" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
     </row>
     <row r="4" spans="2:14" x14ac:dyDescent="0.25">
@@ -16601,13 +16859,13 @@
         <v>7.6850873900267567E-3</v>
       </c>
       <c r="L4" s="5" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="M4" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="N4" s="13" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
     </row>
     <row r="5" spans="2:14" x14ac:dyDescent="0.25">
@@ -16630,13 +16888,13 @@
         <v>7.9270647670380175E-3</v>
       </c>
       <c r="L5" s="5" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="M5" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="N5" s="13" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
     </row>
     <row r="6" spans="2:14" x14ac:dyDescent="0.25">
@@ -16663,13 +16921,13 @@
         <v>6.0528661200450193E-5</v>
       </c>
       <c r="L6" s="5" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="M6" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="N6" s="13" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
     </row>
     <row r="7" spans="2:14" x14ac:dyDescent="0.25">
@@ -16697,13 +16955,13 @@
         <v>1.1663258096521318E-4</v>
       </c>
       <c r="L7" s="5" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="M7" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="N7" s="13" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
     </row>
     <row r="8" spans="2:14" x14ac:dyDescent="0.25">
@@ -16731,13 +16989,13 @@
         <v>6.7132528810959608E-7</v>
       </c>
       <c r="L8" s="5" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="M8" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="N8" s="13" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
     </row>
     <row r="9" spans="2:14" x14ac:dyDescent="0.25">
@@ -16745,8 +17003,8 @@
         <v>3</v>
       </c>
       <c r="C9" s="15">
-        <f>Model!S27+Model!S28+Model!S29</f>
-        <v>1797065</v>
+        <f>Model!P28+Model!P29+Model!P30</f>
+        <v>1797.0650000000001</v>
       </c>
       <c r="E9" s="5" t="s">
         <v>93</v>
@@ -16765,13 +17023,13 @@
         <v>7.4613837876311307E-3</v>
       </c>
       <c r="L9" s="5" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="M9" t="s">
+        <v>146</v>
+      </c>
+      <c r="N9" s="13" t="s">
         <v>149</v>
-      </c>
-      <c r="N9" s="13" t="s">
-        <v>152</v>
       </c>
     </row>
     <row r="10" spans="2:14" x14ac:dyDescent="0.25">
@@ -16779,8 +17037,8 @@
         <v>4</v>
       </c>
       <c r="C10" s="15">
-        <f>Model!S40+Model!S41+Model!S42</f>
-        <v>1528463</v>
+        <f>Model!P41+Model!P42+Model!P43</f>
+        <v>1528.4629999999997</v>
       </c>
       <c r="E10" s="5" t="s">
         <v>95</v>
@@ -16799,13 +17057,13 @@
         <v>3.7931165663728493E-4</v>
       </c>
       <c r="L10" s="5" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="M10" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="N10" s="13" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
     </row>
     <row r="11" spans="2:14" x14ac:dyDescent="0.25">
@@ -16814,7 +17072,7 @@
       </c>
       <c r="C11" s="15">
         <f>C9-C10</f>
-        <v>268602</v>
+        <v>268.60200000000032</v>
       </c>
       <c r="E11" s="5" t="s">
         <v>97</v>
@@ -16841,7 +17099,7 @@
       </c>
       <c r="C12" s="15">
         <f>C8-C9+C10</f>
-        <v>19210985.96074</v>
+        <v>19479319.358739998</v>
       </c>
       <c r="E12" s="5" t="s">
         <v>99</v>
@@ -16858,7 +17116,7 @@
         <v>72</v>
       </c>
       <c r="C13" s="38">
-        <f>C6/Model!AC17</f>
+        <f>C6/Model!Z17</f>
         <v>-13.221518987341772</v>
       </c>
       <c r="E13" s="5"/>
@@ -16888,8 +17146,8 @@
         <v>69</v>
       </c>
       <c r="C15" s="6">
-        <f>Model!AF18/Model!AE18</f>
-        <v>3.75</v>
+        <f>Model!AC18/Model!AB18</f>
+        <v>-6.2307692307692308</v>
       </c>
     </row>
     <row r="16" spans="2:14" x14ac:dyDescent="0.25">
@@ -16897,7 +17155,7 @@
         <v>70</v>
       </c>
       <c r="C16" s="38">
-        <f>C6/Model!AD18</f>
+        <f>C6/Model!AA18</f>
         <v>-27.486842105263158</v>
       </c>
     </row>
@@ -16906,44 +17164,44 @@
         <v>71</v>
       </c>
       <c r="C17" s="38">
-        <f>C6/Model!AE18</f>
-        <v>208.9</v>
+        <f>C6/Model!AB18</f>
+        <v>-321.38461538461536</v>
       </c>
       <c r="E17" s="33" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="18" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B18" s="73" t="s">
-        <v>167</v>
+      <c r="B18" s="5" t="s">
+        <v>164</v>
       </c>
       <c r="C18" s="13">
         <f>C16/C14</f>
         <v>-27.486842105263158</v>
       </c>
       <c r="E18" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
     </row>
     <row r="19" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B19" s="73" t="s">
-        <v>168</v>
+      <c r="B19" s="5" t="s">
+        <v>165</v>
       </c>
       <c r="C19" s="13">
         <f>C17/C15</f>
-        <v>55.706666666666671</v>
+        <v>51.58024691358024</v>
       </c>
       <c r="E19" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
     </row>
     <row r="20" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B20" s="5" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="C20" s="15">
-        <f>Model!AD12</f>
-        <v>-791253</v>
+        <f>Model!AA12</f>
+        <v>-791.25299999999993</v>
       </c>
     </row>
     <row r="21" spans="2:5" x14ac:dyDescent="0.25">
@@ -16951,24 +17209,24 @@
         <v>19</v>
       </c>
       <c r="C21" s="15">
-        <f>Model!AD12</f>
-        <v>-791253</v>
+        <f>Model!AA12</f>
+        <v>-791.25299999999993</v>
       </c>
     </row>
     <row r="22" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B22" s="5" t="s">
-        <v>170</v>
-      </c>
-      <c r="C22" s="74">
+        <v>167</v>
+      </c>
+      <c r="C22" s="65">
         <f>C12/C21</f>
-        <v>-24.27919510035349</v>
+        <v>-24618.31975201358</v>
       </c>
     </row>
     <row r="23" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B23" s="5"/>
       <c r="C23" s="13"/>
       <c r="E23" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
     </row>
     <row r="24" spans="2:5" x14ac:dyDescent="0.25">
@@ -16990,1822 +17248,1684 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F7345E9-1C5F-45F5-BD7C-66FA029FFFF4}">
-  <dimension ref="A1:AG70"/>
+  <dimension ref="A1:AC71"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="M3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="AE23" sqref="AE23"/>
+      <selection pane="bottomRight" activeCell="T6" sqref="T6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="27.28515625" customWidth="1"/>
-    <col min="20" max="20" width="11.42578125" style="13"/>
-    <col min="30" max="30" width="11.42578125" style="13"/>
+    <col min="17" max="17" width="11.42578125" style="13"/>
+    <col min="27" max="27" width="11.42578125" style="13"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="2" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:29" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C2" t="s">
-        <v>115</v>
+        <v>44</v>
       </c>
       <c r="D2" t="s">
-        <v>116</v>
+        <v>43</v>
       </c>
       <c r="E2" t="s">
-        <v>113</v>
+        <v>42</v>
       </c>
       <c r="F2" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="G2" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="H2" t="s">
-        <v>42</v>
+        <v>11</v>
       </c>
       <c r="I2" t="s">
-        <v>40</v>
+        <v>12</v>
       </c>
       <c r="J2" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="K2" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="L2" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="M2" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="N2" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="O2" t="s">
-        <v>7</v>
+        <v>46</v>
       </c>
       <c r="P2" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>9</v>
+        <v>64</v>
+      </c>
+      <c r="Q2" s="13" t="s">
+        <v>65</v>
       </c>
       <c r="R2" t="s">
-        <v>46</v>
+        <v>132</v>
       </c>
       <c r="S2" t="s">
-        <v>64</v>
-      </c>
-      <c r="T2" s="13" t="s">
-        <v>65</v>
-      </c>
-      <c r="U2" t="s">
-        <v>135</v>
+        <v>161</v>
       </c>
       <c r="V2" t="s">
-        <v>164</v>
+        <v>125</v>
+      </c>
+      <c r="W2" t="s">
+        <v>41</v>
+      </c>
+      <c r="X2" t="s">
+        <v>18</v>
       </c>
       <c r="Y2" t="s">
-        <v>128</v>
+        <v>14</v>
       </c>
       <c r="Z2" t="s">
-        <v>41</v>
-      </c>
-      <c r="AA2" t="s">
-        <v>18</v>
+        <v>15</v>
+      </c>
+      <c r="AA2" s="13" t="s">
+        <v>16</v>
       </c>
       <c r="AB2" t="s">
-        <v>14</v>
+        <v>39</v>
       </c>
       <c r="AC2" t="s">
-        <v>15</v>
-      </c>
-      <c r="AD2" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="AE2" t="s">
-        <v>39</v>
-      </c>
-      <c r="AF2" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="3" spans="1:33" x14ac:dyDescent="0.25">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="3" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>17</v>
       </c>
       <c r="B3" s="10">
-        <v>57390</v>
+        <v>88.542000000000002</v>
       </c>
       <c r="C3" s="10">
-        <v>67014</v>
-      </c>
-      <c r="D3" s="10"/>
+        <v>70.930999999999997</v>
+      </c>
+      <c r="D3" s="10">
+        <v>132.83600000000001</v>
+      </c>
       <c r="E3" s="10">
-        <v>88542</v>
+        <f>X3-D3-C3-B3</f>
+        <v>322.22300000000007</v>
       </c>
       <c r="F3" s="10">
-        <v>70931</v>
+        <v>312.27600000000001</v>
       </c>
       <c r="G3" s="10">
-        <v>132836</v>
+        <v>297.60500000000002</v>
       </c>
       <c r="H3" s="10">
-        <f>AA3-G3-F3-E3</f>
-        <v>322223</v>
+        <v>212.81899999999999</v>
       </c>
       <c r="I3" s="10">
-        <v>312276</v>
+        <f>Y3-H3-G3-F3</f>
+        <v>473.3250000000001</v>
       </c>
       <c r="J3" s="10">
-        <v>297605</v>
+        <v>417.20499999999998</v>
       </c>
       <c r="K3" s="10">
-        <v>212819</v>
+        <v>466.185</v>
       </c>
       <c r="L3" s="10">
-        <f>AB3-K3-J3-I3</f>
-        <v>473325</v>
+        <v>501.93799999999999</v>
       </c>
       <c r="M3" s="10">
-        <v>417205</v>
+        <f>Z3-L3-K3-J3</f>
+        <v>855.13299999999981</v>
       </c>
       <c r="N3" s="10">
-        <v>466185</v>
+        <v>769.65200000000004</v>
       </c>
       <c r="O3" s="10">
-        <v>501938</v>
+        <v>874.92700000000002</v>
       </c>
       <c r="P3" s="10">
-        <f>AC3-O3-N3-M3</f>
-        <v>855133</v>
-      </c>
-      <c r="Q3" s="10">
-        <v>769652</v>
+        <v>789.95699999999999</v>
+      </c>
+      <c r="Q3" s="15">
+        <v>1230.857</v>
       </c>
       <c r="R3" s="10">
-        <v>874927</v>
-      </c>
-      <c r="S3" s="10">
-        <v>789957</v>
-      </c>
-      <c r="T3" s="15">
-        <v>1230857</v>
-      </c>
-      <c r="U3" s="10"/>
+        <v>1040</v>
+      </c>
+      <c r="S3" s="44">
+        <v>978</v>
+      </c>
+      <c r="V3" s="10">
+        <v>226.27699999999999</v>
+      </c>
+      <c r="W3" s="10">
+        <v>323.41000000000003</v>
+      </c>
+      <c r="X3" s="10">
+        <v>614.53200000000004</v>
+      </c>
       <c r="Y3" s="10">
-        <v>226277</v>
+        <v>1296.0250000000001</v>
       </c>
       <c r="Z3" s="10">
-        <v>323410</v>
-      </c>
-      <c r="AA3" s="10">
-        <v>614532</v>
-      </c>
-      <c r="AB3" s="10">
-        <v>1296025</v>
-      </c>
-      <c r="AC3" s="10">
-        <v>2240461</v>
-      </c>
-      <c r="AD3" s="15">
-        <f>SUM(Q3:T3)</f>
-        <v>3665393</v>
-      </c>
-      <c r="AE3" s="44">
-        <v>4690000</v>
-      </c>
-      <c r="AF3" s="44">
-        <v>5680000</v>
-      </c>
-    </row>
-    <row r="4" spans="1:33" x14ac:dyDescent="0.25">
+        <v>2240.4609999999998</v>
+      </c>
+      <c r="AA3" s="15">
+        <f>SUM(N3:Q3)</f>
+        <v>3665.393</v>
+      </c>
+      <c r="AB3" s="44">
+        <v>4810</v>
+      </c>
+      <c r="AC3" s="44">
+        <v>5680</v>
+      </c>
+    </row>
+    <row r="4" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A4" s="9" t="s">
-        <v>162</v>
-      </c>
-      <c r="B4" s="44"/>
-      <c r="C4" s="44"/>
-      <c r="D4" s="44"/>
+        <v>159</v>
+      </c>
+      <c r="B4" s="47">
+        <v>104.37</v>
+      </c>
+      <c r="C4" s="48">
+        <v>66.394000000000005</v>
+      </c>
+      <c r="D4" s="48">
+        <v>131.755</v>
+      </c>
       <c r="E4" s="48">
-        <v>104370</v>
-      </c>
-      <c r="F4" s="49">
-        <v>66394</v>
-      </c>
-      <c r="G4" s="49">
-        <v>131755</v>
-      </c>
-      <c r="H4" s="49">
-        <v>233236</v>
-      </c>
-      <c r="I4" s="49">
-        <v>236206</v>
-      </c>
-      <c r="J4" s="49">
-        <v>245523</v>
+        <v>233.23599999999999</v>
+      </c>
+      <c r="F4" s="48">
+        <v>236.20599999999999</v>
+      </c>
+      <c r="G4" s="48">
+        <v>245.523</v>
+      </c>
+      <c r="H4" s="47">
+        <v>236.852</v>
+      </c>
+      <c r="I4" s="48">
+        <v>447.12700000000001</v>
+      </c>
+      <c r="J4" s="48">
+        <v>412.20299999999997</v>
       </c>
       <c r="K4" s="48">
-        <v>236852</v>
-      </c>
-      <c r="L4" s="49">
-        <v>447127</v>
-      </c>
-      <c r="M4" s="49">
-        <v>412203</v>
-      </c>
-      <c r="N4" s="49">
-        <v>438593</v>
-      </c>
-      <c r="O4" s="49">
-        <v>441420</v>
-      </c>
-      <c r="P4" s="49">
-        <v>802470</v>
-      </c>
-      <c r="Q4" s="49">
-        <v>704299</v>
-      </c>
-      <c r="R4" s="49">
-        <v>764548</v>
-      </c>
-      <c r="S4" s="49">
-        <v>704867</v>
-      </c>
-      <c r="T4" s="52">
-        <v>1240000</v>
-      </c>
-      <c r="U4" s="10">
-        <v>1040000</v>
-      </c>
-      <c r="V4" s="57">
-        <v>978000</v>
-      </c>
+        <v>438.59300000000002</v>
+      </c>
+      <c r="L4" s="48">
+        <v>441.42</v>
+      </c>
+      <c r="M4" s="48">
+        <v>802.47</v>
+      </c>
+      <c r="N4" s="48">
+        <v>704.29899999999998</v>
+      </c>
+      <c r="O4" s="48">
+        <v>764.548</v>
+      </c>
+      <c r="P4" s="48">
+        <v>704.86699999999996</v>
+      </c>
+      <c r="Q4" s="51">
+        <v>1240</v>
+      </c>
+      <c r="R4" s="10">
+        <v>1040</v>
+      </c>
+      <c r="S4" s="44">
+        <v>978</v>
+      </c>
+      <c r="V4" s="10"/>
+      <c r="W4" s="10"/>
+      <c r="X4" s="10"/>
       <c r="Y4" s="10"/>
       <c r="Z4" s="10"/>
-      <c r="AA4" s="10"/>
-      <c r="AB4" s="10"/>
-      <c r="AC4" s="10"/>
-      <c r="AD4" s="54">
-        <v>3680000</v>
-      </c>
-      <c r="AE4" s="59">
-        <v>4690000</v>
-      </c>
-      <c r="AF4" s="59">
-        <v>5680000</v>
-      </c>
-    </row>
-    <row r="5" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="AA4" s="15">
+        <v>3680</v>
+      </c>
+      <c r="AB4" s="53">
+        <v>4810</v>
+      </c>
+      <c r="AC4" s="53">
+        <v>5680</v>
+      </c>
+    </row>
+    <row r="5" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
+        <v>114</v>
+      </c>
+      <c r="B5" s="10">
+        <v>43.415999999999997</v>
+      </c>
+      <c r="C5" s="10">
+        <v>47.33</v>
+      </c>
+      <c r="D5" s="10">
+        <v>96.569000000000003</v>
+      </c>
+      <c r="E5" s="10">
+        <f t="shared" ref="E5:E14" si="0">X5-D5-C5-B5</f>
+        <v>159.274</v>
+      </c>
+      <c r="F5" s="10">
+        <v>183.22499999999999</v>
+      </c>
+      <c r="G5" s="10">
+        <v>187.006</v>
+      </c>
+      <c r="H5" s="10">
+        <v>170.749</v>
+      </c>
+      <c r="I5" s="10">
+        <f t="shared" ref="I5:I17" si="1">Y5-H5-G5-F5</f>
+        <v>253.18200000000004</v>
+      </c>
+      <c r="J5" s="10">
+        <v>313.37900000000002</v>
+      </c>
+      <c r="K5" s="10">
+        <v>312.767</v>
+      </c>
+      <c r="L5" s="10">
+        <v>372.69200000000001</v>
+      </c>
+      <c r="M5" s="10">
+        <f t="shared" ref="M5:M17" si="2">Z5-L5-K5-J5</f>
+        <v>485.43499999999983</v>
+      </c>
+      <c r="N5" s="10">
+        <v>521.74</v>
+      </c>
+      <c r="O5" s="10">
+        <v>510.32299999999998</v>
+      </c>
+      <c r="P5" s="10">
+        <v>543.45399999999995</v>
+      </c>
+      <c r="Q5" s="15">
+        <v>716.65800000000002</v>
+      </c>
+      <c r="V5" s="10">
+        <v>48.689</v>
+      </c>
+      <c r="W5" s="10">
+        <v>103.889</v>
+      </c>
+      <c r="X5" s="10">
+        <v>346.589</v>
+      </c>
+      <c r="Y5" s="10">
+        <v>794.16200000000003</v>
+      </c>
+      <c r="Z5" s="10">
+        <v>1484.2729999999999</v>
+      </c>
+      <c r="AA5" s="15">
+        <f>SUM(N5:Q5)</f>
+        <v>2292.1750000000002</v>
+      </c>
+      <c r="AB5" s="44">
+        <f>AB3*(1-AB19)</f>
+        <v>2741.7000000000003</v>
+      </c>
+      <c r="AC5" s="44">
+        <f>AC3*(1-AC19)</f>
+        <v>3124.0000000000005</v>
+      </c>
+    </row>
+    <row r="6" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>115</v>
+      </c>
+      <c r="B6" s="10">
+        <v>53.706000000000003</v>
+      </c>
+      <c r="C6" s="10">
+        <v>46.188000000000002</v>
+      </c>
+      <c r="D6" s="10">
+        <v>203.339</v>
+      </c>
+      <c r="E6" s="10">
+        <f t="shared" si="0"/>
+        <v>191.959</v>
+      </c>
+      <c r="F6" s="10">
+        <v>228.68600000000001</v>
+      </c>
+      <c r="G6" s="10">
+        <v>170.71199999999999</v>
+      </c>
+      <c r="H6" s="10">
+        <v>303.65800000000002</v>
+      </c>
+      <c r="I6" s="10">
+        <f t="shared" si="1"/>
+        <v>278.44399999999996</v>
+      </c>
+      <c r="J6" s="10">
+        <v>321.452</v>
+      </c>
+      <c r="K6" s="10">
+        <v>197.529</v>
+      </c>
+      <c r="L6" s="10">
+        <v>321.714</v>
+      </c>
+      <c r="M6" s="10">
+        <f t="shared" si="2"/>
+        <v>345.28200000000015</v>
+      </c>
+      <c r="N6" s="10">
+        <v>389.13299999999998</v>
+      </c>
+      <c r="O6" s="10">
+        <v>207.48699999999999</v>
+      </c>
+      <c r="P6" s="10">
+        <v>313.32299999999998</v>
+      </c>
+      <c r="Q6" s="15">
+        <v>290.77499999999998</v>
+      </c>
+      <c r="V6" s="10">
+        <v>145.58000000000001</v>
+      </c>
+      <c r="W6" s="10">
+        <v>185.26900000000001</v>
+      </c>
+      <c r="X6" s="10">
+        <v>495.19200000000001</v>
+      </c>
+      <c r="Y6" s="10">
+        <v>981.5</v>
+      </c>
+      <c r="Z6" s="10">
+        <v>1185.9770000000001</v>
+      </c>
+      <c r="AA6" s="15">
+        <f>SUM(N6:Q6)</f>
+        <v>1200.7179999999998</v>
+      </c>
+      <c r="AB6" s="44">
+        <f>AB4*AB22</f>
+        <v>1298.7</v>
+      </c>
+      <c r="AC6" s="44">
+        <f>AC4*AC22</f>
+        <v>1306.4000000000001</v>
+      </c>
+    </row>
+    <row r="7" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>116</v>
+      </c>
+      <c r="B7" s="10">
+        <v>18.041</v>
+      </c>
+      <c r="C7" s="10">
+        <v>30.548999999999999</v>
+      </c>
+      <c r="D7" s="10">
+        <v>53.908999999999999</v>
+      </c>
+      <c r="E7" s="10">
+        <f t="shared" si="0"/>
+        <v>66.134000000000015</v>
+      </c>
+      <c r="F7" s="10">
+        <v>56.158999999999999</v>
+      </c>
+      <c r="G7" s="10">
+        <v>62.634999999999998</v>
+      </c>
+      <c r="H7" s="10">
+        <v>65.221999999999994</v>
+      </c>
+      <c r="I7" s="10">
+        <f t="shared" si="1"/>
+        <v>69.63900000000001</v>
+      </c>
+      <c r="J7" s="10">
+        <v>81.352000000000004</v>
+      </c>
+      <c r="K7" s="10">
+        <v>77.201999999999998</v>
+      </c>
+      <c r="L7" s="10">
+        <v>76.299000000000007</v>
+      </c>
+      <c r="M7" s="10">
+        <f t="shared" si="2"/>
+        <v>83.394000000000005</v>
+      </c>
+      <c r="N7" s="10">
+        <v>88.087999999999994</v>
+      </c>
+      <c r="O7" s="10">
+        <v>89.906000000000006</v>
+      </c>
+      <c r="P7" s="10">
+        <v>89.004999999999995</v>
+      </c>
+      <c r="Q7" s="15">
+        <v>88.156999999999996</v>
+      </c>
+      <c r="V7" s="10">
+        <v>32.884999999999998</v>
+      </c>
+      <c r="W7" s="10">
+        <v>55.929000000000002</v>
+      </c>
+      <c r="X7" s="10">
+        <v>168.63300000000001</v>
+      </c>
+      <c r="Y7" s="10">
+        <v>253.655</v>
+      </c>
+      <c r="Z7" s="10">
+        <v>318.24700000000001</v>
+      </c>
+      <c r="AA7" s="15">
+        <f>SUM(N7:Q7)</f>
+        <v>355.15600000000001</v>
+      </c>
+      <c r="AB7" s="44">
+        <v>350</v>
+      </c>
+      <c r="AC7" s="44">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="8" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
         <v>117</v>
       </c>
-      <c r="B5" s="10">
-        <v>17834</v>
-      </c>
-      <c r="C5" s="10">
-        <v>25332</v>
-      </c>
-      <c r="D5" s="10"/>
-      <c r="E5" s="10">
-        <v>43416</v>
-      </c>
-      <c r="F5" s="10">
-        <v>47330</v>
-      </c>
-      <c r="G5" s="10">
-        <v>96569</v>
-      </c>
-      <c r="H5" s="10">
-        <f t="shared" ref="H5:H14" si="0">AA5-G5-F5-E5</f>
-        <v>159274</v>
-      </c>
-      <c r="I5" s="10">
-        <v>183225</v>
-      </c>
-      <c r="J5" s="10">
-        <v>187006</v>
-      </c>
-      <c r="K5" s="10">
-        <v>170749</v>
-      </c>
-      <c r="L5" s="10">
-        <f t="shared" ref="L5:L17" si="1">AB5-K5-J5-I5</f>
-        <v>253182</v>
-      </c>
-      <c r="M5" s="10">
-        <v>313379</v>
-      </c>
-      <c r="N5" s="10">
-        <v>312767</v>
-      </c>
-      <c r="O5" s="10">
-        <v>372692</v>
-      </c>
-      <c r="P5" s="10">
-        <f t="shared" ref="P5:P17" si="2">AC5-O5-N5-M5</f>
-        <v>485435</v>
-      </c>
-      <c r="Q5" s="10">
-        <v>521740</v>
-      </c>
-      <c r="R5" s="10">
-        <v>510323</v>
-      </c>
-      <c r="S5" s="10">
-        <v>543454</v>
-      </c>
-      <c r="T5" s="15">
-        <v>716658</v>
-      </c>
-      <c r="Y5" s="10">
-        <v>48689</v>
-      </c>
-      <c r="Z5" s="10">
-        <v>103889</v>
-      </c>
-      <c r="AA5" s="10">
-        <v>346589</v>
-      </c>
-      <c r="AB5" s="10">
-        <v>794162</v>
-      </c>
-      <c r="AC5" s="10">
-        <v>1484273</v>
-      </c>
-      <c r="AD5" s="15">
-        <f>SUM(Q5:T5)</f>
-        <v>2292175</v>
-      </c>
-      <c r="AE5" s="44">
-        <f>AE3*(1-AE19)</f>
-        <v>2767100.0000000005</v>
-      </c>
-      <c r="AF5" s="44">
-        <f>AF3*(1-AF19)</f>
-        <v>3237600.0000000005</v>
-      </c>
-    </row>
-    <row r="6" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>118</v>
-      </c>
-      <c r="B6" s="10">
-        <v>29671</v>
-      </c>
-      <c r="C6" s="10">
-        <v>58351</v>
-      </c>
-      <c r="D6" s="10"/>
-      <c r="E6" s="10">
-        <v>53706</v>
-      </c>
-      <c r="F6" s="10">
-        <v>46188</v>
-      </c>
-      <c r="G6" s="10">
-        <v>203339</v>
-      </c>
-      <c r="H6" s="10">
+      <c r="B8" s="10">
+        <v>39.496000000000002</v>
+      </c>
+      <c r="C8" s="10">
+        <v>107.30800000000001</v>
+      </c>
+      <c r="D8" s="10">
+        <v>127.386</v>
+      </c>
+      <c r="E8" s="10">
         <f t="shared" si="0"/>
-        <v>191959</v>
-      </c>
-      <c r="I6" s="10">
-        <v>228686</v>
-      </c>
-      <c r="J6" s="10">
-        <v>170712</v>
-      </c>
-      <c r="K6" s="10">
-        <v>303658</v>
-      </c>
-      <c r="L6" s="10">
+        <v>173.18400000000005</v>
+      </c>
+      <c r="F8" s="10">
+        <v>168.99700000000001</v>
+      </c>
+      <c r="G8" s="10">
+        <v>198.80600000000001</v>
+      </c>
+      <c r="H8" s="10">
+        <v>219.70599999999999</v>
+      </c>
+      <c r="I8" s="10">
         <f t="shared" si="1"/>
-        <v>278444</v>
-      </c>
-      <c r="M6" s="10">
-        <v>321452</v>
-      </c>
-      <c r="N6" s="10">
-        <v>197529</v>
-      </c>
-      <c r="O6" s="10">
-        <v>321714</v>
-      </c>
-      <c r="P6" s="10">
+        <v>240.81599999999997</v>
+      </c>
+      <c r="J8" s="10">
+        <v>216.60599999999999</v>
+      </c>
+      <c r="K8" s="10">
+        <v>187.60900000000001</v>
+      </c>
+      <c r="L8" s="10">
+        <v>186.261</v>
+      </c>
+      <c r="M8" s="10">
         <f t="shared" si="2"/>
-        <v>345282</v>
-      </c>
-      <c r="Q6" s="10">
-        <v>389133</v>
-      </c>
-      <c r="R6" s="10">
-        <v>207487</v>
-      </c>
-      <c r="S6" s="10">
-        <v>313323</v>
-      </c>
-      <c r="T6" s="15">
-        <v>290775</v>
-      </c>
-      <c r="Y6" s="10">
-        <v>145580</v>
-      </c>
-      <c r="Z6" s="10">
-        <v>185269</v>
-      </c>
-      <c r="AA6" s="10">
-        <v>495192</v>
-      </c>
-      <c r="AB6" s="10">
-        <v>981500</v>
-      </c>
-      <c r="AC6" s="10">
-        <v>1185977</v>
-      </c>
-      <c r="AD6" s="15">
-        <f>SUM(Q6:T6)</f>
-        <v>1200718</v>
-      </c>
-      <c r="AE6" s="44">
-        <f>AE4*AE22</f>
-        <v>1266300</v>
-      </c>
-      <c r="AF6" s="44">
-        <f>AF4*AF22</f>
-        <v>1306400</v>
-      </c>
-    </row>
-    <row r="7" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>119</v>
-      </c>
-      <c r="B7" s="10">
-        <v>12234</v>
-      </c>
-      <c r="C7" s="10">
-        <v>14323</v>
-      </c>
-      <c r="D7" s="10"/>
-      <c r="E7" s="10">
-        <v>18041</v>
-      </c>
-      <c r="F7" s="10">
-        <v>30549</v>
-      </c>
-      <c r="G7" s="10">
-        <v>53909</v>
-      </c>
-      <c r="H7" s="10">
-        <f t="shared" si="0"/>
-        <v>66134</v>
-      </c>
-      <c r="I7" s="10">
-        <v>56159</v>
-      </c>
-      <c r="J7" s="10">
-        <v>62635</v>
-      </c>
-      <c r="K7" s="10">
-        <v>65222</v>
-      </c>
-      <c r="L7" s="10">
-        <f t="shared" si="1"/>
-        <v>69639</v>
-      </c>
-      <c r="M7" s="10">
-        <v>81352</v>
-      </c>
-      <c r="N7" s="10">
-        <v>77202</v>
-      </c>
-      <c r="O7" s="10">
-        <v>76299</v>
-      </c>
-      <c r="P7" s="10">
-        <f t="shared" si="2"/>
-        <v>83394</v>
-      </c>
-      <c r="Q7" s="10">
-        <v>88088</v>
-      </c>
-      <c r="R7" s="10">
-        <v>89906</v>
-      </c>
-      <c r="S7" s="10">
-        <v>89005</v>
-      </c>
-      <c r="T7" s="15">
-        <v>88157</v>
-      </c>
-      <c r="Y7" s="10">
-        <v>32885</v>
-      </c>
-      <c r="Z7" s="10">
-        <v>55929</v>
-      </c>
-      <c r="AA7" s="10">
-        <v>168633</v>
-      </c>
-      <c r="AB7" s="10">
-        <v>253655</v>
-      </c>
-      <c r="AC7" s="10">
-        <v>318247</v>
-      </c>
-      <c r="AD7" s="15">
-        <f>SUM(Q7:T7)</f>
-        <v>355156</v>
-      </c>
-      <c r="AE7" s="44">
-        <v>350000</v>
-      </c>
-      <c r="AF7" s="44">
-        <v>350000</v>
-      </c>
-    </row>
-    <row r="8" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>120</v>
-      </c>
-      <c r="B8" s="10">
-        <v>26183</v>
-      </c>
-      <c r="C8" s="10">
-        <v>25185</v>
-      </c>
-      <c r="D8" s="10"/>
-      <c r="E8" s="10">
-        <v>39496</v>
-      </c>
-      <c r="F8" s="10">
-        <v>107308</v>
-      </c>
-      <c r="G8" s="10">
-        <v>127386</v>
-      </c>
-      <c r="H8" s="10">
-        <f t="shared" si="0"/>
-        <v>173184</v>
-      </c>
-      <c r="I8" s="10">
-        <v>168997</v>
-      </c>
-      <c r="J8" s="10">
-        <v>198806</v>
-      </c>
-      <c r="K8" s="10">
-        <v>219706</v>
-      </c>
-      <c r="L8" s="10">
-        <f t="shared" si="1"/>
-        <v>240816</v>
-      </c>
-      <c r="M8" s="10">
-        <v>216606</v>
+        <v>173.24400000000003</v>
       </c>
       <c r="N8" s="10">
-        <v>187609</v>
+        <v>160.476</v>
       </c>
       <c r="O8" s="10">
-        <v>186261</v>
+        <v>136.256</v>
       </c>
       <c r="P8" s="10">
-        <f t="shared" si="2"/>
-        <v>173244</v>
-      </c>
-      <c r="Q8" s="10">
-        <v>160476</v>
-      </c>
-      <c r="R8" s="10">
-        <v>136256</v>
-      </c>
-      <c r="S8" s="10">
-        <v>130761</v>
-      </c>
-      <c r="T8" s="15">
-        <v>179076</v>
+        <v>130.761</v>
+      </c>
+      <c r="Q8" s="15">
+        <v>179.07599999999999</v>
+      </c>
+      <c r="V8" s="10">
+        <v>75.903999999999996</v>
+      </c>
+      <c r="W8" s="10">
+        <v>124.86799999999999</v>
+      </c>
+      <c r="X8" s="10">
+        <v>447.37400000000002</v>
       </c>
       <c r="Y8" s="10">
-        <v>75904</v>
+        <v>828.32500000000005</v>
       </c>
       <c r="Z8" s="10">
-        <v>124868</v>
-      </c>
-      <c r="AA8" s="10">
-        <v>447374</v>
-      </c>
-      <c r="AB8" s="10">
-        <v>828325</v>
-      </c>
-      <c r="AC8" s="10">
-        <v>763720</v>
-      </c>
-      <c r="AD8" s="15">
-        <f>SUM(Q8:T8)</f>
-        <v>606569</v>
-      </c>
-      <c r="AE8" s="44">
-        <v>500000</v>
-      </c>
-      <c r="AF8" s="44">
-        <v>500000</v>
-      </c>
-    </row>
-    <row r="9" spans="1:33" s="1" customFormat="1" x14ac:dyDescent="0.25">
+        <v>763.72</v>
+      </c>
+      <c r="AA8" s="15">
+        <f>SUM(N8:Q8)</f>
+        <v>606.56899999999996</v>
+      </c>
+      <c r="AB8" s="44">
+        <v>500</v>
+      </c>
+      <c r="AC8" s="44">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="9" spans="1:29" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>23</v>
       </c>
       <c r="B9" s="11">
-        <f t="shared" ref="B9:E9" si="3">B3-B5-B6-B7-B8</f>
-        <v>-28532</v>
+        <f t="shared" ref="B9" si="3">B3-B5-B6-B7-B8</f>
+        <v>-66.117000000000004</v>
       </c>
       <c r="C9" s="11">
-        <f t="shared" si="3"/>
-        <v>-56177</v>
+        <f>C3-C5-C6-C7-C8</f>
+        <v>-160.44400000000002</v>
       </c>
       <c r="D9" s="11">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <f t="shared" ref="D9:Q9" si="4">D3-D5-D6-D7-D8</f>
+        <v>-348.36699999999996</v>
       </c>
       <c r="E9" s="11">
-        <f t="shared" si="3"/>
-        <v>-66117</v>
+        <f t="shared" si="4"/>
+        <v>-268.32799999999997</v>
       </c>
       <c r="F9" s="11">
-        <f>F3-F5-F6-F7-F8</f>
-        <v>-160444</v>
+        <f t="shared" si="4"/>
+        <v>-324.791</v>
       </c>
       <c r="G9" s="11">
-        <f t="shared" ref="G9:T9" si="4">G3-G5-G6-G7-G8</f>
-        <v>-348367</v>
+        <f t="shared" si="4"/>
+        <v>-321.55399999999997</v>
       </c>
       <c r="H9" s="11">
         <f t="shared" si="4"/>
-        <v>-268328</v>
+        <v>-546.51599999999996</v>
       </c>
       <c r="I9" s="11">
         <f t="shared" si="4"/>
-        <v>-324791</v>
+        <v>-368.75599999999986</v>
       </c>
       <c r="J9" s="11">
         <f t="shared" si="4"/>
-        <v>-321554</v>
+        <v>-515.58400000000006</v>
       </c>
       <c r="K9" s="11">
         <f t="shared" si="4"/>
-        <v>-546516</v>
+        <v>-308.92200000000003</v>
       </c>
       <c r="L9" s="11">
         <f t="shared" si="4"/>
-        <v>-368756</v>
+        <v>-455.02800000000002</v>
       </c>
       <c r="M9" s="11">
         <f t="shared" si="4"/>
-        <v>-515584</v>
+        <v>-232.22200000000021</v>
       </c>
       <c r="N9" s="11">
         <f t="shared" si="4"/>
-        <v>-308922</v>
+        <v>-389.78499999999997</v>
       </c>
       <c r="O9" s="11">
         <f t="shared" si="4"/>
-        <v>-455028</v>
+        <v>-69.044999999999959</v>
       </c>
       <c r="P9" s="11">
         <f t="shared" si="4"/>
-        <v>-232222</v>
-      </c>
-      <c r="Q9" s="11">
+        <v>-286.5859999999999</v>
+      </c>
+      <c r="Q9" s="14">
         <f t="shared" si="4"/>
-        <v>-389785</v>
-      </c>
-      <c r="R9" s="11">
-        <f t="shared" si="4"/>
-        <v>-69045</v>
-      </c>
-      <c r="S9" s="11">
-        <f t="shared" si="4"/>
-        <v>-286586</v>
-      </c>
-      <c r="T9" s="14">
-        <f t="shared" si="4"/>
-        <v>-43809</v>
+        <v>-43.808999999999997</v>
+      </c>
+      <c r="V9" s="11">
+        <f t="shared" ref="V9:AA9" si="5">V3-V5-V6-V7-V8</f>
+        <v>-76.781000000000006</v>
+      </c>
+      <c r="W9" s="11">
+        <f t="shared" si="5"/>
+        <v>-146.54499999999999</v>
+      </c>
+      <c r="X9" s="11">
+        <f t="shared" si="5"/>
+        <v>-843.25599999999997</v>
       </c>
       <c r="Y9" s="11">
-        <f t="shared" ref="Y9:AD9" si="5">Y3-Y5-Y6-Y7-Y8</f>
-        <v>-76781</v>
+        <f t="shared" si="5"/>
+        <v>-1561.617</v>
       </c>
       <c r="Z9" s="11">
         <f t="shared" si="5"/>
-        <v>-146545</v>
-      </c>
-      <c r="AA9" s="11">
+        <v>-1511.7560000000003</v>
+      </c>
+      <c r="AA9" s="14">
         <f t="shared" si="5"/>
-        <v>-843256</v>
-      </c>
-      <c r="AB9" s="11">
-        <f t="shared" si="5"/>
-        <v>-1561617</v>
-      </c>
-      <c r="AC9" s="11">
-        <f t="shared" si="5"/>
-        <v>-1511756</v>
-      </c>
-      <c r="AD9" s="14">
-        <f t="shared" si="5"/>
-        <v>-789225</v>
-      </c>
-      <c r="AE9" s="60">
-        <f>AE4-AE5-AE6-AE7-AE8</f>
-        <v>-193400.00000000047</v>
-      </c>
-      <c r="AF9" s="60">
-        <f>AF4-AF5-AF6-AF7-AF8</f>
-        <v>285999.99999999953</v>
-      </c>
-    </row>
-    <row r="10" spans="1:33" x14ac:dyDescent="0.25">
+        <v>-789.22499999999991</v>
+      </c>
+      <c r="AB9" s="54">
+        <f>AB4-AB5-AB6-AB7-AB8</f>
+        <v>-80.400000000000318</v>
+      </c>
+      <c r="AC9" s="54">
+        <f>AC4-AC5-AC6-AC7-AC8</f>
+        <v>399.59999999999945</v>
+      </c>
+    </row>
+    <row r="10" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="B10" s="10">
-        <v>426</v>
+        <v>-2.351</v>
       </c>
       <c r="C10" s="10">
-        <v>277</v>
-      </c>
-      <c r="D10" s="10"/>
+        <v>-0.58799999999999997</v>
+      </c>
+      <c r="D10" s="10">
+        <v>0.68600000000000005</v>
+      </c>
       <c r="E10" s="10">
-        <v>-2351</v>
+        <f t="shared" si="0"/>
+        <v>1.1829999999999998</v>
       </c>
       <c r="F10" s="10">
-        <v>-588</v>
+        <v>0.98499999999999999</v>
       </c>
       <c r="G10" s="10">
-        <v>686</v>
+        <v>1.6419999999999999</v>
       </c>
       <c r="H10" s="10">
-        <f t="shared" si="0"/>
-        <v>1183</v>
+        <v>-1.556</v>
       </c>
       <c r="I10" s="10">
-        <v>985</v>
+        <f t="shared" si="1"/>
+        <v>0.88600000000000001</v>
       </c>
       <c r="J10" s="10">
-        <v>1642</v>
+        <v>0.14799999999999999</v>
       </c>
       <c r="K10" s="10">
-        <v>-1556</v>
+        <v>1.929</v>
       </c>
       <c r="L10" s="10">
-        <f t="shared" si="1"/>
-        <v>886</v>
+        <v>6.3010000000000002</v>
       </c>
       <c r="M10" s="10">
-        <v>148</v>
+        <f t="shared" si="2"/>
+        <v>10.324000000000002</v>
       </c>
       <c r="N10" s="10">
-        <v>1929</v>
+        <f>11.795-0.655</f>
+        <v>11.14</v>
       </c>
       <c r="O10" s="10">
-        <v>6301</v>
+        <f>13.411-0.666</f>
+        <v>12.744999999999999</v>
       </c>
       <c r="P10" s="10">
-        <f t="shared" si="2"/>
-        <v>10324</v>
-      </c>
-      <c r="Q10" s="10">
-        <f>11795-655</f>
-        <v>11140</v>
-      </c>
-      <c r="R10" s="10">
-        <f>13411-666</f>
-        <v>12745</v>
-      </c>
-      <c r="S10" s="10">
-        <f>14420-670</f>
-        <v>13750</v>
-      </c>
-      <c r="T10" s="15">
-        <f>18792-688</f>
-        <v>18104</v>
+        <f>14.42-0.67</f>
+        <v>13.75</v>
+      </c>
+      <c r="Q10" s="15">
+        <f>18.792-0.688</f>
+        <v>18.104000000000003</v>
+      </c>
+      <c r="V10" s="10">
+        <v>0.66600000000000004</v>
+      </c>
+      <c r="W10" s="10">
+        <v>1.3480000000000001</v>
+      </c>
+      <c r="X10" s="10">
+        <v>-1.07</v>
       </c>
       <c r="Y10" s="10">
-        <v>666</v>
+        <v>1.9570000000000001</v>
       </c>
       <c r="Z10" s="10">
-        <v>1348</v>
-      </c>
-      <c r="AA10" s="10">
-        <v>-1070</v>
-      </c>
-      <c r="AB10" s="10">
-        <v>1957</v>
-      </c>
-      <c r="AC10" s="10">
-        <v>18702</v>
-      </c>
-      <c r="AD10" s="15">
-        <f>SUM(Q10:T10)</f>
-        <v>55739</v>
-      </c>
-      <c r="AE10" s="61">
-        <v>55739</v>
-      </c>
-      <c r="AF10" s="61">
-        <v>55739</v>
-      </c>
-    </row>
-    <row r="11" spans="1:33" x14ac:dyDescent="0.25">
+        <v>18.702000000000002</v>
+      </c>
+      <c r="AA10" s="15">
+        <f>SUM(N10:Q10)</f>
+        <v>55.739000000000004</v>
+      </c>
+      <c r="AB10" s="44">
+        <v>55.738999999999997</v>
+      </c>
+      <c r="AC10" s="44">
+        <v>55.738999999999997</v>
+      </c>
+    </row>
+    <row r="11" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="B11" s="10"/>
       <c r="C11" s="10"/>
       <c r="D11" s="10"/>
-      <c r="E11" s="10"/>
-      <c r="F11" s="10"/>
-      <c r="G11" s="10"/>
-      <c r="H11" s="10">
+      <c r="E11" s="10">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
+      <c r="F11" s="10">
+        <v>-26.98</v>
+      </c>
+      <c r="G11" s="10">
+        <v>16.984000000000002</v>
+      </c>
+      <c r="H11" s="10">
+        <v>7.0910000000000002</v>
+      </c>
       <c r="I11" s="10">
-        <v>-26980</v>
+        <f t="shared" si="1"/>
+        <v>44.921000000000006</v>
       </c>
       <c r="J11" s="10">
-        <v>16984</v>
+        <f>12.681+37.882</f>
+        <v>50.562999999999995</v>
       </c>
       <c r="K11" s="10">
-        <v>7091</v>
+        <f>14.315-5.573</f>
+        <v>8.7419999999999991</v>
       </c>
       <c r="L11" s="10">
-        <f t="shared" si="1"/>
-        <v>44921</v>
+        <f>-6.797+8.257</f>
+        <v>1.46</v>
       </c>
       <c r="M11" s="10">
-        <f>12681+37882</f>
-        <v>50563</v>
+        <f t="shared" si="2"/>
+        <v>-10.66899999999999</v>
       </c>
       <c r="N11" s="10">
-        <f>14315-5573</f>
-        <v>8742</v>
+        <f>-17.035+0.019</f>
+        <v>-17.016000000000002</v>
       </c>
       <c r="O11" s="10">
-        <f>-6797+8257</f>
-        <v>1460</v>
+        <f>-20.041+0.045</f>
+        <v>-19.995999999999999</v>
       </c>
       <c r="P11" s="10">
-        <f t="shared" si="2"/>
-        <v>-10669</v>
-      </c>
-      <c r="Q11" s="10">
-        <f>-17035+19</f>
-        <v>-17016</v>
-      </c>
-      <c r="R11" s="10">
-        <f>-20041+45</f>
-        <v>-19996</v>
-      </c>
-      <c r="S11" s="10">
-        <f>-7751-1217</f>
-        <v>-8968</v>
-      </c>
-      <c r="T11" s="15">
-        <f>-12716+929</f>
-        <v>-11787</v>
-      </c>
-      <c r="Y11" s="10"/>
+        <f>-7.751-1.217</f>
+        <v>-8.968</v>
+      </c>
+      <c r="Q11" s="15">
+        <f>-12.716+0.929</f>
+        <v>-11.786999999999999</v>
+      </c>
+      <c r="V11" s="10"/>
+      <c r="W11" s="10">
+        <v>3</v>
+      </c>
+      <c r="X11" s="10">
+        <v>0</v>
+      </c>
+      <c r="Y11" s="10">
+        <f>30.065+11.951</f>
+        <v>42.016000000000005</v>
+      </c>
       <c r="Z11" s="10">
-        <v>3000</v>
-      </c>
-      <c r="AA11" s="10">
-        <v>0</v>
-      </c>
-      <c r="AB11" s="10">
-        <f>30065+11951</f>
-        <v>42016</v>
-      </c>
-      <c r="AC11" s="10">
-        <f>29396+20700</f>
-        <v>50096</v>
-      </c>
-      <c r="AD11" s="15">
-        <f>SUM(Q11:T11)</f>
-        <v>-57767</v>
-      </c>
-      <c r="AE11" s="44">
-        <v>25000</v>
-      </c>
-      <c r="AF11" s="57">
-        <v>25000</v>
-      </c>
-    </row>
-    <row r="12" spans="1:33" s="1" customFormat="1" x14ac:dyDescent="0.25">
+        <f>29.396+20.7</f>
+        <v>50.096000000000004</v>
+      </c>
+      <c r="AA11" s="15">
+        <f>SUM(N11:Q11)</f>
+        <v>-57.767000000000003</v>
+      </c>
+      <c r="AB11" s="44">
+        <v>25</v>
+      </c>
+      <c r="AC11" s="44">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="12" spans="1:29" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>19</v>
       </c>
       <c r="B12" s="11">
-        <f>B9+B10+B11</f>
-        <v>-28106</v>
+        <f t="shared" ref="B12:N12" si="6">B9+B10+B11</f>
+        <v>-68.468000000000004</v>
       </c>
       <c r="C12" s="11">
-        <f t="shared" ref="C12:Q12" si="6">C9+C10+C11</f>
-        <v>-55900</v>
+        <f t="shared" si="6"/>
+        <v>-161.03200000000001</v>
       </c>
       <c r="D12" s="11">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>-347.68099999999998</v>
       </c>
       <c r="E12" s="11">
         <f t="shared" si="6"/>
-        <v>-68468</v>
+        <v>-267.14499999999998</v>
       </c>
       <c r="F12" s="11">
         <f t="shared" si="6"/>
-        <v>-161032</v>
+        <v>-350.786</v>
       </c>
       <c r="G12" s="11">
         <f t="shared" si="6"/>
-        <v>-347681</v>
+        <v>-302.928</v>
       </c>
       <c r="H12" s="11">
         <f t="shared" si="6"/>
-        <v>-267145</v>
+        <v>-540.98099999999999</v>
       </c>
       <c r="I12" s="11">
         <f t="shared" si="6"/>
-        <v>-350786</v>
+        <v>-322.94899999999984</v>
       </c>
       <c r="J12" s="11">
         <f t="shared" si="6"/>
-        <v>-302928</v>
+        <v>-464.87300000000005</v>
       </c>
       <c r="K12" s="11">
         <f t="shared" si="6"/>
-        <v>-540981</v>
+        <v>-298.25100000000003</v>
       </c>
       <c r="L12" s="11">
         <f t="shared" si="6"/>
-        <v>-322949</v>
+        <v>-447.26700000000005</v>
       </c>
       <c r="M12" s="11">
         <f t="shared" si="6"/>
-        <v>-464873</v>
+        <v>-232.56700000000018</v>
       </c>
       <c r="N12" s="11">
         <f t="shared" si="6"/>
-        <v>-298251</v>
+        <v>-395.661</v>
       </c>
       <c r="O12" s="11">
-        <f t="shared" si="6"/>
-        <v>-447267</v>
+        <f>O9+O10+O11</f>
+        <v>-76.295999999999964</v>
       </c>
       <c r="P12" s="11">
-        <f t="shared" si="6"/>
-        <v>-232567</v>
-      </c>
-      <c r="Q12" s="11">
-        <f t="shared" si="6"/>
-        <v>-395661</v>
-      </c>
-      <c r="R12" s="11">
-        <f>R9+R10+R11</f>
-        <v>-76296</v>
-      </c>
-      <c r="S12" s="11">
-        <f>S9+S10+S11</f>
-        <v>-281804</v>
-      </c>
-      <c r="T12" s="14">
-        <f>T9+T10+T11</f>
-        <v>-37492</v>
+        <f>P9+P10+P11</f>
+        <v>-281.80399999999992</v>
+      </c>
+      <c r="Q12" s="14">
+        <f>Q9+Q10+Q11</f>
+        <v>-37.49199999999999</v>
+      </c>
+      <c r="V12" s="11">
+        <f>V9+V10+V11</f>
+        <v>-76.115000000000009</v>
+      </c>
+      <c r="W12" s="11">
+        <f>W9+W10+W11</f>
+        <v>-142.19699999999997</v>
+      </c>
+      <c r="X12" s="11">
+        <f t="shared" ref="X12:AA12" si="7">X9+X10+X11</f>
+        <v>-844.32600000000002</v>
       </c>
       <c r="Y12" s="11">
-        <f>Y9+Y10+Y11</f>
-        <v>-76115</v>
+        <f t="shared" si="7"/>
+        <v>-1517.6439999999998</v>
       </c>
       <c r="Z12" s="11">
-        <f>Z9+Z10+Z11</f>
-        <v>-142197</v>
-      </c>
-      <c r="AA12" s="11">
-        <f t="shared" ref="AA12:AF12" si="7">AA9+AA10+AA11</f>
-        <v>-844326</v>
-      </c>
-      <c r="AB12" s="11">
         <f t="shared" si="7"/>
-        <v>-1517644</v>
-      </c>
-      <c r="AC12" s="11">
+        <v>-1442.9580000000003</v>
+      </c>
+      <c r="AA12" s="14">
         <f t="shared" si="7"/>
-        <v>-1442958</v>
-      </c>
-      <c r="AD12" s="14">
-        <f t="shared" si="7"/>
-        <v>-791253</v>
-      </c>
-      <c r="AE12" s="71">
-        <f t="shared" si="7"/>
-        <v>-112661.00000000047</v>
-      </c>
-      <c r="AF12" s="72">
-        <f t="shared" si="7"/>
-        <v>366738.99999999953</v>
-      </c>
-    </row>
-    <row r="13" spans="1:33" x14ac:dyDescent="0.25">
+        <v>-791.25299999999993</v>
+      </c>
+      <c r="AB12" s="63">
+        <f>AB9+AB10+AB11</f>
+        <v>0.33899999999967889</v>
+      </c>
+      <c r="AC12" s="64">
+        <f>AC9+AC10+AC11</f>
+        <v>480.33899999999943</v>
+      </c>
+    </row>
+    <row r="13" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>20</v>
       </c>
       <c r="B13" s="10">
-        <v>-7</v>
+        <v>8.9999999999999993E-3</v>
       </c>
       <c r="C13" s="10">
-        <v>-19</v>
-      </c>
-      <c r="D13" s="10"/>
+        <v>-0.32300000000000001</v>
+      </c>
+      <c r="D13" s="10">
+        <v>1.2999999999999999E-2</v>
+      </c>
       <c r="E13" s="10">
-        <v>9</v>
+        <f t="shared" si="0"/>
+        <v>0.92299999999999993</v>
       </c>
       <c r="F13" s="10">
-        <v>-323</v>
+        <v>-4.5949999999999998</v>
       </c>
       <c r="G13" s="10">
-        <v>13</v>
+        <v>2.4039999999999999</v>
       </c>
       <c r="H13" s="10">
+        <v>3.8450000000000002</v>
+      </c>
+      <c r="I13" s="10">
+        <f t="shared" si="1"/>
+        <v>6.6149999999999993</v>
+      </c>
+      <c r="J13" s="10">
+        <v>0.46899999999999997</v>
+      </c>
+      <c r="K13" s="10">
+        <v>-81.225999999999999</v>
+      </c>
+      <c r="L13" s="10">
+        <v>3.177</v>
+      </c>
+      <c r="M13" s="10">
+        <f t="shared" si="2"/>
+        <v>9.7139999999999933</v>
+      </c>
+      <c r="N13" s="10">
+        <v>1.3680000000000001</v>
+      </c>
+      <c r="O13" s="10">
+        <v>0.65100000000000002</v>
+      </c>
+      <c r="P13" s="10">
+        <v>1.2909999999999999</v>
+      </c>
+      <c r="Q13" s="15">
+        <v>6.86</v>
+      </c>
+      <c r="V13" s="10">
+        <v>-0.105</v>
+      </c>
+      <c r="W13" s="10">
+        <v>-5.8000000000000003E-2</v>
+      </c>
+      <c r="X13" s="10">
+        <v>0.622</v>
+      </c>
+      <c r="Y13" s="10">
+        <v>8.2690000000000001</v>
+      </c>
+      <c r="Z13" s="10">
+        <v>-67.866</v>
+      </c>
+      <c r="AA13" s="15">
+        <f>SUM(N13:Q13)</f>
+        <v>10.17</v>
+      </c>
+      <c r="AB13" s="44"/>
+      <c r="AC13" s="9"/>
+    </row>
+    <row r="14" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>127</v>
+      </c>
+      <c r="B14" s="10">
+        <v>0.20300000000000001</v>
+      </c>
+      <c r="C14" s="10">
+        <v>-8.2000000000000003E-2</v>
+      </c>
+      <c r="D14" s="10">
+        <v>-9.5000000000000001E-2</v>
+      </c>
+      <c r="E14" s="10">
         <f t="shared" si="0"/>
-        <v>923</v>
-      </c>
-      <c r="I13" s="10">
-        <v>-4595</v>
-      </c>
-      <c r="J13" s="10">
-        <v>2404</v>
-      </c>
-      <c r="K13" s="10">
-        <v>3845</v>
-      </c>
-      <c r="L13" s="10">
+        <v>-0.59199999999999997</v>
+      </c>
+      <c r="F14" s="10">
+        <v>0.153</v>
+      </c>
+      <c r="G14" s="10">
+        <v>0.19400000000000001</v>
+      </c>
+      <c r="H14" s="10">
+        <v>0.20200000000000001</v>
+      </c>
+      <c r="I14" s="10">
         <f t="shared" si="1"/>
-        <v>6615</v>
-      </c>
-      <c r="M13" s="10">
-        <v>469</v>
-      </c>
-      <c r="N13" s="10">
-        <v>-81226</v>
-      </c>
-      <c r="O13" s="10">
-        <v>3177</v>
-      </c>
-      <c r="P13" s="10">
+        <v>-3.2669999999999999</v>
+      </c>
+      <c r="J14" s="10">
+        <v>2.351</v>
+      </c>
+      <c r="K14" s="10">
+        <v>7.8E-2</v>
+      </c>
+      <c r="L14" s="10">
+        <v>0.05</v>
+      </c>
+      <c r="M14" s="10">
         <f t="shared" si="2"/>
-        <v>9714</v>
-      </c>
-      <c r="Q13" s="10">
-        <v>1368</v>
-      </c>
-      <c r="R13" s="10">
-        <v>651</v>
-      </c>
-      <c r="S13" s="10">
-        <v>1291</v>
-      </c>
-      <c r="T13" s="15">
-        <v>6860</v>
-      </c>
-      <c r="Y13" s="10">
-        <v>-105</v>
-      </c>
-      <c r="Z13" s="10">
-        <v>-58</v>
-      </c>
-      <c r="AA13" s="10">
-        <v>622</v>
-      </c>
-      <c r="AB13" s="10">
-        <v>8269</v>
-      </c>
-      <c r="AC13" s="10">
-        <v>-67866</v>
-      </c>
-      <c r="AD13" s="15">
-        <f>SUM(Q13:T13)</f>
-        <v>10170</v>
-      </c>
-      <c r="AE13" s="44"/>
-      <c r="AF13" s="9"/>
-    </row>
-    <row r="14" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>130</v>
-      </c>
-      <c r="B14" s="10">
+        <v>0.41600000000000037</v>
+      </c>
+      <c r="N14" s="10">
+        <v>0.11899999999999999</v>
+      </c>
+      <c r="O14" s="10">
+        <v>0.32300000000000001</v>
+      </c>
+      <c r="P14" s="10">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="Q14" s="15">
+        <v>0.26900000000000002</v>
+      </c>
+      <c r="V14" s="10">
         <v>0</v>
       </c>
-      <c r="C14" s="10">
-        <v>0</v>
-      </c>
-      <c r="D14" s="10"/>
-      <c r="E14" s="10">
-        <v>203</v>
-      </c>
-      <c r="F14" s="10">
-        <v>-82</v>
-      </c>
-      <c r="G14" s="10">
-        <v>-95</v>
-      </c>
-      <c r="H14" s="10">
-        <f t="shared" si="0"/>
-        <v>-592</v>
-      </c>
-      <c r="I14" s="10">
-        <v>153</v>
-      </c>
-      <c r="J14" s="10">
-        <v>194</v>
-      </c>
-      <c r="K14" s="10">
-        <v>202</v>
-      </c>
-      <c r="L14" s="10">
-        <f t="shared" si="1"/>
-        <v>-3267</v>
-      </c>
-      <c r="M14" s="10">
-        <v>2351</v>
-      </c>
-      <c r="N14" s="10">
-        <v>78</v>
-      </c>
-      <c r="O14" s="10">
-        <v>50</v>
-      </c>
-      <c r="P14" s="10">
-        <f t="shared" si="2"/>
-        <v>416</v>
-      </c>
-      <c r="Q14" s="10">
-        <v>119</v>
-      </c>
-      <c r="R14" s="10">
-        <v>323</v>
-      </c>
-      <c r="S14" s="10">
-        <v>8</v>
-      </c>
-      <c r="T14" s="15">
-        <v>269</v>
+      <c r="W14" s="10">
+        <v>-0.47899999999999998</v>
+      </c>
+      <c r="X14" s="10">
+        <v>-0.56599999999999995</v>
       </c>
       <c r="Y14" s="10">
-        <v>0</v>
+        <v>-2.718</v>
       </c>
       <c r="Z14" s="10">
-        <v>-479</v>
-      </c>
-      <c r="AA14" s="10">
-        <v>-566</v>
-      </c>
-      <c r="AB14" s="10">
-        <v>-2718</v>
-      </c>
-      <c r="AC14" s="10">
-        <v>2895</v>
-      </c>
-      <c r="AD14" s="15">
-        <f>SUM(Q14:T14)</f>
-        <v>719</v>
-      </c>
-      <c r="AE14" s="44"/>
-      <c r="AF14" s="9"/>
-    </row>
-    <row r="15" spans="1:33" s="1" customFormat="1" x14ac:dyDescent="0.25">
+        <v>2.895</v>
+      </c>
+      <c r="AA14" s="15">
+        <f>SUM(N14:Q14)</f>
+        <v>0.71900000000000008</v>
+      </c>
+      <c r="AB14" s="44"/>
+      <c r="AC14" s="9"/>
+    </row>
+    <row r="15" spans="1:29" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>21</v>
       </c>
       <c r="B15" s="11">
-        <f>B12+B13+B14</f>
-        <v>-28113</v>
+        <f>B12-B13-B14</f>
+        <v>-68.680000000000007</v>
       </c>
       <c r="C15" s="11">
-        <f t="shared" ref="C15:P15" si="8">C12+C13+C14</f>
-        <v>-55919</v>
+        <f t="shared" ref="C15:M15" si="8">C12+C13+C14</f>
+        <v>-161.43700000000001</v>
       </c>
       <c r="D15" s="11">
-        <v>0</v>
+        <f t="shared" si="8"/>
+        <v>-347.76300000000003</v>
       </c>
       <c r="E15" s="11">
-        <f>E12-E13-E14</f>
-        <v>-68680</v>
+        <f t="shared" si="8"/>
+        <v>-266.81399999999996</v>
       </c>
       <c r="F15" s="11">
+        <f>F12-F13-F14</f>
+        <v>-346.34399999999999</v>
+      </c>
+      <c r="G15" s="11">
+        <f>G12-G13-G14</f>
+        <v>-305.52600000000001</v>
+      </c>
+      <c r="H15" s="11">
+        <f>H12-H13-H14</f>
+        <v>-545.02800000000002</v>
+      </c>
+      <c r="I15" s="11">
         <f t="shared" si="8"/>
-        <v>-161437</v>
-      </c>
-      <c r="G15" s="11">
+        <v>-319.60099999999983</v>
+      </c>
+      <c r="J15" s="11">
         <f t="shared" si="8"/>
-        <v>-347763</v>
-      </c>
-      <c r="H15" s="11">
-        <f t="shared" si="8"/>
-        <v>-266814</v>
-      </c>
-      <c r="I15" s="11">
-        <f>I12-I13-I14</f>
-        <v>-346344</v>
-      </c>
-      <c r="J15" s="11">
-        <f>J12-J13-J14</f>
-        <v>-305526</v>
+        <v>-462.05300000000005</v>
       </c>
       <c r="K15" s="11">
         <f>K12-K13-K14</f>
-        <v>-545028</v>
+        <v>-217.10300000000004</v>
       </c>
       <c r="L15" s="11">
-        <f t="shared" si="8"/>
-        <v>-319601</v>
+        <f>L12-L13-L14</f>
+        <v>-450.49400000000009</v>
       </c>
       <c r="M15" s="11">
         <f t="shared" si="8"/>
-        <v>-462053</v>
+        <v>-222.43700000000018</v>
       </c>
       <c r="N15" s="11">
         <f>N12-N13-N14</f>
-        <v>-217103</v>
+        <v>-397.14800000000002</v>
       </c>
       <c r="O15" s="11">
         <f>O12-O13-O14</f>
-        <v>-450494</v>
+        <v>-77.269999999999953</v>
       </c>
       <c r="P15" s="11">
-        <f t="shared" si="8"/>
-        <v>-222437</v>
-      </c>
-      <c r="Q15" s="11">
+        <f>P12-P13-P14</f>
+        <v>-283.10299999999989</v>
+      </c>
+      <c r="Q15" s="14">
         <f>Q12-Q13-Q14</f>
-        <v>-397148</v>
+        <v>-44.620999999999988</v>
       </c>
       <c r="R15" s="11">
-        <f>R12-R13-R14</f>
-        <v>-77270</v>
+        <f>R16*R18</f>
+        <v>129.94891803278702</v>
       </c>
       <c r="S15" s="11">
-        <f>S12-S13-S14</f>
-        <v>-283103</v>
-      </c>
-      <c r="T15" s="14">
-        <f>T12-T13-T14</f>
-        <v>-44621</v>
-      </c>
-      <c r="U15" s="11">
-        <f>U16*U18</f>
-        <v>-153154.08196721313</v>
-      </c>
-      <c r="V15" s="11"/>
+        <f>S16*S18</f>
+        <v>18.564131147541001</v>
+      </c>
+      <c r="V15" s="11">
+        <f t="shared" ref="V15:X15" si="9">V12+V13+V14</f>
+        <v>-76.220000000000013</v>
+      </c>
+      <c r="W15" s="11">
+        <f t="shared" si="9"/>
+        <v>-142.73399999999998</v>
+      </c>
+      <c r="X15" s="11">
+        <f t="shared" si="9"/>
+        <v>-844.2700000000001</v>
+      </c>
       <c r="Y15" s="11">
-        <f t="shared" ref="Y15:AE15" si="9">Y12+Y13+Y14</f>
-        <v>-76220</v>
+        <f>Y12-Y13-Y14</f>
+        <v>-1523.1949999999997</v>
       </c>
       <c r="Z15" s="11">
-        <f t="shared" si="9"/>
-        <v>-142734</v>
-      </c>
-      <c r="AA15" s="11">
-        <f t="shared" si="9"/>
-        <v>-844270</v>
-      </c>
-      <c r="AB15" s="11">
-        <f>AB12-AB13-AB14</f>
-        <v>-1523195</v>
-      </c>
-      <c r="AC15" s="11">
-        <f>AC12-AC13-AC14</f>
-        <v>-1377987</v>
-      </c>
-      <c r="AD15" s="14">
-        <f>AD12-AD13-AD14</f>
-        <v>-802142</v>
-      </c>
-      <c r="AE15" s="60">
-        <f>AE18*AE16</f>
-        <v>92733.179190751456</v>
-      </c>
-      <c r="AF15" s="60">
-        <f>AF18*AF16</f>
-        <v>347749.42196531792</v>
-      </c>
-    </row>
-    <row r="16" spans="1:33" x14ac:dyDescent="0.25">
+        <f>Z12-Z13-Z14</f>
+        <v>-1377.9870000000003</v>
+      </c>
+      <c r="AA15" s="14">
+        <f>AA12-AA13-AA14</f>
+        <v>-802.14199999999994</v>
+      </c>
+      <c r="AB15" s="54">
+        <f>AB18*AB16</f>
+        <v>-60.27656647398841</v>
+      </c>
+      <c r="AC15" s="54">
+        <f>AC18*AC16</f>
+        <v>375.56937572254321</v>
+      </c>
+    </row>
+    <row r="16" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>1</v>
       </c>
       <c r="B16" s="10">
-        <f>B15/B17</f>
-        <v>187420</v>
+        <f t="shared" ref="B16:H16" si="10">B15/B17</f>
+        <v>185.62162162162164</v>
       </c>
       <c r="C16" s="10">
-        <f>C15/C17</f>
-        <v>186396.66666666669</v>
-      </c>
-      <c r="D16" s="10"/>
+        <f t="shared" si="10"/>
+        <v>293.52181818181816</v>
+      </c>
+      <c r="D16" s="10">
+        <f t="shared" si="10"/>
+        <v>354.86020408163267</v>
+      </c>
       <c r="E16" s="10">
-        <f t="shared" ref="E16:K16" si="10">E15/E17</f>
-        <v>185621.62162162163</v>
+        <f t="shared" si="10"/>
+        <v>310.24883720930239</v>
       </c>
       <c r="F16" s="10">
-        <f t="shared" si="10"/>
-        <v>293521.81818181818</v>
+        <f>F15/F17</f>
+        <v>398.09655172413795</v>
       </c>
       <c r="G16" s="10">
         <f t="shared" si="10"/>
-        <v>354860.20408163266</v>
+        <v>402.0078947368421</v>
       </c>
       <c r="H16" s="10">
         <f t="shared" si="10"/>
-        <v>310248.83720930241</v>
+        <v>403.72444444444443</v>
       </c>
       <c r="I16" s="10">
-        <f t="shared" si="10"/>
-        <v>398096.55172413791</v>
+        <f t="shared" si="1"/>
+        <v>-800.8672506937844</v>
       </c>
       <c r="J16" s="10">
-        <f t="shared" si="10"/>
-        <v>402007.89473684208</v>
+        <f t="shared" ref="J16:Q16" si="11">J15/J17</f>
+        <v>405.30964912280712</v>
       </c>
       <c r="K16" s="10">
-        <f t="shared" si="10"/>
-        <v>403724.44444444444</v>
+        <f t="shared" si="11"/>
+        <v>434.20600000000007</v>
       </c>
       <c r="L16" s="10">
-        <f t="shared" si="1"/>
-        <v>-800867.25069378421</v>
+        <f t="shared" si="11"/>
+        <v>450.49400000000009</v>
       </c>
       <c r="M16" s="10">
-        <f t="shared" ref="M16:T16" si="11">M15/M17</f>
-        <v>405309.64912280708</v>
+        <f t="shared" si="11"/>
+        <v>427.76346153846168</v>
       </c>
       <c r="N16" s="10">
         <f t="shared" si="11"/>
-        <v>434206</v>
+        <v>456.49195402298852</v>
       </c>
       <c r="O16" s="10">
         <f t="shared" si="11"/>
-        <v>450494</v>
+        <v>454.52941176470557</v>
       </c>
       <c r="P16" s="10">
         <f t="shared" si="11"/>
-        <v>427763.46153846133</v>
-      </c>
-      <c r="Q16" s="10">
+        <v>464.10327868852443</v>
+      </c>
+      <c r="Q16" s="15">
         <f t="shared" si="11"/>
-        <v>456491.9540229885</v>
+        <v>446.20999999999987</v>
       </c>
       <c r="R16" s="10">
-        <f t="shared" si="11"/>
-        <v>454529.41176470584</v>
+        <v>464.10327868852499</v>
       </c>
       <c r="S16" s="10">
-        <f t="shared" si="11"/>
-        <v>464103.27868852462</v>
-      </c>
-      <c r="T16" s="15">
-        <f t="shared" si="11"/>
-        <v>446210</v>
-      </c>
-      <c r="U16" s="10">
-        <v>464103.27868852462</v>
-      </c>
-      <c r="V16" s="10"/>
+        <v>464.10327868852499</v>
+      </c>
+      <c r="V16" s="10">
+        <f t="shared" ref="V16:AA16" si="12">V15/V17</f>
+        <v>169.37777777777779</v>
+      </c>
+      <c r="W16" s="10">
+        <f t="shared" si="12"/>
+        <v>185.36883116883115</v>
+      </c>
+      <c r="X16" s="10">
+        <f t="shared" si="12"/>
+        <v>305.89492753623193</v>
+      </c>
       <c r="Y16" s="10">
-        <f t="shared" ref="Y16:AF16" si="12">Y15/Y17</f>
-        <v>169377.77777777778</v>
+        <f t="shared" si="12"/>
+        <v>402.96164021164014</v>
       </c>
       <c r="Z16" s="10">
-        <f t="shared" si="12"/>
-        <v>185368.83116883115</v>
-      </c>
-      <c r="AA16" s="10">
-        <f t="shared" si="12"/>
-        <v>305894.92753623193</v>
-      </c>
-      <c r="AB16" s="10">
-        <f t="shared" si="12"/>
-        <v>402961.64021164022</v>
-      </c>
-      <c r="AC16" s="10">
-        <f t="shared" si="12"/>
-        <v>436071.83544303797</v>
-      </c>
-      <c r="AD16" s="15">
-        <f t="shared" si="12"/>
-        <v>463665.89595375722</v>
-      </c>
-      <c r="AE16" s="61">
-        <v>463665.89595375722</v>
-      </c>
-      <c r="AF16" s="61">
-        <v>463665.89595375722</v>
-      </c>
-      <c r="AG16" s="56"/>
-    </row>
-    <row r="17" spans="1:33" s="1" customFormat="1" x14ac:dyDescent="0.25">
+        <f>Z15/Z17</f>
+        <v>436.07183544303803</v>
+      </c>
+      <c r="AA16" s="15">
+        <f>AA15/AA17</f>
+        <v>463.66589595375717</v>
+      </c>
+      <c r="AB16" s="44">
+        <v>463.665895953757</v>
+      </c>
+      <c r="AC16" s="44">
+        <v>463.665895953757</v>
+      </c>
+    </row>
+    <row r="17" spans="1:29" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>22</v>
       </c>
       <c r="B17" s="2">
-        <v>-0.15</v>
+        <v>-0.37</v>
       </c>
       <c r="C17" s="2">
-        <v>-0.3</v>
-      </c>
-      <c r="D17" s="2"/>
+        <v>-0.55000000000000004</v>
+      </c>
+      <c r="D17" s="2">
+        <v>-0.98</v>
+      </c>
       <c r="E17" s="2">
-        <v>-0.37</v>
+        <f>X17-D17-C17-B17</f>
+        <v>-0.85999999999999976</v>
       </c>
       <c r="F17" s="2">
-        <v>-0.55000000000000004</v>
+        <v>-0.87</v>
       </c>
       <c r="G17" s="2">
-        <v>-0.98</v>
+        <v>-0.76</v>
       </c>
       <c r="H17" s="2">
-        <f>AA17-G17-F17-E17</f>
-        <v>-0.85999999999999976</v>
+        <v>-1.35</v>
       </c>
       <c r="I17" s="2">
-        <v>-0.87</v>
-      </c>
-      <c r="J17" s="2">
-        <v>-0.76</v>
-      </c>
-      <c r="K17" s="2">
-        <v>-1.35</v>
-      </c>
-      <c r="L17" s="2">
         <f t="shared" si="1"/>
         <v>-0.79999999999999971</v>
       </c>
+      <c r="J17" s="2">
+        <v>-1.1399999999999999</v>
+      </c>
+      <c r="K17" s="2">
+        <v>-0.5</v>
+      </c>
+      <c r="L17" s="2">
+        <v>-1</v>
+      </c>
       <c r="M17" s="2">
-        <v>-1.1399999999999999</v>
-      </c>
-      <c r="N17" s="2">
-        <v>-0.5</v>
-      </c>
-      <c r="O17" s="2">
-        <v>-1</v>
-      </c>
-      <c r="P17" s="2">
         <f t="shared" si="2"/>
         <v>-0.52000000000000024</v>
       </c>
-      <c r="Q17" s="2">
+      <c r="N17" s="2">
         <v>-0.87</v>
       </c>
-      <c r="R17" s="2">
+      <c r="O17" s="2">
         <v>-0.17</v>
       </c>
-      <c r="S17" s="2">
+      <c r="P17" s="2">
         <v>-0.61</v>
       </c>
-      <c r="T17" s="50">
+      <c r="Q17" s="49">
         <v>-0.1</v>
       </c>
-      <c r="U17" s="36"/>
-      <c r="V17" s="36"/>
+      <c r="R17" s="36"/>
+      <c r="S17" s="36"/>
+      <c r="V17" s="2">
+        <v>-0.45</v>
+      </c>
+      <c r="W17" s="2">
+        <v>-0.77</v>
+      </c>
+      <c r="X17" s="2">
+        <v>-2.76</v>
+      </c>
       <c r="Y17" s="2">
-        <v>-0.45</v>
+        <v>-3.78</v>
       </c>
       <c r="Z17" s="2">
-        <v>-0.77</v>
-      </c>
-      <c r="AA17" s="2">
-        <v>-2.76</v>
-      </c>
-      <c r="AB17" s="2">
-        <v>-3.78</v>
-      </c>
-      <c r="AC17" s="2">
         <v>-3.16</v>
       </c>
-      <c r="AD17" s="37">
+      <c r="AA17" s="37">
         <v>-1.73</v>
       </c>
-      <c r="AE17" s="62"/>
-      <c r="AF17" s="63"/>
-    </row>
-    <row r="18" spans="1:33" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AB17" s="55"/>
+      <c r="AC17" s="56"/>
+    </row>
+    <row r="18" spans="1:29" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="9" t="s">
-        <v>161</v>
-      </c>
-      <c r="B18" s="45"/>
-      <c r="C18" s="45"/>
-      <c r="D18" s="45"/>
-      <c r="E18" s="46">
+        <v>158</v>
+      </c>
+      <c r="B18" s="45">
         <v>-0.15</v>
       </c>
-      <c r="F18" s="46">
+      <c r="C18" s="45">
         <v>-0.19600000000000001</v>
       </c>
-      <c r="G18" s="46">
+      <c r="D18" s="45">
         <v>-0.62</v>
       </c>
-      <c r="H18" s="46">
+      <c r="E18" s="45">
         <v>-0.43099999999999999</v>
       </c>
+      <c r="F18" s="45">
+        <v>-0.434</v>
+      </c>
+      <c r="G18" s="45">
+        <v>-0.224</v>
+      </c>
+      <c r="H18" s="45">
+        <v>-0.97899999999999998</v>
+      </c>
       <c r="I18" s="46">
-        <v>-0.434</v>
+        <v>-0.80800000000000005</v>
       </c>
       <c r="J18" s="46">
-        <v>-0.224</v>
+        <v>-1.1180000000000001</v>
       </c>
       <c r="K18" s="46">
-        <v>-0.97899999999999998</v>
-      </c>
-      <c r="L18" s="47">
-        <v>-0.80800000000000005</v>
-      </c>
-      <c r="M18" s="47">
-        <v>-1.1180000000000001</v>
-      </c>
-      <c r="N18" s="47">
         <v>-0.755</v>
       </c>
-      <c r="O18" s="47">
+      <c r="L18" s="46">
         <v>-1.0009999999999999</v>
       </c>
-      <c r="P18" s="47">
+      <c r="M18" s="46">
         <v>-0.61699999999999999</v>
       </c>
-      <c r="Q18" s="47">
+      <c r="N18" s="46">
         <v>-0.877</v>
       </c>
-      <c r="R18" s="47">
+      <c r="O18" s="46">
         <v>-0.245</v>
       </c>
-      <c r="S18" s="47">
+      <c r="P18" s="46">
         <v>-0.69</v>
       </c>
-      <c r="T18" s="53">
+      <c r="Q18" s="52">
         <v>0.08</v>
       </c>
-      <c r="U18" s="40">
-        <v>-0.33</v>
-      </c>
-      <c r="V18" s="40">
-        <v>-0.05</v>
-      </c>
+      <c r="R18" s="40">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="S18" s="40">
+        <v>0.04</v>
+      </c>
+      <c r="V18" s="2"/>
+      <c r="W18" s="2"/>
+      <c r="X18" s="2"/>
       <c r="Y18" s="2"/>
       <c r="Z18" s="2"/>
-      <c r="AA18" s="2"/>
-      <c r="AB18" s="2"/>
-      <c r="AC18" s="2"/>
-      <c r="AD18" s="55">
+      <c r="AA18" s="37">
         <v>-1.52</v>
       </c>
-      <c r="AE18" s="64">
-        <v>0.2</v>
-      </c>
-      <c r="AF18" s="65">
-        <v>0.75</v>
-      </c>
-    </row>
-    <row r="19" spans="1:33" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AB18" s="57">
+        <v>-0.13</v>
+      </c>
+      <c r="AC18" s="58">
+        <v>0.81</v>
+      </c>
+    </row>
+    <row r="19" spans="1:29" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>36</v>
       </c>
       <c r="B19" s="3">
-        <f>1-B5/B3</f>
-        <v>0.68924899808328977</v>
+        <f t="shared" ref="B19:Q19" si="13">1-B5/B3</f>
+        <v>0.50965643423460061</v>
       </c>
       <c r="C19" s="3">
-        <f t="shared" ref="C19:T19" si="13">1-C5/C3</f>
-        <v>0.62198943504342374</v>
-      </c>
-      <c r="D19" s="3" t="e">
         <f t="shared" si="13"/>
-        <v>#DIV/0!</v>
+        <v>0.33273180978697603</v>
+      </c>
+      <c r="D19" s="3">
+        <f t="shared" si="13"/>
+        <v>0.27302086783703217</v>
       </c>
       <c r="E19" s="3">
-        <f t="shared" si="13"/>
-        <v>0.50965643423460061</v>
+        <f>1-E5/E3</f>
+        <v>0.50570257244206662</v>
       </c>
       <c r="F19" s="3">
         <f t="shared" si="13"/>
-        <v>0.33273180978697603</v>
+        <v>0.41325942435537799</v>
       </c>
       <c r="G19" s="3">
         <f t="shared" si="13"/>
-        <v>0.27302086783703217</v>
+        <v>0.37163018094454059</v>
       </c>
       <c r="H19" s="3">
-        <f>1-H5/H3</f>
-        <v>0.50570257244206651</v>
+        <f t="shared" si="13"/>
+        <v>0.19767971844619137</v>
       </c>
       <c r="I19" s="3">
         <f t="shared" si="13"/>
-        <v>0.41325942435537788</v>
+        <v>0.46509903343368719</v>
       </c>
       <c r="J19" s="3">
         <f t="shared" si="13"/>
-        <v>0.37163018094454059</v>
+        <v>0.2488608717536942</v>
       </c>
       <c r="K19" s="3">
         <f t="shared" si="13"/>
-        <v>0.19767971844619137</v>
+        <v>0.32909252764460462</v>
       </c>
       <c r="L19" s="3">
         <f t="shared" si="13"/>
-        <v>0.46509903343368719</v>
+        <v>0.25749395343648018</v>
       </c>
       <c r="M19" s="3">
         <f t="shared" si="13"/>
-        <v>0.2488608717536942</v>
+        <v>0.43232807060422185</v>
       </c>
       <c r="N19" s="3">
         <f t="shared" si="13"/>
-        <v>0.32909252764460462</v>
+        <v>0.32210921299496398</v>
       </c>
       <c r="O19" s="3">
         <f t="shared" si="13"/>
-        <v>0.25749395343648018</v>
+        <v>0.41672505249009351</v>
       </c>
       <c r="P19" s="3">
         <f t="shared" si="13"/>
-        <v>0.43232807060422185</v>
-      </c>
-      <c r="Q19" s="3">
-        <f t="shared" si="13"/>
-        <v>0.32210921299496398</v>
-      </c>
-      <c r="R19" s="3">
-        <f t="shared" si="13"/>
-        <v>0.41672505249009351</v>
-      </c>
-      <c r="S19" s="3">
-        <f t="shared" si="13"/>
         <v>0.31204609871170208</v>
       </c>
-      <c r="T19" s="6">
+      <c r="Q19" s="6">
         <f t="shared" si="13"/>
         <v>0.41775689621133894</v>
       </c>
+      <c r="V19" s="3">
+        <f t="shared" ref="V19:AA19" si="14">1-V5/V3</f>
+        <v>0.78482567826159966</v>
+      </c>
+      <c r="W19" s="3">
+        <f t="shared" si="14"/>
+        <v>0.67876998237531305</v>
+      </c>
+      <c r="X19" s="3">
+        <f t="shared" si="14"/>
+        <v>0.4360114688901473</v>
+      </c>
       <c r="Y19" s="3">
-        <f t="shared" ref="Y19:AF19" si="14">1-Y5/Y3</f>
-        <v>0.78482567826159966</v>
+        <f t="shared" si="14"/>
+        <v>0.38723249937308313</v>
       </c>
       <c r="Z19" s="3">
         <f t="shared" si="14"/>
-        <v>0.67876998237531305</v>
-      </c>
-      <c r="AA19" s="3">
-        <f t="shared" si="14"/>
-        <v>0.4360114688901473</v>
-      </c>
-      <c r="AB19" s="3">
-        <f t="shared" si="14"/>
-        <v>0.38723249937308313</v>
-      </c>
-      <c r="AC19" s="3">
-        <f t="shared" si="14"/>
-        <v>0.3375144668887341</v>
-      </c>
-      <c r="AD19" s="6">
+        <v>0.33751446688873399</v>
+      </c>
+      <c r="AA19" s="6">
         <f t="shared" si="14"/>
         <v>0.37464413775003114</v>
       </c>
-      <c r="AE19" s="66">
-        <v>0.41</v>
-      </c>
-      <c r="AF19" s="66">
+      <c r="AB19" s="59">
         <v>0.43</v>
       </c>
-      <c r="AG19" s="58"/>
-    </row>
-    <row r="20" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="AC19" s="59">
+        <v>0.45</v>
+      </c>
+    </row>
+    <row r="20" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>37</v>
       </c>
       <c r="B20" s="4">
-        <f>B15/B3</f>
-        <v>-0.48985886042864613</v>
+        <f t="shared" ref="B20:G20" si="15">B15/B3</f>
+        <v>-0.77567707980393497</v>
       </c>
       <c r="C20" s="4">
-        <f>C15/C3</f>
-        <v>-0.83443758020712089</v>
-      </c>
-      <c r="D20" s="4"/>
+        <f t="shared" si="15"/>
+        <v>-2.2759724239049217</v>
+      </c>
+      <c r="D20" s="4">
+        <f t="shared" si="15"/>
+        <v>-2.6179875937245929</v>
+      </c>
       <c r="E20" s="4">
-        <f t="shared" ref="E20:J20" si="15">E15/E3</f>
-        <v>-0.77567707980393485</v>
+        <f t="shared" si="15"/>
+        <v>-0.82804144955512149</v>
       </c>
       <c r="F20" s="4">
         <f t="shared" si="15"/>
-        <v>-2.2759724239049217</v>
+        <v>-1.1090957998693463</v>
       </c>
       <c r="G20" s="4">
         <f t="shared" si="15"/>
-        <v>-2.6179875937245929</v>
+        <v>-1.0266158162665278</v>
       </c>
       <c r="H20" s="4">
-        <f t="shared" si="15"/>
-        <v>-0.82804144955512171</v>
+        <f t="shared" ref="H20:Q20" si="16">H15/H3</f>
+        <v>-2.5609931444090992</v>
       </c>
       <c r="I20" s="4">
-        <f t="shared" si="15"/>
-        <v>-1.1090957998693463</v>
+        <f t="shared" si="16"/>
+        <v>-0.67522526805049332</v>
       </c>
       <c r="J20" s="4">
-        <f t="shared" si="15"/>
-        <v>-1.0266158162665278</v>
+        <f t="shared" si="16"/>
+        <v>-1.1074963147613286</v>
       </c>
       <c r="K20" s="4">
-        <f t="shared" ref="K20:T20" si="16">K15/K3</f>
-        <v>-2.5609931444090988</v>
+        <f t="shared" si="16"/>
+        <v>-0.46570138464343563</v>
       </c>
       <c r="L20" s="4">
         <f t="shared" si="16"/>
-        <v>-0.67522526805049388</v>
+        <v>-0.89750925413098848</v>
       </c>
       <c r="M20" s="4">
         <f t="shared" si="16"/>
-        <v>-1.1074963147613284</v>
+        <v>-0.26011977084266452</v>
       </c>
       <c r="N20" s="4">
         <f t="shared" si="16"/>
-        <v>-0.46570138464343552</v>
+        <v>-0.51600983301544079</v>
       </c>
       <c r="O20" s="4">
         <f t="shared" si="16"/>
-        <v>-0.89750925413098825</v>
+        <v>-8.8315939501238339E-2</v>
       </c>
       <c r="P20" s="4">
         <f t="shared" si="16"/>
-        <v>-0.26011977084266424</v>
-      </c>
-      <c r="Q20" s="4">
+        <v>-0.35837773448428195</v>
+      </c>
+      <c r="Q20" s="7">
         <f t="shared" si="16"/>
-        <v>-0.51600983301544079</v>
-      </c>
-      <c r="R20" s="4">
-        <f t="shared" si="16"/>
-        <v>-8.8315939501238394E-2</v>
-      </c>
-      <c r="S20" s="4">
-        <f t="shared" si="16"/>
-        <v>-0.35837773448428206</v>
-      </c>
-      <c r="T20" s="7">
-        <f t="shared" si="16"/>
-        <v>-3.6251977280870158E-2</v>
+        <v>-3.6251977280870151E-2</v>
+      </c>
+      <c r="V20" s="4">
+        <f>V15/V3</f>
+        <v>-0.33684377996879938</v>
+      </c>
+      <c r="W20" s="4">
+        <f>W15/W3</f>
+        <v>-0.441340713026808</v>
+      </c>
+      <c r="X20" s="4">
+        <f>X15/X3</f>
+        <v>-1.3738422083797102</v>
       </c>
       <c r="Y20" s="4">
-        <f>Y15/Y3</f>
-        <v>-0.33684377996879933</v>
+        <f t="shared" ref="Y20:AA20" si="17">Y15/Y3</f>
+        <v>-1.1752821126135682</v>
       </c>
       <c r="Z20" s="4">
-        <f>Z15/Z3</f>
-        <v>-0.44134071302680805</v>
-      </c>
-      <c r="AA20" s="4">
-        <f>AA15/AA3</f>
-        <v>-1.3738422083797102</v>
-      </c>
-      <c r="AB20" s="4">
-        <f t="shared" ref="AB20:AD20" si="17">AB15/AB3</f>
-        <v>-1.1752821126135684</v>
-      </c>
-      <c r="AC20" s="4">
         <f t="shared" si="17"/>
-        <v>-0.61504618915482123</v>
-      </c>
-      <c r="AD20" s="7">
+        <v>-0.61504618915482145</v>
+      </c>
+      <c r="AA20" s="7">
         <f t="shared" si="17"/>
         <v>-0.21884201775907794</v>
       </c>
-      <c r="AE20" s="67">
-        <f>AE15/AE4</f>
-        <v>1.9772532876492849E-2</v>
-      </c>
-      <c r="AF20" s="67">
-        <f>AF15/AF4</f>
-        <v>6.1223489782626393E-2</v>
-      </c>
-    </row>
-    <row r="21" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="AB20" s="60">
+        <f>AB15/AB4</f>
+        <v>-1.2531510701452891E-2</v>
+      </c>
+      <c r="AC20" s="60">
+        <f>AC15/AC4</f>
+        <v>6.6121368965236488E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>38</v>
       </c>
@@ -18814,2134 +18934,2121 @@
       <c r="D21" s="4"/>
       <c r="E21" s="4"/>
       <c r="F21" s="4">
-        <f>F3/B3-1</f>
-        <v>0.23594702909914611</v>
+        <f t="shared" ref="F21:Q21" si="18">F3/B3-1</f>
+        <v>2.5268686047299589</v>
       </c>
       <c r="G21" s="4">
-        <f>G3/C3-1</f>
-        <v>0.98221267197898943</v>
-      </c>
-      <c r="H21" s="4"/>
+        <f t="shared" si="18"/>
+        <v>3.1956972268824639</v>
+      </c>
+      <c r="H21" s="4">
+        <f t="shared" si="18"/>
+        <v>0.60211840163810981</v>
+      </c>
       <c r="I21" s="4">
-        <f t="shared" ref="I21:T21" si="18">I3/E3-1</f>
-        <v>2.5268686047299584</v>
+        <f t="shared" si="18"/>
+        <v>0.46893610946456343</v>
       </c>
       <c r="J21" s="4">
         <f t="shared" si="18"/>
-        <v>3.195697226882463</v>
+        <v>0.33601365458760823</v>
       </c>
       <c r="K21" s="4">
         <f t="shared" si="18"/>
-        <v>0.60211840163811026</v>
+        <v>0.5664555367013322</v>
       </c>
       <c r="L21" s="4">
         <f t="shared" si="18"/>
-        <v>0.46893610946456343</v>
+        <v>1.3585206208092324</v>
       </c>
       <c r="M21" s="4">
         <f t="shared" si="18"/>
-        <v>0.33601365458760846</v>
+        <v>0.80665082131727583</v>
       </c>
       <c r="N21" s="4">
         <f t="shared" si="18"/>
-        <v>0.5664555367013322</v>
+        <v>0.84478134250548309</v>
       </c>
       <c r="O21" s="4">
         <f t="shared" si="18"/>
-        <v>1.3585206208092324</v>
+        <v>0.87678067719896613</v>
       </c>
       <c r="P21" s="4">
         <f t="shared" si="18"/>
-        <v>0.80665082131727672</v>
-      </c>
-      <c r="Q21" s="4">
+        <v>0.57381389733393373</v>
+      </c>
+      <c r="Q21" s="7">
         <f t="shared" si="18"/>
-        <v>0.84478134250548287</v>
-      </c>
-      <c r="R21" s="4">
-        <f t="shared" si="18"/>
-        <v>0.87678067719896613</v>
-      </c>
-      <c r="S21" s="4">
-        <f t="shared" si="18"/>
-        <v>0.57381389733393373</v>
-      </c>
-      <c r="T21" s="7">
-        <f t="shared" si="18"/>
-        <v>0.43937492764283448</v>
-      </c>
-      <c r="U21" s="39">
-        <f>U4/Q3-1</f>
+        <v>0.4393749276428347</v>
+      </c>
+      <c r="R21" s="39">
+        <f>R4/N3-1</f>
         <v>0.35126004999662186</v>
       </c>
-      <c r="V21" s="39">
-        <f>V4/R3-1</f>
+      <c r="S21" s="39">
+        <f>S4/O3-1</f>
         <v>0.1178075428007137</v>
       </c>
-      <c r="Z21" s="3">
-        <f>Z3/Y3-1</f>
-        <v>0.42926589976002871</v>
-      </c>
-      <c r="AA21" s="3">
-        <f>AA3/Z3-1</f>
+      <c r="W21" s="3">
+        <f>W3/V3-1</f>
+        <v>0.42926589976002894</v>
+      </c>
+      <c r="X21" s="3">
+        <f>X3/W3-1</f>
         <v>0.90016387866794467</v>
       </c>
-      <c r="AB21" s="3">
-        <f t="shared" ref="AB21:AF21" si="19">AB3/AA3-1</f>
+      <c r="Y21" s="3">
+        <f t="shared" ref="Y21:AB21" si="19">Y3/X3-1</f>
         <v>1.1089625926721474</v>
       </c>
-      <c r="AC21" s="43">
+      <c r="Z21" s="43">
         <f t="shared" si="19"/>
-        <v>0.72871742443239906</v>
-      </c>
-      <c r="AD21" s="6">
+        <v>0.72871742443239884</v>
+      </c>
+      <c r="AA21" s="6">
         <f t="shared" si="19"/>
         <v>0.63599946618129044</v>
       </c>
-      <c r="AE21" s="68">
+      <c r="AB21" s="61">
         <f t="shared" si="19"/>
-        <v>0.27953537315098265</v>
-      </c>
-      <c r="AF21" s="68">
-        <f>AF3/AE3-1</f>
-        <v>0.21108742004264403</v>
-      </c>
-      <c r="AG21" s="56"/>
-    </row>
-    <row r="22" spans="1:33" x14ac:dyDescent="0.25">
+        <v>0.31227401809301214</v>
+      </c>
+      <c r="AC21" s="61">
+        <f>AC3/AB3-1</f>
+        <v>0.18087318087318094</v>
+      </c>
+    </row>
+    <row r="22" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>163</v>
-      </c>
-      <c r="B22" s="4"/>
-      <c r="C22" s="4"/>
-      <c r="D22" s="4"/>
+        <v>160</v>
+      </c>
+      <c r="B22" s="4">
+        <f>B6/B3</f>
+        <v>0.60655959883445143</v>
+      </c>
+      <c r="C22" s="4">
+        <f t="shared" ref="C22:Q22" si="20">C6/C3</f>
+        <v>0.65116803654255551</v>
+      </c>
+      <c r="D22" s="4">
+        <f t="shared" si="20"/>
+        <v>1.5307522057273628</v>
+      </c>
       <c r="E22" s="4">
-        <f>E6/E3</f>
-        <v>0.60655959883445143</v>
+        <f t="shared" si="20"/>
+        <v>0.59573338960905942</v>
       </c>
       <c r="F22" s="4">
-        <f t="shared" ref="F22:T22" si="20">F6/F3</f>
-        <v>0.6511680365425554</v>
+        <f t="shared" si="20"/>
+        <v>0.73232012706708172</v>
       </c>
       <c r="G22" s="4">
         <f t="shared" si="20"/>
-        <v>1.530752205727363</v>
+        <v>0.57361939483543611</v>
       </c>
       <c r="H22" s="4">
-        <f t="shared" si="20"/>
-        <v>0.59573338960905953</v>
+        <f>H6/H3</f>
+        <v>1.426836889563432</v>
       </c>
       <c r="I22" s="4">
         <f t="shared" si="20"/>
-        <v>0.73232012706708172</v>
+        <v>0.5882723287381818</v>
       </c>
       <c r="J22" s="4">
         <f t="shared" si="20"/>
-        <v>0.57361939483543622</v>
+        <v>0.77048932778849732</v>
       </c>
       <c r="K22" s="4">
-        <f>K6/K3</f>
-        <v>1.4268368895634318</v>
+        <f t="shared" si="20"/>
+        <v>0.42371376170404451</v>
       </c>
       <c r="L22" s="4">
         <f t="shared" si="20"/>
-        <v>0.58827232873818203</v>
+        <v>0.64094370221023311</v>
       </c>
       <c r="M22" s="4">
         <f t="shared" si="20"/>
-        <v>0.77048932778849721</v>
+        <v>0.40377578692437344</v>
       </c>
       <c r="N22" s="4">
         <f t="shared" si="20"/>
-        <v>0.42371376170404451</v>
+        <v>0.50559603561089939</v>
       </c>
       <c r="O22" s="4">
         <f t="shared" si="20"/>
-        <v>0.64094370221023311</v>
+        <v>0.23714778490091173</v>
       </c>
       <c r="P22" s="4">
         <f t="shared" si="20"/>
-        <v>0.40377578692437316</v>
-      </c>
-      <c r="Q22" s="4">
+        <v>0.39663298128885494</v>
+      </c>
+      <c r="Q22" s="7">
         <f t="shared" si="20"/>
-        <v>0.5055960356108995</v>
-      </c>
-      <c r="R22" s="4">
-        <f t="shared" si="20"/>
-        <v>0.23714778490091173</v>
-      </c>
-      <c r="S22" s="4">
-        <f t="shared" si="20"/>
-        <v>0.39663298128885494</v>
-      </c>
-      <c r="T22" s="7">
-        <f t="shared" si="20"/>
-        <v>0.23623784078897875</v>
-      </c>
-      <c r="U22" s="4"/>
+        <v>0.23623784078897872</v>
+      </c>
+      <c r="R22" s="4"/>
+      <c r="V22" s="4">
+        <f t="shared" ref="V22:AA22" si="21">V6/V3</f>
+        <v>0.64337073586798488</v>
+      </c>
+      <c r="W22" s="4">
+        <f t="shared" si="21"/>
+        <v>0.57286107417828758</v>
+      </c>
+      <c r="X22" s="4">
+        <f t="shared" si="21"/>
+        <v>0.80580344066704412</v>
+      </c>
+      <c r="Y22" s="4">
+        <f t="shared" si="21"/>
+        <v>0.75731563820142356</v>
+      </c>
       <c r="Z22" s="4">
-        <f t="shared" ref="Z22:AD22" si="21">Z6/Z3</f>
-        <v>0.57286107417828758</v>
+        <f t="shared" si="21"/>
+        <v>0.52934507674982967</v>
       </c>
       <c r="AA22" s="4">
         <f t="shared" si="21"/>
-        <v>0.80580344066704424</v>
-      </c>
-      <c r="AB22" s="4">
-        <f t="shared" si="21"/>
-        <v>0.75731563820142356</v>
-      </c>
-      <c r="AC22" s="4">
-        <f t="shared" si="21"/>
-        <v>0.52934507674982956</v>
-      </c>
-      <c r="AD22" s="4">
-        <f t="shared" si="21"/>
-        <v>0.32758233564586392</v>
-      </c>
-      <c r="AE22" s="69">
+        <v>0.32758233564586386</v>
+      </c>
+      <c r="AB22" s="62">
         <v>0.27</v>
       </c>
-      <c r="AF22" s="68">
+      <c r="AC22" s="61">
         <v>0.23</v>
       </c>
-      <c r="AG22" s="56"/>
-    </row>
-    <row r="23" spans="1:33" x14ac:dyDescent="0.25">
+    </row>
+    <row r="23" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>45</v>
-      </c>
-      <c r="E23" s="4"/>
+        <v>168</v>
+      </c>
+      <c r="B23" s="4">
+        <f>B8/B3</f>
+        <v>0.4460707912629035</v>
+      </c>
+      <c r="C23" s="4">
+        <f t="shared" ref="C23:Q23" si="22">C8/C3</f>
+        <v>1.5128505166993276</v>
+      </c>
+      <c r="D23" s="4">
+        <f t="shared" si="22"/>
+        <v>0.95897196543105767</v>
+      </c>
+      <c r="E23" s="4">
+        <f t="shared" si="22"/>
+        <v>0.53746628887447523</v>
+      </c>
       <c r="F23" s="4">
-        <f>F15/B15-1</f>
-        <v>4.7424323266816062</v>
+        <f t="shared" si="22"/>
+        <v>0.54117831661735138</v>
       </c>
       <c r="G23" s="4">
-        <f t="shared" ref="G23:U23" si="22">G15/C15-1</f>
-        <v>5.2190489815626178</v>
-      </c>
-      <c r="H23" s="4"/>
+        <f t="shared" si="22"/>
+        <v>0.66801969052939303</v>
+      </c>
+      <c r="H23" s="4">
+        <f t="shared" si="22"/>
+        <v>1.0323608324444715</v>
+      </c>
       <c r="I23" s="4">
         <f t="shared" si="22"/>
-        <v>4.0428654630168896</v>
+        <v>0.50877515449215638</v>
       </c>
       <c r="J23" s="4">
         <f t="shared" si="22"/>
-        <v>0.89254012401122429</v>
+        <v>0.51918361476971753</v>
       </c>
       <c r="K23" s="4">
         <f t="shared" si="22"/>
-        <v>0.56723975811112748</v>
+        <v>0.40243465576970516</v>
       </c>
       <c r="L23" s="4">
         <f t="shared" si="22"/>
-        <v>0.19784194232686447</v>
+        <v>0.37108367965764694</v>
       </c>
       <c r="M23" s="4">
         <f t="shared" si="22"/>
-        <v>0.33408691936340751</v>
+        <v>0.20259304692954203</v>
       </c>
       <c r="N23" s="4">
         <f t="shared" si="22"/>
-        <v>-0.28941235770441798</v>
+        <v>0.20850462286851718</v>
       </c>
       <c r="O23" s="4">
         <f t="shared" si="22"/>
-        <v>-0.17344796964559617</v>
+        <v>0.15573413553359308</v>
       </c>
       <c r="P23" s="4">
         <f t="shared" si="22"/>
-        <v>-0.30401657066154364</v>
-      </c>
-      <c r="Q23" s="4">
+        <v>0.16552926298520046</v>
+      </c>
+      <c r="Q23" s="7">
         <f t="shared" si="22"/>
-        <v>-0.14047089836014481</v>
-      </c>
-      <c r="R23" s="4">
+        <v>0.14548887482461406</v>
+      </c>
+      <c r="R23" s="4"/>
+      <c r="V23" s="4">
+        <f t="shared" ref="V23:AA23" si="23">V8/V3</f>
+        <v>0.335447261542269</v>
+      </c>
+      <c r="W23" s="4">
+        <f t="shared" si="23"/>
+        <v>0.38609814167774648</v>
+      </c>
+      <c r="X23" s="4">
+        <f t="shared" si="23"/>
+        <v>0.72799138205984393</v>
+      </c>
+      <c r="Y23" s="4">
+        <f t="shared" si="23"/>
+        <v>0.63912733164869506</v>
+      </c>
+      <c r="Z23" s="4">
+        <f t="shared" si="23"/>
+        <v>0.34087627501661494</v>
+      </c>
+      <c r="AA23" s="7">
+        <f t="shared" si="23"/>
+        <v>0.16548539269868195</v>
+      </c>
+      <c r="AB23" s="61"/>
+      <c r="AC23" s="61"/>
+    </row>
+    <row r="24" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>45</v>
+      </c>
+      <c r="B24" s="4"/>
+      <c r="C24" s="4"/>
+      <c r="D24" s="4"/>
+      <c r="E24" s="4"/>
+      <c r="F24" s="4">
+        <f>F15/B15-1</f>
+        <v>4.0428654630168896</v>
+      </c>
+      <c r="G24" s="4">
+        <f>G15/C15-1</f>
+        <v>0.89254012401122407</v>
+      </c>
+      <c r="H24" s="4">
+        <f>H15/D15-1</f>
+        <v>0.56723975811112726</v>
+      </c>
+      <c r="I24" s="4">
+        <f>I15/E15-1</f>
+        <v>0.19784194232686403</v>
+      </c>
+      <c r="J24" s="4">
+        <f>J15/F15-1</f>
+        <v>0.33408691936340773</v>
+      </c>
+      <c r="K24" s="4">
+        <f>K15/G15-1</f>
+        <v>-0.28941235770441787</v>
+      </c>
+      <c r="L24" s="4">
+        <f>L15/H15-1</f>
+        <v>-0.17344796964559606</v>
+      </c>
+      <c r="M24" s="4">
+        <f>M15/I15-1</f>
+        <v>-0.30401657066154264</v>
+      </c>
+      <c r="N24" s="4">
+        <f>N15/J15-1</f>
+        <v>-0.14047089836014492</v>
+      </c>
+      <c r="O24" s="4">
+        <f>O15/K15-1</f>
+        <v>-0.64408598683574181</v>
+      </c>
+      <c r="P24" s="4">
+        <f>P15/L15-1</f>
+        <v>-0.37157209640971944</v>
+      </c>
+      <c r="Q24" s="7">
+        <f>Q15/M15-1</f>
+        <v>-0.79939938049874815</v>
+      </c>
+      <c r="R24" s="4">
         <f>R15/N15-1</f>
-        <v>-0.64408598683574159</v>
-      </c>
-      <c r="S23" s="4">
-        <f t="shared" si="22"/>
-        <v>-0.37157209640971911</v>
-      </c>
-      <c r="T23" s="7">
-        <f t="shared" si="22"/>
-        <v>-0.79939938049874792</v>
-      </c>
-      <c r="U23" s="70">
-        <f t="shared" si="22"/>
-        <v>-0.61436521909410824</v>
-      </c>
-      <c r="V23" s="56"/>
-      <c r="Z23" s="3">
-        <f>-(Z15/Y15-1)</f>
-        <v>-0.87265809498819213</v>
-      </c>
-      <c r="AA23" s="3">
+        <v>-1.3272052686474236</v>
+      </c>
+      <c r="S24" s="4">
+        <f>S15/O15-1</f>
+        <v>-1.2402501766214704</v>
+      </c>
+      <c r="W24" s="3">
+        <f>-(W15/V15-1)</f>
+        <v>-0.87265809498819147</v>
+      </c>
+      <c r="X24" s="3">
+        <f>-(X15/W15-1)</f>
+        <v>-4.9149887202768801</v>
+      </c>
+      <c r="Y24" s="3">
+        <f t="shared" ref="Y24:Z24" si="24">-(Y15/X15-1)</f>
+        <v>-0.80415625333127982</v>
+      </c>
+      <c r="Z24" s="43">
+        <f t="shared" si="24"/>
+        <v>9.533119528359757E-2</v>
+      </c>
+      <c r="AA24" s="6">
         <f>-(AA15/Z15-1)</f>
-        <v>-4.9149887202768783</v>
-      </c>
-      <c r="AB23" s="3">
-        <f t="shared" ref="AB23:AC23" si="23">-(AB15/AA15-1)</f>
-        <v>-0.80415625333128027</v>
-      </c>
-      <c r="AC23" s="43">
-        <f t="shared" si="23"/>
-        <v>9.5331195283598014E-2</v>
-      </c>
-      <c r="AD23" s="6">
-        <f>-(AD15/AC15-1)</f>
-        <v>0.41788855772949962</v>
-      </c>
-      <c r="AE23" s="43"/>
-      <c r="AF23" s="43"/>
-      <c r="AG23" s="56"/>
-    </row>
-    <row r="26" spans="1:33" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="1" t="s">
+        <v>0.41788855772949984</v>
+      </c>
+      <c r="AB24" s="43"/>
+      <c r="AC24" s="43"/>
+    </row>
+    <row r="27" spans="1:29" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="B26" s="11">
-        <f t="shared" ref="B26:P26" si="24">B27+B28+B29-B40-B41-B42</f>
+      <c r="B27" s="11">
+        <f t="shared" ref="B27:M27" si="25">B28+B29+B30-B41-B42-B43</f>
         <v>0</v>
       </c>
-      <c r="C26" s="11">
-        <f t="shared" si="24"/>
+      <c r="C27" s="11">
+        <f>C28+C29+C30-C42-C45</f>
+        <v>1244.29</v>
+      </c>
+      <c r="D27" s="11">
+        <f t="shared" ref="D27:Q27" si="26">D28+D29+D30-D42-D45</f>
+        <v>1140.9319999999998</v>
+      </c>
+      <c r="E27" s="11">
+        <f t="shared" si="26"/>
+        <v>1817.2829999999999</v>
+      </c>
+      <c r="F27" s="11">
+        <f t="shared" si="26"/>
+        <v>1571.0409999999999</v>
+      </c>
+      <c r="G27" s="11">
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
-      <c r="D26" s="11">
-        <f t="shared" si="24"/>
-        <v>-14719</v>
-      </c>
-      <c r="E26" s="11">
-        <f t="shared" si="24"/>
+      <c r="H27" s="11">
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
-      <c r="F26" s="11">
-        <f t="shared" si="24"/>
-        <v>1121344</v>
-      </c>
-      <c r="G26" s="11">
-        <f t="shared" si="24"/>
-        <v>914600</v>
-      </c>
-      <c r="H26" s="11">
-        <f t="shared" si="24"/>
-        <v>1580813</v>
-      </c>
-      <c r="I26" s="11">
-        <f t="shared" si="24"/>
-        <v>2509478</v>
-      </c>
-      <c r="J26" s="11">
-        <f t="shared" si="24"/>
+      <c r="I27" s="11">
+        <f t="shared" si="26"/>
+        <v>904.46499999999946</v>
+      </c>
+      <c r="J27" s="11">
+        <f t="shared" si="26"/>
+        <v>523.81099999999992</v>
+      </c>
+      <c r="K27" s="11">
+        <f t="shared" si="26"/>
+        <v>264.65399999999977</v>
+      </c>
+      <c r="L27" s="11">
+        <f t="shared" si="26"/>
+        <v>132.24199999999996</v>
+      </c>
+      <c r="M27" s="11">
+        <f t="shared" si="26"/>
+        <v>1.6320000000000618</v>
+      </c>
+      <c r="N27" s="11">
+        <f t="shared" si="26"/>
+        <v>-273.07500000000016</v>
+      </c>
+      <c r="O27" s="11">
+        <f t="shared" si="26"/>
+        <v>-248.60100000000011</v>
+      </c>
+      <c r="P27" s="11">
+        <f t="shared" si="26"/>
+        <v>-312.35799999999983</v>
+      </c>
+      <c r="Q27" s="14">
+        <f t="shared" si="26"/>
+        <v>-192.09500000000003</v>
+      </c>
+      <c r="V27" s="11"/>
+      <c r="W27" s="11"/>
+      <c r="X27" s="11">
+        <f t="shared" ref="X27" si="27">X28+X29+X30-X42-X45</f>
+        <v>1817.2829999999999</v>
+      </c>
+      <c r="Y27" s="11">
+        <f t="shared" ref="Y27" si="28">Y28+Y29+Y30-Y42-Y45</f>
+        <v>904.46499999999946</v>
+      </c>
+      <c r="Z27" s="11">
+        <f t="shared" ref="Z27" si="29">Z28+Z29+Z30-Z42-Z45</f>
+        <v>1.6320000000000618</v>
+      </c>
+      <c r="AA27" s="14">
+        <f t="shared" ref="AA27" si="30">AA28+AA29+AA30-AA42-AA45</f>
+        <v>-192.09500000000003</v>
+      </c>
+    </row>
+    <row r="28" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>25</v>
+      </c>
+      <c r="C28" s="10">
+        <v>1244.2660000000001</v>
+      </c>
+      <c r="D28" s="10">
+        <v>1140.9069999999999</v>
+      </c>
+      <c r="E28" s="10">
+        <f>X28</f>
+        <v>1817.258</v>
+      </c>
+      <c r="F28" s="10">
+        <v>2818.1280000000002</v>
+      </c>
+      <c r="G28" s="10"/>
+      <c r="H28" s="10"/>
+      <c r="I28" s="10">
+        <f>Y28</f>
+        <v>2152.8919999999998</v>
+      </c>
+      <c r="J28" s="10">
+        <v>1772.8920000000001</v>
+      </c>
+      <c r="K28" s="10">
+        <v>1514.3710000000001</v>
+      </c>
+      <c r="L28" s="10">
+        <v>1382.6510000000001</v>
+      </c>
+      <c r="M28" s="10">
+        <f>Z28</f>
+        <v>1309.172</v>
+      </c>
+      <c r="N28" s="10">
+        <v>1087.6679999999999</v>
+      </c>
+      <c r="O28" s="10">
+        <v>1113.7149999999999</v>
+      </c>
+      <c r="P28" s="10">
+        <v>1111.596</v>
+      </c>
+      <c r="Q28" s="15">
+        <v>1270.5029999999999</v>
+      </c>
+      <c r="V28" s="10"/>
+      <c r="W28" s="10"/>
+      <c r="X28" s="10">
+        <v>1817.258</v>
+      </c>
+      <c r="Y28" s="10">
+        <v>2152.8919999999998</v>
+      </c>
+      <c r="Z28" s="10">
+        <v>1309.172</v>
+      </c>
+      <c r="AA28" s="15">
+        <f>Q28</f>
+        <v>1270.5029999999999</v>
+      </c>
+    </row>
+    <row r="29" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>118</v>
+      </c>
+      <c r="C29" s="10">
+        <v>131.995</v>
+      </c>
+      <c r="D29" s="10">
+        <v>257.43200000000002</v>
+      </c>
+      <c r="E29" s="10">
+        <f t="shared" ref="E29:E48" si="31">X29</f>
+        <v>287.71800000000002</v>
+      </c>
+      <c r="F29" s="10">
+        <v>305.73200000000003</v>
+      </c>
+      <c r="G29" s="10"/>
+      <c r="H29" s="10"/>
+      <c r="I29" s="10">
+        <f t="shared" ref="I29:I48" si="32">Y29</f>
+        <v>476.95</v>
+      </c>
+      <c r="J29" s="10">
+        <v>464.85399999999998</v>
+      </c>
+      <c r="K29" s="10">
+        <v>426.16899999999998</v>
+      </c>
+      <c r="L29" s="10">
+        <v>581.35500000000002</v>
+      </c>
+      <c r="M29" s="10">
+        <f t="shared" ref="M29:M48" si="33">Z29</f>
+        <v>469.65300000000002</v>
+      </c>
+      <c r="N29" s="10">
+        <v>436.935</v>
+      </c>
+      <c r="O29" s="10">
+        <v>381.09699999999998</v>
+      </c>
+      <c r="P29" s="10">
+        <v>475.98399999999998</v>
+      </c>
+      <c r="Q29" s="15">
+        <v>341.29</v>
+      </c>
+      <c r="V29" s="10"/>
+      <c r="W29" s="10"/>
+      <c r="X29" s="10">
+        <v>287.71800000000002</v>
+      </c>
+      <c r="Y29" s="10">
+        <v>476.95</v>
+      </c>
+      <c r="Z29" s="10">
+        <v>469.65300000000002</v>
+      </c>
+      <c r="AA29" s="15">
+        <f>Q29</f>
+        <v>341.29</v>
+      </c>
+    </row>
+    <row r="30" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>119</v>
+      </c>
+      <c r="C30" s="10">
+        <v>15.06</v>
+      </c>
+      <c r="D30" s="10">
+        <v>29.099</v>
+      </c>
+      <c r="E30" s="10">
+        <f t="shared" si="31"/>
+        <v>30.248999999999999</v>
+      </c>
+      <c r="F30" s="10">
+        <v>24.036000000000001</v>
+      </c>
+      <c r="G30" s="10"/>
+      <c r="H30" s="10"/>
+      <c r="I30" s="10">
+        <f t="shared" si="32"/>
+        <v>51.948999999999998</v>
+      </c>
+      <c r="J30" s="10">
+        <v>55.945999999999998</v>
+      </c>
+      <c r="K30" s="10">
+        <v>56.82</v>
+      </c>
+      <c r="L30" s="10">
+        <v>89.453999999999994</v>
+      </c>
+      <c r="M30" s="10">
+        <f t="shared" si="33"/>
+        <v>160.083</v>
+      </c>
+      <c r="N30" s="10">
+        <v>124.536</v>
+      </c>
+      <c r="O30" s="10">
+        <v>109.15300000000001</v>
+      </c>
+      <c r="P30" s="10">
+        <v>209.48500000000001</v>
+      </c>
+      <c r="Q30" s="15">
+        <v>301.77</v>
+      </c>
+      <c r="V30" s="10"/>
+      <c r="W30" s="10"/>
+      <c r="X30" s="10">
+        <v>30.248999999999999</v>
+      </c>
+      <c r="Y30" s="10">
+        <v>51.948999999999998</v>
+      </c>
+      <c r="Z30" s="10">
+        <v>160.083</v>
+      </c>
+      <c r="AA30" s="15">
+        <f>Q30</f>
+        <v>301.77</v>
+      </c>
+    </row>
+    <row r="31" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>26</v>
+      </c>
+      <c r="C31" s="10">
+        <v>35.103999999999999</v>
+      </c>
+      <c r="D31" s="10">
+        <v>46.084000000000003</v>
+      </c>
+      <c r="E31" s="10">
+        <f t="shared" si="31"/>
+        <v>44.521999999999998</v>
+      </c>
+      <c r="F31" s="10">
+        <v>48.359000000000002</v>
+      </c>
+      <c r="G31" s="10"/>
+      <c r="H31" s="10"/>
+      <c r="I31" s="10">
+        <f t="shared" si="32"/>
+        <v>45.863999999999997</v>
+      </c>
+      <c r="J31" s="10">
+        <v>48.210999999999999</v>
+      </c>
+      <c r="K31" s="10">
+        <v>45.06</v>
+      </c>
+      <c r="L31" s="10">
+        <v>40.991</v>
+      </c>
+      <c r="M31" s="10">
+        <f t="shared" si="33"/>
+        <v>51.097000000000001</v>
+      </c>
+      <c r="N31" s="10">
+        <v>41.423000000000002</v>
+      </c>
+      <c r="O31" s="10">
+        <v>32.401000000000003</v>
+      </c>
+      <c r="P31" s="10">
+        <v>27.777999999999999</v>
+      </c>
+      <c r="Q31" s="15">
+        <v>47.539000000000001</v>
+      </c>
+      <c r="V31" s="10"/>
+      <c r="W31" s="10"/>
+      <c r="X31" s="10">
+        <v>44.521999999999998</v>
+      </c>
+      <c r="Y31" s="10">
+        <v>45.863999999999997</v>
+      </c>
+      <c r="Z31" s="10">
+        <v>51.097000000000001</v>
+      </c>
+      <c r="AA31" s="15">
+        <f>Q31</f>
+        <v>47.539000000000001</v>
+      </c>
+    </row>
+    <row r="32" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>27</v>
+      </c>
+      <c r="C32" s="10">
+        <v>24.696000000000002</v>
+      </c>
+      <c r="D32" s="10">
+        <v>12.334</v>
+      </c>
+      <c r="E32" s="10">
+        <f t="shared" si="31"/>
+        <v>14.558</v>
+      </c>
+      <c r="F32" s="10">
+        <v>15.226000000000001</v>
+      </c>
+      <c r="G32" s="10"/>
+      <c r="H32" s="10"/>
+      <c r="I32" s="10">
+        <f t="shared" si="32"/>
+        <v>25.675000000000001</v>
+      </c>
+      <c r="J32" s="10">
+        <v>56.561999999999998</v>
+      </c>
+      <c r="K32" s="10">
+        <v>95.248999999999995</v>
+      </c>
+      <c r="L32" s="10">
+        <v>98.626999999999995</v>
+      </c>
+      <c r="M32" s="10">
+        <f t="shared" si="33"/>
+        <v>94.835999999999999</v>
+      </c>
+      <c r="N32" s="10">
+        <v>115.194</v>
+      </c>
+      <c r="O32" s="10">
+        <v>82.655000000000001</v>
+      </c>
+      <c r="P32" s="10">
+        <v>143.07900000000001</v>
+      </c>
+      <c r="Q32" s="15">
+        <f>11.7+98.565</f>
+        <v>110.265</v>
+      </c>
+      <c r="V32" s="10"/>
+      <c r="W32" s="10"/>
+      <c r="X32" s="10">
+        <v>14.558</v>
+      </c>
+      <c r="Y32" s="10">
+        <v>25.675000000000001</v>
+      </c>
+      <c r="Z32" s="10">
+        <v>94.835999999999999</v>
+      </c>
+      <c r="AA32" s="15">
+        <f>Q32</f>
+        <v>110.265</v>
+      </c>
+    </row>
+    <row r="33" spans="1:27" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="B33" s="11"/>
+      <c r="C33" s="11">
+        <f t="shared" ref="C33:D33" si="34">SUM(C28:C32)</f>
+        <v>1451.1209999999999</v>
+      </c>
+      <c r="D33" s="11">
+        <f t="shared" si="34"/>
+        <v>1485.856</v>
+      </c>
+      <c r="E33" s="11">
+        <f>SUM(E28:E32)</f>
+        <v>2194.3049999999998</v>
+      </c>
+      <c r="F33" s="11">
+        <f t="shared" ref="F33:Q33" si="35">SUM(F28:F32)</f>
+        <v>3211.4810000000002</v>
+      </c>
+      <c r="G33" s="11">
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
-      <c r="K26" s="11">
-        <f t="shared" si="24"/>
+      <c r="H33" s="11">
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
-      <c r="L26" s="11">
-        <f t="shared" si="24"/>
-        <v>1752366</v>
-      </c>
-      <c r="M26" s="11">
-        <f t="shared" si="24"/>
-        <v>1380752</v>
-      </c>
-      <c r="N26" s="11">
-        <f t="shared" si="24"/>
-        <v>1076731</v>
-      </c>
-      <c r="O26" s="11">
-        <f t="shared" si="24"/>
-        <v>768286</v>
-      </c>
-      <c r="P26" s="11">
-        <f t="shared" si="24"/>
-        <v>692451</v>
-      </c>
-      <c r="Q26" s="11">
-        <f>Q27+Q28+Q29-Q40-Q41-Q42</f>
-        <v>417250</v>
-      </c>
-      <c r="R26" s="11">
-        <f t="shared" ref="R26:T26" si="25">R27+R28+R29-R40-R41-R42</f>
-        <v>526729</v>
-      </c>
-      <c r="S26" s="11">
-        <f t="shared" si="25"/>
-        <v>268602</v>
-      </c>
-      <c r="T26" s="14">
-        <f t="shared" si="25"/>
-        <v>363943</v>
-      </c>
-      <c r="Y26" s="11">
-        <f t="shared" ref="Y26" si="26">Y27-Y40-Y41-Y42</f>
+      <c r="I33" s="11">
+        <f t="shared" si="35"/>
+        <v>2753.33</v>
+      </c>
+      <c r="J33" s="11">
+        <f t="shared" si="35"/>
+        <v>2398.4649999999997</v>
+      </c>
+      <c r="K33" s="11">
+        <f t="shared" si="35"/>
+        <v>2137.6689999999999</v>
+      </c>
+      <c r="L33" s="11">
+        <f t="shared" si="35"/>
+        <v>2193.078</v>
+      </c>
+      <c r="M33" s="11">
+        <f t="shared" si="35"/>
+        <v>2084.8409999999999</v>
+      </c>
+      <c r="N33" s="11">
+        <f t="shared" si="35"/>
+        <v>1805.7559999999999</v>
+      </c>
+      <c r="O33" s="11">
+        <f t="shared" si="35"/>
+        <v>1719.021</v>
+      </c>
+      <c r="P33" s="11">
+        <f t="shared" si="35"/>
+        <v>1967.922</v>
+      </c>
+      <c r="Q33" s="14">
+        <f t="shared" si="35"/>
+        <v>2071.3669999999997</v>
+      </c>
+      <c r="V33" s="11"/>
+      <c r="W33" s="11"/>
+      <c r="X33" s="11">
+        <f t="shared" ref="X33" si="36">SUM(X28:X32)</f>
+        <v>2194.3049999999998</v>
+      </c>
+      <c r="Y33" s="11">
+        <f t="shared" ref="Y33" si="37">SUM(Y28:Y32)</f>
+        <v>2753.33</v>
+      </c>
+      <c r="Z33" s="11">
+        <f t="shared" ref="Z33:AA33" si="38">SUM(Z28:Z32)</f>
+        <v>2084.8409999999999</v>
+      </c>
+      <c r="AA33" s="14">
+        <f t="shared" si="38"/>
+        <v>2071.3669999999997</v>
+      </c>
+    </row>
+    <row r="34" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>28</v>
+      </c>
+      <c r="C34" s="10">
+        <v>37.002000000000002</v>
+      </c>
+      <c r="D34" s="10">
+        <v>39.481999999999999</v>
+      </c>
+      <c r="E34" s="10">
+        <f t="shared" si="31"/>
+        <v>40.826999999999998</v>
+      </c>
+      <c r="F34" s="10">
+        <v>42.984999999999999</v>
+      </c>
+      <c r="G34" s="10"/>
+      <c r="H34" s="10"/>
+      <c r="I34" s="10">
+        <f t="shared" si="32"/>
+        <v>46.018999999999998</v>
+      </c>
+      <c r="J34" s="10">
+        <v>49.734000000000002</v>
+      </c>
+      <c r="K34" s="10">
+        <v>53.926000000000002</v>
+      </c>
+      <c r="L34" s="10">
+        <v>58.225999999999999</v>
+      </c>
+      <c r="M34" s="10">
+        <f t="shared" si="33"/>
+        <v>60.101999999999997</v>
+      </c>
+      <c r="N34" s="10">
+        <v>62.273000000000003</v>
+      </c>
+      <c r="O34" s="10">
+        <v>59.933999999999997</v>
+      </c>
+      <c r="P34" s="10">
+        <v>64.927000000000007</v>
+      </c>
+      <c r="Q34" s="15">
+        <v>60.695</v>
+      </c>
+      <c r="V34" s="10"/>
+      <c r="W34" s="10"/>
+      <c r="X34" s="10">
+        <v>40.826999999999998</v>
+      </c>
+      <c r="Y34" s="10">
+        <v>46.018999999999998</v>
+      </c>
+      <c r="Z34" s="10">
+        <v>60.101999999999997</v>
+      </c>
+      <c r="AA34" s="15">
+        <f>Q34</f>
+        <v>60.695</v>
+      </c>
+    </row>
+    <row r="35" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>30</v>
+      </c>
+      <c r="C35" s="10"/>
+      <c r="D35" s="10">
+        <v>549.25199999999995</v>
+      </c>
+      <c r="E35" s="10">
+        <f t="shared" si="31"/>
+        <v>555.92999999999995</v>
+      </c>
+      <c r="F35" s="10">
+        <v>532.077</v>
+      </c>
+      <c r="G35" s="10"/>
+      <c r="H35" s="10"/>
+      <c r="I35" s="10">
+        <f t="shared" si="32"/>
+        <v>535.01700000000005</v>
+      </c>
+      <c r="J35" s="10">
+        <v>523.02300000000002</v>
+      </c>
+      <c r="K35" s="10">
+        <v>810.52499999999998</v>
+      </c>
+      <c r="L35" s="10">
+        <v>788.64700000000005</v>
+      </c>
+      <c r="M35" s="10">
+        <f t="shared" si="33"/>
+        <v>776.93399999999997</v>
+      </c>
+      <c r="N35" s="10">
+        <v>754.50900000000001</v>
+      </c>
+      <c r="O35" s="10">
+        <v>734.63300000000004</v>
+      </c>
+      <c r="P35" s="10">
+        <v>718.95799999999997</v>
+      </c>
+      <c r="Q35" s="15">
+        <v>690.62</v>
+      </c>
+      <c r="V35" s="10"/>
+      <c r="W35" s="10"/>
+      <c r="X35" s="10">
+        <v>555.92999999999995</v>
+      </c>
+      <c r="Y35" s="10">
+        <v>535.01700000000005</v>
+      </c>
+      <c r="Z35" s="10">
+        <v>776.93399999999997</v>
+      </c>
+      <c r="AA35" s="15">
+        <f t="shared" ref="AA35:AA48" si="39">Q35</f>
+        <v>690.62</v>
+      </c>
+    </row>
+    <row r="36" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>29</v>
+      </c>
+      <c r="C36" s="10">
+        <v>542.09500000000003</v>
+      </c>
+      <c r="D36" s="10">
+        <v>486.327</v>
+      </c>
+      <c r="E36" s="10">
+        <f t="shared" si="31"/>
+        <v>569.60299999999995</v>
+      </c>
+      <c r="F36" s="10">
+        <v>612.47900000000004</v>
+      </c>
+      <c r="G36" s="10"/>
+      <c r="H36" s="10"/>
+      <c r="I36" s="10">
+        <f t="shared" si="32"/>
+        <v>615.65499999999997</v>
+      </c>
+      <c r="J36" s="10">
+        <v>615.65499999999997</v>
+      </c>
+      <c r="K36" s="10">
+        <v>894.01900000000001</v>
+      </c>
+      <c r="L36" s="10">
+        <v>894.01900000000001</v>
+      </c>
+      <c r="M36" s="10">
+        <f t="shared" si="33"/>
+        <v>886.37300000000005</v>
+      </c>
+      <c r="N36" s="10">
+        <v>886.37300000000005</v>
+      </c>
+      <c r="O36" s="10">
+        <v>886.37300000000005</v>
+      </c>
+      <c r="P36" s="10">
+        <v>886.37300000000005</v>
+      </c>
+      <c r="Q36" s="15">
+        <v>886.37300000000005</v>
+      </c>
+      <c r="V36" s="10"/>
+      <c r="W36" s="10"/>
+      <c r="X36" s="10">
+        <v>569.60299999999995</v>
+      </c>
+      <c r="Y36" s="10">
+        <v>615.65499999999997</v>
+      </c>
+      <c r="Z36" s="10">
+        <v>886.37300000000005</v>
+      </c>
+      <c r="AA36" s="15">
+        <f t="shared" si="39"/>
+        <v>886.37300000000005</v>
+      </c>
+    </row>
+    <row r="37" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>128</v>
+      </c>
+      <c r="C37" s="10">
+        <v>480.57799999999997</v>
+      </c>
+      <c r="D37" s="10"/>
+      <c r="E37" s="10">
+        <f t="shared" si="31"/>
+        <v>68.076999999999998</v>
+      </c>
+      <c r="F37" s="10">
+        <v>73.022000000000006</v>
+      </c>
+      <c r="G37" s="10"/>
+      <c r="H37" s="10"/>
+      <c r="I37" s="10">
+        <f t="shared" si="32"/>
+        <v>63.831000000000003</v>
+      </c>
+      <c r="J37" s="10">
+        <v>61.168999999999997</v>
+      </c>
+      <c r="K37" s="10">
+        <v>77.337999999999994</v>
+      </c>
+      <c r="L37" s="10">
+        <v>74.703000000000003</v>
+      </c>
+      <c r="M37" s="10">
+        <f t="shared" si="33"/>
+        <v>65.956999999999994</v>
+      </c>
+      <c r="N37" s="10">
+        <v>60.804000000000002</v>
+      </c>
+      <c r="O37" s="10">
+        <v>58.348999999999997</v>
+      </c>
+      <c r="P37" s="10">
+        <v>77.180000000000007</v>
+      </c>
+      <c r="Q37" s="15">
+        <v>93.984999999999999</v>
+      </c>
+      <c r="V37" s="10"/>
+      <c r="W37" s="10"/>
+      <c r="X37" s="10">
+        <v>68.076999999999998</v>
+      </c>
+      <c r="Y37" s="10">
+        <v>63.831000000000003</v>
+      </c>
+      <c r="Z37" s="10">
+        <v>65.956999999999994</v>
+      </c>
+      <c r="AA37" s="15">
+        <f t="shared" si="39"/>
+        <v>93.984999999999999</v>
+      </c>
+    </row>
+    <row r="38" spans="1:27" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>129</v>
+      </c>
+      <c r="B38"/>
+      <c r="C38" s="10">
+        <v>2.2360000000000002</v>
+      </c>
+      <c r="D38" s="10">
+        <v>2.141</v>
+      </c>
+      <c r="E38" s="10">
+        <f t="shared" si="31"/>
+        <v>2.9550000000000001</v>
+      </c>
+      <c r="F38" s="10">
+        <v>2.802</v>
+      </c>
+      <c r="G38" s="10"/>
+      <c r="H38" s="10"/>
+      <c r="I38" s="10">
+        <f t="shared" si="32"/>
+        <v>9.8249999999999993</v>
+      </c>
+      <c r="J38" s="10">
+        <v>7.4740000000000002</v>
+      </c>
+      <c r="K38" s="10">
+        <v>8.7959999999999994</v>
+      </c>
+      <c r="L38" s="10">
+        <v>8.7460000000000004</v>
+      </c>
+      <c r="M38" s="10">
+        <f t="shared" si="33"/>
+        <v>10.08</v>
+      </c>
+      <c r="N38" s="10">
+        <v>9.9610000000000003</v>
+      </c>
+      <c r="O38" s="10">
+        <v>9.6379999999999999</v>
+      </c>
+      <c r="P38" s="10">
+        <v>9.6300000000000008</v>
+      </c>
+      <c r="Q38" s="15">
+        <v>10.28</v>
+      </c>
+      <c r="V38" s="10"/>
+      <c r="W38" s="10"/>
+      <c r="X38" s="10">
+        <v>2.9550000000000001</v>
+      </c>
+      <c r="Y38" s="10">
+        <v>9.8249999999999993</v>
+      </c>
+      <c r="Z38" s="10">
+        <v>10.08</v>
+      </c>
+      <c r="AA38" s="15">
+        <f t="shared" si="39"/>
+        <v>10.28</v>
+      </c>
+    </row>
+    <row r="39" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>31</v>
+      </c>
+      <c r="C39" s="10">
+        <v>3.105</v>
+      </c>
+      <c r="D39" s="10">
+        <v>3.601</v>
+      </c>
+      <c r="E39" s="10">
+        <f t="shared" si="31"/>
+        <v>7.6319999999999997</v>
+      </c>
+      <c r="F39" s="10">
+        <v>8.3049999999999997</v>
+      </c>
+      <c r="G39" s="10"/>
+      <c r="H39" s="10"/>
+      <c r="I39" s="10">
+        <f t="shared" si="32"/>
+        <v>45.377000000000002</v>
+      </c>
+      <c r="J39" s="10">
+        <v>90.795000000000002</v>
+      </c>
+      <c r="K39" s="10">
+        <v>171.49100000000001</v>
+      </c>
+      <c r="L39" s="10">
+        <v>174.63399999999999</v>
+      </c>
+      <c r="M39" s="10">
+        <f t="shared" si="33"/>
+        <v>155.86500000000001</v>
+      </c>
+      <c r="N39" s="10">
+        <v>159.59800000000001</v>
+      </c>
+      <c r="O39" s="10">
+        <v>138.316</v>
+      </c>
+      <c r="P39" s="10">
+        <v>136.52600000000001</v>
+      </c>
+      <c r="Q39" s="15">
+        <v>131.54599999999999</v>
+      </c>
+      <c r="V39" s="10"/>
+      <c r="W39" s="10"/>
+      <c r="X39" s="10">
+        <v>7.6319999999999997</v>
+      </c>
+      <c r="Y39" s="10">
+        <v>45.377000000000002</v>
+      </c>
+      <c r="Z39" s="10">
+        <v>155.86500000000001</v>
+      </c>
+      <c r="AA39" s="15">
+        <f t="shared" si="39"/>
+        <v>131.54599999999999</v>
+      </c>
+    </row>
+    <row r="40" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A40" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B40" s="11"/>
+      <c r="C40" s="11">
+        <f t="shared" ref="C40:Q40" si="40">SUM(C33:C39)</f>
+        <v>2516.1369999999997</v>
+      </c>
+      <c r="D40" s="11">
+        <f>SUM(D33:D39)</f>
+        <v>2566.6590000000006</v>
+      </c>
+      <c r="E40" s="11">
+        <f>SUM(E33:E39)</f>
+        <v>3439.3289999999993</v>
+      </c>
+      <c r="F40" s="11">
+        <f t="shared" si="40"/>
+        <v>4483.1510000000007</v>
+      </c>
+      <c r="G40" s="11">
+        <f t="shared" si="40"/>
         <v>0</v>
       </c>
-      <c r="Z26" s="11">
-        <f>Z27+Z28+Z29-Z40-Z41-Z42</f>
-        <v>-14719</v>
-      </c>
-      <c r="AA26" s="11">
-        <f>AA27+AA28+AA29-AA40-AA41-AA42</f>
-        <v>1580813</v>
-      </c>
-      <c r="AB26" s="11">
-        <f>AB27+AB28+AB29-AB40-AB41-AB42</f>
-        <v>1752366</v>
-      </c>
-      <c r="AC26" s="11">
-        <f>AC27+AC28+AC29-AC40-AC41-AC42</f>
-        <v>692451</v>
-      </c>
-      <c r="AD26" s="14">
-        <f>AD27+AD28+AD29-AD40-AD41-AD42</f>
-        <v>363943</v>
-      </c>
-    </row>
-    <row r="27" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>25</v>
-      </c>
-      <c r="D27" s="10">
-        <v>76533</v>
-      </c>
-      <c r="F27" s="10">
-        <v>1244266</v>
-      </c>
-      <c r="G27" s="10">
-        <v>1140907</v>
-      </c>
-      <c r="H27" s="10">
-        <f>AA27</f>
-        <v>1817258</v>
-      </c>
-      <c r="I27" s="10">
-        <v>2818128</v>
-      </c>
-      <c r="J27" s="10"/>
-      <c r="K27" s="10"/>
-      <c r="L27" s="10">
-        <f>AB27</f>
-        <v>2152892</v>
-      </c>
-      <c r="M27" s="10">
-        <v>1772892</v>
-      </c>
-      <c r="N27" s="10">
-        <v>1514371</v>
-      </c>
-      <c r="O27" s="10">
-        <v>1382651</v>
-      </c>
-      <c r="P27" s="10">
-        <f>AC27</f>
-        <v>1309172</v>
-      </c>
-      <c r="Q27" s="10">
-        <v>1087668</v>
-      </c>
-      <c r="R27" s="10">
-        <v>1113715</v>
-      </c>
-      <c r="S27" s="10">
-        <v>1111596</v>
-      </c>
-      <c r="T27" s="15">
-        <v>1270503</v>
-      </c>
-      <c r="Y27" s="10"/>
-      <c r="Z27" s="10">
-        <f>D27</f>
-        <v>76533</v>
-      </c>
-      <c r="AA27" s="10">
-        <v>1817258</v>
-      </c>
-      <c r="AB27" s="10">
-        <v>2152892</v>
-      </c>
-      <c r="AC27" s="10">
-        <v>1309172</v>
-      </c>
-      <c r="AD27" s="15">
-        <f>T27</f>
-        <v>1270503</v>
-      </c>
-    </row>
-    <row r="28" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
+      <c r="H40" s="11">
+        <f t="shared" si="40"/>
+        <v>0</v>
+      </c>
+      <c r="I40" s="11">
+        <f>SUM(I33:I39)</f>
+        <v>4069.0539999999996</v>
+      </c>
+      <c r="J40" s="11">
+        <f t="shared" si="40"/>
+        <v>3746.3149999999996</v>
+      </c>
+      <c r="K40" s="11">
+        <f>SUM(K33:K39)</f>
+        <v>4153.7640000000001</v>
+      </c>
+      <c r="L40" s="11">
+        <f t="shared" si="40"/>
+        <v>4192.0529999999999</v>
+      </c>
+      <c r="M40" s="11">
+        <f t="shared" si="40"/>
+        <v>4040.1519999999991</v>
+      </c>
+      <c r="N40" s="11">
+        <f t="shared" si="40"/>
+        <v>3739.2739999999994</v>
+      </c>
+      <c r="O40" s="11">
+        <f t="shared" si="40"/>
+        <v>3606.2639999999997</v>
+      </c>
+      <c r="P40" s="11">
+        <f t="shared" si="40"/>
+        <v>3861.5159999999996</v>
+      </c>
+      <c r="Q40" s="14">
+        <f t="shared" si="40"/>
+        <v>3944.866</v>
+      </c>
+      <c r="V40" s="11"/>
+      <c r="W40" s="11"/>
+      <c r="X40" s="11">
+        <f t="shared" ref="X40" si="41">SUM(X33:X39)</f>
+        <v>3439.3289999999993</v>
+      </c>
+      <c r="Y40" s="11">
+        <f t="shared" ref="Y40" si="42">SUM(Y33:Y39)</f>
+        <v>4069.0539999999996</v>
+      </c>
+      <c r="Z40" s="11">
+        <f t="shared" ref="Z40:AA40" si="43">SUM(Z33:Z39)</f>
+        <v>4040.1519999999991</v>
+      </c>
+      <c r="AA40" s="14">
+        <f t="shared" si="43"/>
+        <v>3944.866</v>
+      </c>
+    </row>
+    <row r="41" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>35</v>
+      </c>
+      <c r="C41" s="10">
+        <v>122.946</v>
+      </c>
+      <c r="D41" s="10">
+        <v>226.33199999999999</v>
+      </c>
+      <c r="E41" s="10">
+        <f t="shared" si="31"/>
+        <v>223.63300000000001</v>
+      </c>
+      <c r="F41" s="10">
+        <v>295.30599999999998</v>
+      </c>
+      <c r="G41" s="10"/>
+      <c r="H41" s="10"/>
+      <c r="I41" s="10">
+        <f t="shared" si="32"/>
+        <v>387.73700000000002</v>
+      </c>
+      <c r="J41" s="10">
+        <v>379.25400000000002</v>
+      </c>
+      <c r="K41" s="10">
+        <v>414.68</v>
+      </c>
+      <c r="L41" s="10">
+        <v>560.79399999999998</v>
+      </c>
+      <c r="M41" s="10">
+        <f t="shared" si="33"/>
+        <v>517.58699999999999</v>
+      </c>
+      <c r="N41" s="10">
+        <v>508.72500000000002</v>
+      </c>
+      <c r="O41" s="10">
+        <v>436.26499999999999</v>
+      </c>
+      <c r="P41" s="10">
+        <v>594.06700000000001</v>
+      </c>
+      <c r="Q41" s="15">
+        <v>639.59900000000005</v>
+      </c>
+      <c r="V41" s="10"/>
+      <c r="W41" s="10"/>
+      <c r="X41" s="10">
+        <v>223.63300000000001</v>
+      </c>
+      <c r="Y41" s="10">
+        <v>387.73700000000002</v>
+      </c>
+      <c r="Z41" s="10">
+        <v>517.58699999999999</v>
+      </c>
+      <c r="AA41" s="15">
+        <f t="shared" si="39"/>
+        <v>639.59900000000005</v>
+      </c>
+    </row>
+    <row r="42" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
         <v>121</v>
       </c>
-      <c r="D28" s="10">
-        <v>144000</v>
-      </c>
-      <c r="F28" s="10">
-        <v>131995</v>
-      </c>
-      <c r="G28" s="10">
-        <v>257432</v>
-      </c>
-      <c r="H28" s="10">
-        <f t="shared" ref="H28:H47" si="27">AA28</f>
-        <v>287718</v>
-      </c>
-      <c r="I28" s="10">
-        <v>305732</v>
-      </c>
-      <c r="J28" s="10"/>
-      <c r="K28" s="10"/>
-      <c r="L28" s="10">
-        <f t="shared" ref="L28:L47" si="28">AB28</f>
-        <v>476950</v>
-      </c>
-      <c r="M28" s="10">
-        <v>464854</v>
-      </c>
-      <c r="N28" s="10">
-        <v>426169</v>
-      </c>
-      <c r="O28" s="10">
-        <v>581355</v>
-      </c>
-      <c r="P28" s="10">
-        <f t="shared" ref="P28:P47" si="29">AC28</f>
-        <v>469653</v>
-      </c>
-      <c r="Q28" s="10">
-        <v>436935</v>
-      </c>
-      <c r="R28" s="10">
-        <v>381097</v>
-      </c>
-      <c r="S28" s="10">
-        <v>475984</v>
-      </c>
-      <c r="T28" s="15">
-        <v>341290</v>
-      </c>
-      <c r="Y28" s="10"/>
-      <c r="Z28" s="10">
-        <f t="shared" ref="Z28:Z44" si="30">D28</f>
-        <v>144000</v>
-      </c>
-      <c r="AA28" s="10">
-        <v>287718</v>
-      </c>
-      <c r="AB28" s="10">
-        <v>476950</v>
-      </c>
-      <c r="AC28" s="10">
-        <v>469653</v>
-      </c>
-      <c r="AD28" s="15">
-        <f>T28</f>
-        <v>341290</v>
-      </c>
-    </row>
-    <row r="29" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
+      <c r="C42" s="10">
+        <v>147.03100000000001</v>
+      </c>
+      <c r="D42" s="10">
+        <v>286.50599999999997</v>
+      </c>
+      <c r="E42" s="10">
+        <f t="shared" si="31"/>
+        <v>317.94200000000001</v>
+      </c>
+      <c r="F42" s="10">
+        <v>329.74200000000002</v>
+      </c>
+      <c r="G42" s="10"/>
+      <c r="H42" s="10"/>
+      <c r="I42" s="10">
+        <f t="shared" si="32"/>
+        <v>528.87400000000002</v>
+      </c>
+      <c r="J42" s="10">
+        <v>520.77499999999998</v>
+      </c>
+      <c r="K42" s="10">
+        <v>482.94</v>
+      </c>
+      <c r="L42" s="10">
+        <v>670.78399999999999</v>
+      </c>
+      <c r="M42" s="10">
+        <f t="shared" si="33"/>
+        <v>686.173</v>
+      </c>
+      <c r="N42" s="10">
+        <v>670.45600000000002</v>
+      </c>
+      <c r="O42" s="10">
+        <v>600.14599999999996</v>
+      </c>
+      <c r="P42" s="10">
+        <v>856.33399999999995</v>
+      </c>
+      <c r="Q42" s="15">
+        <v>851.89800000000002</v>
+      </c>
+      <c r="V42" s="10"/>
+      <c r="W42" s="10"/>
+      <c r="X42" s="10">
+        <v>317.94200000000001</v>
+      </c>
+      <c r="Y42" s="10">
+        <v>528.87400000000002</v>
+      </c>
+      <c r="Z42" s="10">
+        <v>686.173</v>
+      </c>
+      <c r="AA42" s="15">
+        <f t="shared" si="39"/>
+        <v>851.89800000000002</v>
+      </c>
+    </row>
+    <row r="43" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
         <v>122</v>
       </c>
-      <c r="D29" s="10">
-        <v>19828</v>
-      </c>
-      <c r="F29" s="10">
-        <v>15060</v>
-      </c>
-      <c r="G29" s="10">
-        <v>29099</v>
-      </c>
-      <c r="H29" s="10">
-        <f t="shared" si="27"/>
-        <v>30249</v>
-      </c>
-      <c r="I29" s="10">
-        <v>24036</v>
-      </c>
-      <c r="J29" s="10"/>
-      <c r="K29" s="10"/>
-      <c r="L29" s="10">
-        <f t="shared" si="28"/>
-        <v>51949</v>
-      </c>
-      <c r="M29" s="10">
-        <v>55946</v>
-      </c>
-      <c r="N29" s="10">
-        <v>56820</v>
-      </c>
-      <c r="O29" s="10">
-        <v>89454</v>
-      </c>
-      <c r="P29" s="10">
-        <f t="shared" si="29"/>
-        <v>160083</v>
-      </c>
-      <c r="Q29" s="10">
-        <v>124536</v>
-      </c>
-      <c r="R29" s="10">
-        <v>109153</v>
-      </c>
-      <c r="S29" s="10">
-        <v>209485</v>
-      </c>
-      <c r="T29" s="15">
-        <v>301770</v>
-      </c>
-      <c r="Y29" s="10"/>
-      <c r="Z29" s="10">
-        <f t="shared" si="30"/>
-        <v>19828</v>
-      </c>
-      <c r="AA29" s="10">
-        <v>30249</v>
-      </c>
-      <c r="AB29" s="10">
-        <v>51949</v>
-      </c>
-      <c r="AC29" s="10">
-        <v>160083</v>
-      </c>
-      <c r="AD29" s="15">
-        <f>T29</f>
-        <v>301770</v>
-      </c>
-    </row>
-    <row r="30" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
+      <c r="C43" s="10"/>
+      <c r="D43" s="10"/>
+      <c r="E43" s="10">
+        <f t="shared" si="31"/>
+        <v>12.837</v>
+      </c>
+      <c r="F43" s="10">
+        <v>13.37</v>
+      </c>
+      <c r="G43" s="10"/>
+      <c r="H43" s="10"/>
+      <c r="I43" s="10">
+        <f t="shared" si="32"/>
+        <v>12.814</v>
+      </c>
+      <c r="J43" s="10">
+        <v>12.911</v>
+      </c>
+      <c r="K43" s="10">
+        <f>5.726+17.283</f>
+        <v>23.009</v>
+      </c>
+      <c r="L43" s="10">
+        <f>5.645+47.951</f>
+        <v>53.596000000000004</v>
+      </c>
+      <c r="M43" s="10">
+        <f t="shared" si="33"/>
+        <v>42.697000000000003</v>
+      </c>
+      <c r="N43" s="10">
+        <f>3.975+48.733</f>
+        <v>52.707999999999998</v>
+      </c>
+      <c r="O43" s="10">
+        <f>3.305+37.52</f>
+        <v>40.825000000000003</v>
+      </c>
+      <c r="P43" s="10">
+        <f>12.132+65.93</f>
+        <v>78.062000000000012</v>
+      </c>
+      <c r="Q43" s="15">
+        <f>11.499+46.624</f>
+        <v>58.123000000000005</v>
+      </c>
+      <c r="V43" s="10"/>
+      <c r="W43" s="10"/>
+      <c r="X43" s="10">
+        <v>12.837</v>
+      </c>
+      <c r="Y43" s="10">
+        <v>12.814</v>
+      </c>
+      <c r="Z43" s="10">
+        <f>4.253+38.444</f>
+        <v>42.697000000000003</v>
+      </c>
+      <c r="AA43" s="15">
+        <f>Q43</f>
+        <v>58.123000000000005</v>
+      </c>
+    </row>
+    <row r="44" spans="1:27" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="B44" s="11"/>
+      <c r="C44" s="11">
+        <f t="shared" ref="C44:Q44" si="44">SUM(C41:C43)</f>
+        <v>269.97699999999998</v>
+      </c>
+      <c r="D44" s="11">
+        <f t="shared" si="44"/>
+        <v>512.83799999999997</v>
+      </c>
+      <c r="E44" s="11">
+        <f t="shared" si="44"/>
+        <v>554.41200000000003</v>
+      </c>
+      <c r="F44" s="11">
+        <f t="shared" si="44"/>
+        <v>638.41800000000001</v>
+      </c>
+      <c r="G44" s="11">
+        <f t="shared" si="44"/>
+        <v>0</v>
+      </c>
+      <c r="H44" s="11">
+        <f t="shared" si="44"/>
+        <v>0</v>
+      </c>
+      <c r="I44" s="11">
+        <f t="shared" si="44"/>
+        <v>929.42500000000007</v>
+      </c>
+      <c r="J44" s="11">
+        <f>SUM(J41:J43)</f>
+        <v>912.93999999999994</v>
+      </c>
+      <c r="K44" s="11">
+        <f t="shared" si="44"/>
+        <v>920.62900000000002</v>
+      </c>
+      <c r="L44" s="11">
+        <f t="shared" si="44"/>
+        <v>1285.174</v>
+      </c>
+      <c r="M44" s="11">
+        <f t="shared" si="44"/>
+        <v>1246.4569999999999</v>
+      </c>
+      <c r="N44" s="11">
+        <f t="shared" si="44"/>
+        <v>1231.8890000000001</v>
+      </c>
+      <c r="O44" s="11">
+        <f t="shared" si="44"/>
+        <v>1077.2360000000001</v>
+      </c>
+      <c r="P44" s="11">
+        <f t="shared" si="44"/>
+        <v>1528.4629999999997</v>
+      </c>
+      <c r="Q44" s="14">
+        <f t="shared" si="44"/>
+        <v>1549.6200000000001</v>
+      </c>
+      <c r="R44" s="11"/>
+      <c r="S44" s="11"/>
+      <c r="T44" s="11"/>
+      <c r="U44" s="11"/>
+      <c r="V44" s="11"/>
+      <c r="W44" s="11"/>
+      <c r="X44" s="11">
+        <f t="shared" ref="X44" si="45">SUM(X41:X43)</f>
+        <v>554.41200000000003</v>
+      </c>
+      <c r="Y44" s="11">
+        <f t="shared" ref="Y44" si="46">SUM(Y41:Y43)</f>
+        <v>929.42500000000007</v>
+      </c>
+      <c r="Z44" s="11">
+        <f t="shared" ref="Z44:AA44" si="47">SUM(Z41:Z43)</f>
+        <v>1246.4569999999999</v>
+      </c>
+      <c r="AA44" s="14">
+        <f t="shared" si="47"/>
+        <v>1549.6200000000001</v>
+      </c>
+    </row>
+    <row r="45" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>124</v>
+      </c>
+      <c r="C45" s="10"/>
+      <c r="D45" s="10"/>
+      <c r="E45" s="10">
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
+      <c r="F45" s="10">
+        <v>1247.1130000000001</v>
+      </c>
+      <c r="G45" s="10"/>
+      <c r="H45" s="10"/>
+      <c r="I45" s="10">
+        <f t="shared" si="32"/>
+        <v>1248.452</v>
+      </c>
+      <c r="J45" s="10">
+        <v>1249.106</v>
+      </c>
+      <c r="K45" s="10">
+        <v>1249.7660000000001</v>
+      </c>
+      <c r="L45" s="10">
+        <v>1250.434</v>
+      </c>
+      <c r="M45" s="10">
+        <f t="shared" si="33"/>
+        <v>1251.1030000000001</v>
+      </c>
+      <c r="N45" s="10">
+        <v>1251.758</v>
+      </c>
+      <c r="O45" s="10">
+        <v>1252.42</v>
+      </c>
+      <c r="P45" s="10">
+        <v>1253.0889999999999</v>
+      </c>
+      <c r="Q45" s="15">
+        <v>1253.76</v>
+      </c>
+      <c r="V45" s="10"/>
+      <c r="W45" s="10"/>
+      <c r="X45" s="10"/>
+      <c r="Y45" s="10">
+        <v>1248.452</v>
+      </c>
+      <c r="Z45" s="10">
+        <v>1251.1030000000001</v>
+      </c>
+      <c r="AA45" s="15">
+        <f t="shared" si="39"/>
+        <v>1253.76</v>
+      </c>
+    </row>
+    <row r="46" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>130</v>
+      </c>
+      <c r="C46" s="10"/>
+      <c r="D46" s="10"/>
+      <c r="E46" s="10">
+        <f t="shared" si="31"/>
+        <v>68.775000000000006</v>
+      </c>
+      <c r="F46" s="10">
+        <v>66.811000000000007</v>
+      </c>
+      <c r="G46" s="10"/>
+      <c r="H46" s="10"/>
+      <c r="I46" s="10">
+        <f t="shared" si="32"/>
+        <v>57.341000000000001</v>
+      </c>
+      <c r="J46" s="10">
+        <v>54.457000000000001</v>
+      </c>
+      <c r="K46" s="10">
+        <v>78.176000000000002</v>
+      </c>
+      <c r="L46" s="10">
+        <v>76.08</v>
+      </c>
+      <c r="M46" s="10">
+        <f t="shared" si="33"/>
+        <v>69.331999999999994</v>
+      </c>
+      <c r="N46" s="10">
+        <v>66.465999999999994</v>
+      </c>
+      <c r="O46" s="10">
+        <v>64.418000000000006</v>
+      </c>
+      <c r="P46" s="10">
+        <v>76.926000000000002</v>
+      </c>
+      <c r="Q46" s="15">
+        <v>80.826999999999998</v>
+      </c>
+      <c r="V46" s="10"/>
+      <c r="W46" s="10"/>
+      <c r="X46" s="10">
+        <v>68.775000000000006</v>
+      </c>
+      <c r="Y46" s="10">
+        <v>57.341000000000001</v>
+      </c>
+      <c r="Z46" s="10">
+        <v>69.331999999999994</v>
+      </c>
+      <c r="AA46" s="15">
+        <f t="shared" si="39"/>
+        <v>80.826999999999998</v>
+      </c>
+    </row>
+    <row r="47" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>131</v>
+      </c>
+      <c r="C47" s="10"/>
+      <c r="D47" s="10"/>
+      <c r="E47" s="10">
+        <f t="shared" si="31"/>
+        <v>72.066000000000003</v>
+      </c>
+      <c r="F47" s="10">
+        <v>70.296000000000006</v>
+      </c>
+      <c r="G47" s="10"/>
+      <c r="H47" s="10"/>
+      <c r="I47" s="10">
+        <f t="shared" si="32"/>
+        <v>79.125</v>
+      </c>
+      <c r="J47" s="10">
+        <v>78.947000000000003</v>
+      </c>
+      <c r="K47" s="10">
+        <v>73.858999999999995</v>
+      </c>
+      <c r="L47" s="10">
+        <v>67.924999999999997</v>
+      </c>
+      <c r="M47" s="10">
+        <f t="shared" si="33"/>
+        <v>69.858000000000004</v>
+      </c>
+      <c r="N47" s="10">
+        <v>69.238</v>
+      </c>
+      <c r="O47" s="10">
+        <v>69.283000000000001</v>
+      </c>
+      <c r="P47" s="10">
+        <v>68.253</v>
+      </c>
+      <c r="Q47" s="15">
+        <v>63.567999999999998</v>
+      </c>
+      <c r="V47" s="10"/>
+      <c r="W47" s="10"/>
+      <c r="X47" s="10">
+        <v>72.066000000000003</v>
+      </c>
+      <c r="Y47" s="10">
+        <v>79.125</v>
+      </c>
+      <c r="Z47" s="10">
+        <v>69.858000000000004</v>
+      </c>
+      <c r="AA47" s="15">
+        <f t="shared" si="39"/>
+        <v>63.567999999999998</v>
+      </c>
+    </row>
+    <row r="48" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>32</v>
+      </c>
+      <c r="C48" s="10"/>
+      <c r="D48" s="10">
+        <v>59.088000000000001</v>
+      </c>
+      <c r="E48" s="10">
+        <f t="shared" si="31"/>
+        <v>47.286999999999999</v>
+      </c>
+      <c r="F48" s="10">
+        <f>48.421+90.862</f>
+        <v>139.28299999999999</v>
+      </c>
+      <c r="G48" s="10"/>
+      <c r="H48" s="10"/>
+      <c r="I48" s="10">
+        <f t="shared" si="32"/>
+        <v>76.182999999999993</v>
+      </c>
+      <c r="J48" s="10">
+        <f>51.035+14.23</f>
+        <v>65.265000000000001</v>
+      </c>
+      <c r="K48" s="10">
+        <f>54.369+13.081</f>
+        <v>67.45</v>
+      </c>
+      <c r="L48" s="10">
+        <f>57.447+19.877</f>
+        <v>77.323999999999998</v>
+      </c>
+      <c r="M48" s="10">
+        <f t="shared" si="33"/>
+        <v>80.709000000000003</v>
+      </c>
+      <c r="N48" s="10">
+        <f>74.428+27.715</f>
+        <v>102.143</v>
+      </c>
+      <c r="O48" s="10">
+        <f>78.13+46.286</f>
+        <v>124.416</v>
+      </c>
+      <c r="P48" s="10">
+        <f>79.668+53.695</f>
+        <v>133.363</v>
+      </c>
+      <c r="Q48" s="15">
+        <f>72.81+83.975</f>
+        <v>156.785</v>
+      </c>
+      <c r="V48" s="10"/>
+      <c r="W48" s="10"/>
+      <c r="X48" s="10">
+        <v>47.286999999999999</v>
+      </c>
+      <c r="Y48" s="10">
+        <f>49.272+26.911</f>
+        <v>76.182999999999993</v>
+      </c>
+      <c r="Z48" s="10">
+        <f>10.68+70.029</f>
+        <v>80.709000000000003</v>
+      </c>
+      <c r="AA48" s="15">
+        <f t="shared" si="39"/>
+        <v>156.785</v>
+      </c>
+    </row>
+    <row r="49" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A49" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B49" s="11"/>
+      <c r="C49" s="11">
+        <f t="shared" ref="C49:P49" si="48">SUM(C44:C48)</f>
+        <v>269.97699999999998</v>
+      </c>
+      <c r="D49" s="11">
+        <f t="shared" si="48"/>
+        <v>571.92599999999993</v>
+      </c>
+      <c r="E49" s="11">
+        <f t="shared" si="48"/>
+        <v>742.54000000000008</v>
+      </c>
+      <c r="F49" s="11">
+        <f t="shared" si="48"/>
+        <v>2161.9209999999998</v>
+      </c>
+      <c r="G49" s="11">
+        <f t="shared" si="48"/>
+        <v>0</v>
+      </c>
+      <c r="H49" s="11">
+        <f t="shared" si="48"/>
+        <v>0</v>
+      </c>
+      <c r="I49" s="11">
+        <f t="shared" si="48"/>
+        <v>2390.5259999999998</v>
+      </c>
+      <c r="J49" s="11">
+        <f t="shared" si="48"/>
+        <v>2360.7149999999997</v>
+      </c>
+      <c r="K49" s="11">
+        <f t="shared" si="48"/>
+        <v>2389.8799999999997</v>
+      </c>
+      <c r="L49" s="11">
+        <f t="shared" si="48"/>
+        <v>2756.9370000000004</v>
+      </c>
+      <c r="M49" s="11">
+        <f t="shared" si="48"/>
+        <v>2717.4589999999998</v>
+      </c>
+      <c r="N49" s="11">
+        <f t="shared" si="48"/>
+        <v>2721.4939999999997</v>
+      </c>
+      <c r="O49" s="11">
+        <f t="shared" si="48"/>
+        <v>2587.7730000000001</v>
+      </c>
+      <c r="P49" s="11">
+        <f t="shared" si="48"/>
+        <v>3060.0939999999996</v>
+      </c>
+      <c r="Q49" s="14">
+        <f>SUM(Q44:Q48)</f>
+        <v>3104.5600000000004</v>
+      </c>
+      <c r="V49" s="11"/>
+      <c r="W49" s="11"/>
+      <c r="X49" s="11">
+        <f t="shared" ref="X49:AA49" si="49">SUM(X44:X48)</f>
+        <v>742.54000000000008</v>
+      </c>
+      <c r="Y49" s="11">
+        <f t="shared" si="49"/>
+        <v>2390.5259999999998</v>
+      </c>
+      <c r="Z49" s="11">
+        <f t="shared" si="49"/>
+        <v>2717.4589999999998</v>
+      </c>
+      <c r="AA49" s="14">
+        <f t="shared" si="49"/>
+        <v>3104.5600000000004</v>
+      </c>
+    </row>
+    <row r="50" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="B50" s="10">
+        <f t="shared" ref="B50:O50" si="50">B40-B49</f>
+        <v>0</v>
+      </c>
+      <c r="C50" s="10">
+        <f t="shared" si="50"/>
+        <v>2246.16</v>
+      </c>
+      <c r="D50" s="10">
+        <f t="shared" si="50"/>
+        <v>1994.7330000000006</v>
+      </c>
+      <c r="E50" s="10">
+        <f t="shared" si="50"/>
+        <v>2696.7889999999993</v>
+      </c>
+      <c r="F50" s="10">
+        <f t="shared" si="50"/>
+        <v>2321.2300000000009</v>
+      </c>
+      <c r="G50" s="10">
+        <f t="shared" si="50"/>
+        <v>0</v>
+      </c>
+      <c r="H50" s="10">
+        <f t="shared" si="50"/>
+        <v>0</v>
+      </c>
+      <c r="I50" s="10">
+        <f t="shared" si="50"/>
+        <v>1678.5279999999998</v>
+      </c>
+      <c r="J50" s="10">
+        <f t="shared" si="50"/>
+        <v>1385.6</v>
+      </c>
+      <c r="K50" s="10">
+        <f t="shared" si="50"/>
+        <v>1763.8840000000005</v>
+      </c>
+      <c r="L50" s="10">
+        <f t="shared" si="50"/>
+        <v>1435.1159999999995</v>
+      </c>
+      <c r="M50" s="10">
+        <f t="shared" si="50"/>
+        <v>1322.6929999999993</v>
+      </c>
+      <c r="N50" s="10">
+        <f t="shared" si="50"/>
+        <v>1017.7799999999997</v>
+      </c>
+      <c r="O50" s="10">
+        <f t="shared" si="50"/>
+        <v>1018.4909999999995</v>
+      </c>
+      <c r="P50" s="10">
+        <f>P40-P49</f>
+        <v>801.42200000000003</v>
+      </c>
+      <c r="Q50" s="15">
+        <f>Q40-Q49</f>
+        <v>840.30599999999959</v>
+      </c>
+      <c r="X50" s="11"/>
+      <c r="Y50" s="11"/>
+      <c r="Z50" s="11"/>
+    </row>
+    <row r="52" spans="1:27" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q52" s="16"/>
+      <c r="AA52" s="16"/>
+    </row>
+    <row r="53" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="54" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="55" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="56" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="57" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="58" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
         <v>26</v>
       </c>
-      <c r="D30" s="10">
-        <v>10016</v>
-      </c>
-      <c r="F30" s="10">
-        <v>35104</v>
-      </c>
-      <c r="G30" s="10">
-        <v>46084</v>
-      </c>
-      <c r="H30" s="10">
-        <f t="shared" si="27"/>
-        <v>44522</v>
-      </c>
-      <c r="I30" s="10">
-        <v>48359</v>
-      </c>
-      <c r="J30" s="10"/>
-      <c r="K30" s="10"/>
-      <c r="L30" s="10">
-        <f t="shared" si="28"/>
-        <v>45864</v>
-      </c>
-      <c r="M30" s="10">
-        <v>48211</v>
-      </c>
-      <c r="N30" s="10">
-        <v>45060</v>
-      </c>
-      <c r="O30" s="10">
-        <v>40991</v>
-      </c>
-      <c r="P30" s="10">
-        <f t="shared" si="29"/>
-        <v>51097</v>
-      </c>
-      <c r="Q30" s="10">
-        <v>41423</v>
-      </c>
-      <c r="R30" s="10">
-        <v>32401</v>
-      </c>
-      <c r="S30" s="10">
-        <v>27778</v>
-      </c>
-      <c r="T30" s="15">
-        <v>47539</v>
-      </c>
-      <c r="Y30" s="10"/>
-      <c r="Z30" s="10">
-        <f t="shared" si="30"/>
-        <v>10016</v>
-      </c>
-      <c r="AA30" s="10">
-        <v>44522</v>
-      </c>
-      <c r="AB30" s="10">
-        <v>45864</v>
-      </c>
-      <c r="AC30" s="10">
-        <v>51097</v>
-      </c>
-      <c r="AD30" s="15">
-        <f>T30</f>
-        <v>47539</v>
-      </c>
-    </row>
-    <row r="31" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
+    </row>
+    <row r="59" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="60" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="61" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="62" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="63" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="64" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
         <v>27</v>
       </c>
-      <c r="D31" s="10">
-        <v>10771</v>
-      </c>
-      <c r="F31" s="10">
-        <v>24696</v>
-      </c>
-      <c r="G31" s="10">
-        <v>12334</v>
-      </c>
-      <c r="H31" s="10">
-        <f t="shared" si="27"/>
-        <v>14558</v>
-      </c>
-      <c r="I31" s="10">
-        <v>15226</v>
-      </c>
-      <c r="J31" s="10"/>
-      <c r="K31" s="10"/>
-      <c r="L31" s="10">
-        <f t="shared" si="28"/>
-        <v>25675</v>
-      </c>
-      <c r="M31" s="10">
-        <v>56562</v>
-      </c>
-      <c r="N31" s="10">
-        <v>95249</v>
-      </c>
-      <c r="O31" s="10">
-        <v>98627</v>
-      </c>
-      <c r="P31" s="10">
-        <f t="shared" si="29"/>
-        <v>94836</v>
-      </c>
-      <c r="Q31" s="10">
-        <v>115194</v>
-      </c>
-      <c r="R31" s="10">
-        <v>82655</v>
-      </c>
-      <c r="S31" s="10">
-        <v>143079</v>
-      </c>
-      <c r="T31" s="15">
-        <f>11700+98565</f>
-        <v>110265</v>
-      </c>
-      <c r="Y31" s="10"/>
-      <c r="Z31" s="10">
-        <f t="shared" si="30"/>
-        <v>10771</v>
-      </c>
-      <c r="AA31" s="10">
-        <v>14558</v>
-      </c>
-      <c r="AB31" s="10">
-        <v>25675</v>
-      </c>
-      <c r="AC31" s="10">
-        <v>94836</v>
-      </c>
-      <c r="AD31" s="15">
-        <f>T31</f>
-        <v>110265</v>
-      </c>
-    </row>
-    <row r="32" spans="1:33" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="B32" s="11"/>
-      <c r="C32" s="11"/>
-      <c r="D32" s="11">
-        <f t="shared" ref="D32:G32" si="31">SUM(D27:D31)</f>
-        <v>261148</v>
-      </c>
-      <c r="E32" s="11"/>
-      <c r="F32" s="11">
-        <f t="shared" si="31"/>
-        <v>1451121</v>
-      </c>
-      <c r="G32" s="11">
-        <f t="shared" si="31"/>
-        <v>1485856</v>
-      </c>
-      <c r="H32" s="11">
-        <f>SUM(H27:H31)</f>
-        <v>2194305</v>
-      </c>
-      <c r="I32" s="11">
-        <f t="shared" ref="I32:T32" si="32">SUM(I27:I31)</f>
-        <v>3211481</v>
-      </c>
-      <c r="J32" s="11">
-        <f t="shared" si="32"/>
-        <v>0</v>
-      </c>
-      <c r="K32" s="11">
-        <f t="shared" si="32"/>
-        <v>0</v>
-      </c>
-      <c r="L32" s="11">
-        <f t="shared" si="32"/>
-        <v>2753330</v>
-      </c>
-      <c r="M32" s="11">
-        <f t="shared" si="32"/>
-        <v>2398465</v>
-      </c>
-      <c r="N32" s="11">
-        <f t="shared" si="32"/>
-        <v>2137669</v>
-      </c>
-      <c r="O32" s="11">
-        <f t="shared" si="32"/>
-        <v>2193078</v>
-      </c>
-      <c r="P32" s="11">
-        <f t="shared" si="32"/>
-        <v>2084841</v>
-      </c>
-      <c r="Q32" s="11">
-        <f t="shared" si="32"/>
-        <v>1805756</v>
-      </c>
-      <c r="R32" s="11">
-        <f t="shared" si="32"/>
-        <v>1719021</v>
-      </c>
-      <c r="S32" s="11">
-        <f t="shared" si="32"/>
-        <v>1967922</v>
-      </c>
-      <c r="T32" s="14">
-        <f t="shared" si="32"/>
-        <v>2071367</v>
-      </c>
-      <c r="Y32" s="11">
-        <f>SUM(Y27:Y31)</f>
-        <v>0</v>
-      </c>
-      <c r="Z32" s="11">
-        <f>SUM(Z27:Z31)</f>
-        <v>261148</v>
-      </c>
-      <c r="AA32" s="11">
-        <f t="shared" ref="AA32" si="33">SUM(AA27:AA31)</f>
-        <v>2194305</v>
-      </c>
-      <c r="AB32" s="11">
-        <f t="shared" ref="AB32" si="34">SUM(AB27:AB31)</f>
-        <v>2753330</v>
-      </c>
-      <c r="AC32" s="11">
-        <f t="shared" ref="AC32:AD32" si="35">SUM(AC27:AC31)</f>
-        <v>2084841</v>
-      </c>
-      <c r="AD32" s="14">
-        <f t="shared" si="35"/>
-        <v>2071367</v>
-      </c>
-    </row>
-    <row r="33" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
-        <v>28</v>
-      </c>
-      <c r="D33" s="10">
-        <v>25945</v>
-      </c>
-      <c r="F33" s="10">
-        <v>37002</v>
-      </c>
-      <c r="G33" s="10">
-        <v>39482</v>
-      </c>
-      <c r="H33" s="10">
-        <f t="shared" si="27"/>
-        <v>40827</v>
-      </c>
-      <c r="I33" s="10">
-        <v>42985</v>
-      </c>
-      <c r="J33" s="10"/>
-      <c r="K33" s="10"/>
-      <c r="L33" s="10">
-        <f t="shared" si="28"/>
-        <v>46019</v>
-      </c>
-      <c r="M33" s="10">
-        <v>49734</v>
-      </c>
-      <c r="N33" s="10">
-        <v>53926</v>
-      </c>
-      <c r="O33" s="10">
-        <v>58226</v>
-      </c>
-      <c r="P33" s="10">
-        <f t="shared" si="29"/>
-        <v>60102</v>
-      </c>
-      <c r="Q33" s="10">
-        <v>62273</v>
-      </c>
-      <c r="R33" s="10">
-        <v>59934</v>
-      </c>
-      <c r="S33" s="10">
-        <v>64927</v>
-      </c>
-      <c r="T33" s="15">
-        <v>60695</v>
-      </c>
-      <c r="Y33" s="10"/>
-      <c r="Z33" s="10">
-        <f t="shared" si="30"/>
-        <v>25945</v>
-      </c>
-      <c r="AA33" s="10">
-        <v>40827</v>
-      </c>
-      <c r="AB33" s="10">
-        <v>46019</v>
-      </c>
-      <c r="AC33" s="10">
-        <v>60102</v>
-      </c>
-      <c r="AD33" s="15">
-        <f>T33</f>
-        <v>60695</v>
-      </c>
-    </row>
-    <row r="34" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
-        <v>30</v>
-      </c>
-      <c r="D34" s="10"/>
-      <c r="F34" s="10"/>
-      <c r="G34" s="10">
-        <v>549252</v>
-      </c>
-      <c r="H34" s="10">
-        <f t="shared" si="27"/>
-        <v>555930</v>
-      </c>
-      <c r="I34" s="10">
-        <v>532077</v>
-      </c>
-      <c r="J34" s="10"/>
-      <c r="K34" s="10"/>
-      <c r="L34" s="10">
-        <f t="shared" si="28"/>
-        <v>535017</v>
-      </c>
-      <c r="M34" s="10">
-        <v>523023</v>
-      </c>
-      <c r="N34" s="10">
-        <v>810525</v>
-      </c>
-      <c r="O34" s="10">
-        <v>788647</v>
-      </c>
-      <c r="P34" s="10">
-        <f t="shared" si="29"/>
-        <v>776934</v>
-      </c>
-      <c r="Q34" s="10">
-        <v>754509</v>
-      </c>
-      <c r="R34" s="10">
-        <v>734633</v>
-      </c>
-      <c r="S34" s="10">
-        <v>718958</v>
-      </c>
-      <c r="T34" s="15">
-        <v>690620</v>
-      </c>
-      <c r="Y34" s="10"/>
-      <c r="Z34" s="10">
-        <v>33939</v>
-      </c>
-      <c r="AA34" s="10">
-        <v>555930</v>
-      </c>
-      <c r="AB34" s="10">
-        <v>535017</v>
-      </c>
-      <c r="AC34" s="10">
-        <v>776934</v>
-      </c>
-      <c r="AD34" s="15">
-        <f t="shared" ref="AD34:AD47" si="36">T34</f>
-        <v>690620</v>
-      </c>
-    </row>
-    <row r="35" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
-        <v>29</v>
-      </c>
-      <c r="D35" s="10">
-        <v>33939</v>
-      </c>
-      <c r="F35" s="10">
-        <v>542095</v>
-      </c>
-      <c r="G35" s="10">
-        <v>486327</v>
-      </c>
-      <c r="H35" s="10">
-        <f t="shared" si="27"/>
-        <v>569603</v>
-      </c>
-      <c r="I35" s="10">
-        <v>612479</v>
-      </c>
-      <c r="J35" s="10"/>
-      <c r="K35" s="10"/>
-      <c r="L35" s="10">
-        <f t="shared" si="28"/>
-        <v>615655</v>
-      </c>
-      <c r="M35" s="10">
-        <v>615655</v>
-      </c>
-      <c r="N35" s="10">
-        <v>894019</v>
-      </c>
-      <c r="O35" s="10">
-        <v>894019</v>
-      </c>
-      <c r="P35" s="10">
-        <f t="shared" si="29"/>
-        <v>886373</v>
-      </c>
-      <c r="Q35" s="10">
-        <v>886373</v>
-      </c>
-      <c r="R35" s="10">
-        <v>886373</v>
-      </c>
-      <c r="S35" s="10">
-        <v>886373</v>
-      </c>
-      <c r="T35" s="15">
-        <v>886373</v>
-      </c>
-      <c r="Y35" s="10"/>
-      <c r="Z35" s="10">
-        <v>4738</v>
-      </c>
-      <c r="AA35" s="10">
-        <v>569603</v>
-      </c>
-      <c r="AB35" s="10">
-        <v>615655</v>
-      </c>
-      <c r="AC35" s="10">
-        <v>886373</v>
-      </c>
-      <c r="AD35" s="15">
-        <f t="shared" si="36"/>
-        <v>886373</v>
-      </c>
-    </row>
-    <row r="36" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
-        <v>131</v>
-      </c>
-      <c r="D36" s="10">
-        <v>4738</v>
-      </c>
-      <c r="F36" s="10">
-        <v>480578</v>
-      </c>
-      <c r="G36" s="10"/>
-      <c r="H36" s="10">
-        <f t="shared" si="27"/>
-        <v>68077</v>
-      </c>
-      <c r="I36" s="10">
-        <v>73022</v>
-      </c>
-      <c r="J36" s="10"/>
-      <c r="K36" s="10"/>
-      <c r="L36" s="10">
-        <f t="shared" si="28"/>
-        <v>63831</v>
-      </c>
-      <c r="M36" s="10">
-        <v>61169</v>
-      </c>
-      <c r="N36" s="10">
-        <v>77338</v>
-      </c>
-      <c r="O36" s="10">
-        <v>74703</v>
-      </c>
-      <c r="P36" s="10">
-        <f t="shared" si="29"/>
-        <v>65957</v>
-      </c>
-      <c r="Q36" s="10">
-        <v>60804</v>
-      </c>
-      <c r="R36" s="10">
-        <v>58349</v>
-      </c>
-      <c r="S36" s="10">
-        <v>77180</v>
-      </c>
-      <c r="T36" s="15">
-        <v>93985</v>
-      </c>
-      <c r="Y36" s="10"/>
-      <c r="Z36" s="10">
-        <v>0</v>
-      </c>
-      <c r="AA36" s="10">
-        <v>68077</v>
-      </c>
-      <c r="AB36" s="10">
-        <v>63831</v>
-      </c>
-      <c r="AC36" s="10">
-        <v>65957</v>
-      </c>
-      <c r="AD36" s="15">
-        <f t="shared" si="36"/>
-        <v>93985</v>
-      </c>
-    </row>
-    <row r="37" spans="1:30" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
-        <v>132</v>
-      </c>
-      <c r="B37"/>
-      <c r="C37"/>
-      <c r="D37" s="10">
-        <v>2521</v>
-      </c>
-      <c r="E37"/>
-      <c r="F37" s="10">
-        <v>2236</v>
-      </c>
-      <c r="G37" s="10">
-        <v>2141</v>
-      </c>
-      <c r="H37" s="10">
-        <f t="shared" si="27"/>
-        <v>2955</v>
-      </c>
-      <c r="I37" s="10">
-        <v>2802</v>
-      </c>
-      <c r="J37" s="10"/>
-      <c r="K37" s="10"/>
-      <c r="L37" s="10">
-        <f t="shared" si="28"/>
-        <v>9825</v>
-      </c>
-      <c r="M37" s="10">
-        <v>7474</v>
-      </c>
-      <c r="N37" s="10">
-        <v>8796</v>
-      </c>
-      <c r="O37" s="10">
-        <v>8746</v>
-      </c>
-      <c r="P37" s="10">
-        <f t="shared" si="29"/>
-        <v>10080</v>
-      </c>
-      <c r="Q37" s="10">
-        <v>9961</v>
-      </c>
-      <c r="R37" s="10">
-        <v>9638</v>
-      </c>
-      <c r="S37" s="10">
-        <v>9630</v>
-      </c>
-      <c r="T37" s="15">
-        <v>10280</v>
-      </c>
-      <c r="Y37" s="10"/>
-      <c r="Z37" s="10">
-        <f t="shared" si="30"/>
-        <v>2521</v>
-      </c>
-      <c r="AA37" s="10">
-        <v>2955</v>
-      </c>
-      <c r="AB37" s="10">
-        <v>9825</v>
-      </c>
-      <c r="AC37" s="10">
-        <v>10080</v>
-      </c>
-      <c r="AD37" s="15">
-        <f t="shared" si="36"/>
-        <v>10280</v>
-      </c>
-    </row>
-    <row r="38" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
-        <v>31</v>
-      </c>
-      <c r="D38" s="10">
-        <v>2434</v>
-      </c>
-      <c r="F38" s="10">
-        <v>3105</v>
-      </c>
-      <c r="G38" s="10">
-        <v>3601</v>
-      </c>
-      <c r="H38" s="10">
-        <f t="shared" si="27"/>
-        <v>7632</v>
-      </c>
-      <c r="I38" s="10">
-        <v>8305</v>
-      </c>
-      <c r="J38" s="10"/>
-      <c r="K38" s="10"/>
-      <c r="L38" s="10">
-        <f t="shared" si="28"/>
-        <v>45377</v>
-      </c>
-      <c r="M38" s="10">
-        <v>90795</v>
-      </c>
-      <c r="N38" s="10">
-        <v>171491</v>
-      </c>
-      <c r="O38" s="10">
-        <v>174634</v>
-      </c>
-      <c r="P38" s="10">
-        <f t="shared" si="29"/>
-        <v>155865</v>
-      </c>
-      <c r="Q38" s="10">
-        <v>159598</v>
-      </c>
-      <c r="R38" s="10">
-        <v>138316</v>
-      </c>
-      <c r="S38" s="10">
-        <v>136526</v>
-      </c>
-      <c r="T38" s="15">
-        <v>131546</v>
-      </c>
-      <c r="Y38" s="10"/>
-      <c r="Z38" s="10">
-        <f t="shared" si="30"/>
-        <v>2434</v>
-      </c>
-      <c r="AA38" s="10">
-        <v>7632</v>
-      </c>
-      <c r="AB38" s="10">
-        <v>45377</v>
-      </c>
-      <c r="AC38" s="10">
-        <v>155865</v>
-      </c>
-      <c r="AD38" s="15">
-        <f t="shared" si="36"/>
-        <v>131546</v>
-      </c>
-    </row>
-    <row r="39" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A39" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B39" s="11"/>
-      <c r="C39" s="11"/>
-      <c r="D39" s="11">
-        <f>SUM(D32:D38)</f>
-        <v>330725</v>
-      </c>
-      <c r="E39" s="11"/>
-      <c r="F39" s="11">
-        <f t="shared" ref="F39:T39" si="37">SUM(F32:F38)</f>
-        <v>2516137</v>
-      </c>
-      <c r="G39" s="11">
-        <f>SUM(G32:G38)</f>
-        <v>2566659</v>
-      </c>
-      <c r="H39" s="11">
-        <f>SUM(H32:H38)</f>
-        <v>3439329</v>
-      </c>
-      <c r="I39" s="11">
-        <f t="shared" si="37"/>
-        <v>4483151</v>
-      </c>
-      <c r="J39" s="11">
-        <f t="shared" si="37"/>
-        <v>0</v>
-      </c>
-      <c r="K39" s="11">
-        <f t="shared" si="37"/>
-        <v>0</v>
-      </c>
-      <c r="L39" s="11">
-        <f>SUM(L32:L38)</f>
-        <v>4069054</v>
-      </c>
-      <c r="M39" s="11">
-        <f t="shared" si="37"/>
-        <v>3746315</v>
-      </c>
-      <c r="N39" s="11">
-        <f>SUM(N32:N38)</f>
-        <v>4153764</v>
-      </c>
-      <c r="O39" s="11">
-        <f t="shared" si="37"/>
-        <v>4192053</v>
-      </c>
-      <c r="P39" s="11">
-        <f t="shared" si="37"/>
-        <v>4040152</v>
-      </c>
-      <c r="Q39" s="11">
-        <f t="shared" si="37"/>
-        <v>3739274</v>
-      </c>
-      <c r="R39" s="11">
-        <f t="shared" si="37"/>
-        <v>3606264</v>
-      </c>
-      <c r="S39" s="11">
-        <f t="shared" si="37"/>
-        <v>3861516</v>
-      </c>
-      <c r="T39" s="14">
-        <f t="shared" si="37"/>
-        <v>3944866</v>
-      </c>
-      <c r="Y39" s="11">
-        <f t="shared" ref="Y39:Z39" si="38">SUM(Y32:Y38)</f>
-        <v>0</v>
-      </c>
-      <c r="Z39" s="11">
-        <f t="shared" si="38"/>
-        <v>330725</v>
-      </c>
-      <c r="AA39" s="11">
-        <f t="shared" ref="AA39" si="39">SUM(AA32:AA38)</f>
-        <v>3439329</v>
-      </c>
-      <c r="AB39" s="11">
-        <f t="shared" ref="AB39" si="40">SUM(AB32:AB38)</f>
-        <v>4069054</v>
-      </c>
-      <c r="AC39" s="11">
-        <f t="shared" ref="AC39:AD39" si="41">SUM(AC32:AC38)</f>
-        <v>4040152</v>
-      </c>
-      <c r="AD39" s="14">
-        <f t="shared" si="41"/>
-        <v>3944866</v>
-      </c>
-    </row>
-    <row r="40" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
-        <v>35</v>
-      </c>
-      <c r="D40" s="10">
-        <v>85295</v>
-      </c>
-      <c r="F40" s="10">
-        <v>122946</v>
-      </c>
-      <c r="G40" s="10">
-        <v>226332</v>
-      </c>
-      <c r="H40" s="10">
-        <f t="shared" si="27"/>
-        <v>223633</v>
-      </c>
-      <c r="I40" s="10">
-        <v>295306</v>
-      </c>
-      <c r="J40" s="10"/>
-      <c r="K40" s="10"/>
-      <c r="L40" s="10">
-        <f t="shared" si="28"/>
-        <v>387737</v>
-      </c>
-      <c r="M40" s="10">
-        <v>379254</v>
-      </c>
-      <c r="N40" s="10">
-        <v>414680</v>
-      </c>
-      <c r="O40" s="10">
-        <v>560794</v>
-      </c>
-      <c r="P40" s="10">
-        <f t="shared" si="29"/>
-        <v>517587</v>
-      </c>
-      <c r="Q40" s="10">
-        <v>508725</v>
-      </c>
-      <c r="R40" s="10">
-        <v>436265</v>
-      </c>
-      <c r="S40" s="10">
-        <v>594067</v>
-      </c>
-      <c r="T40" s="15">
-        <v>639599</v>
-      </c>
-      <c r="Y40" s="10"/>
-      <c r="Z40" s="10">
-        <f t="shared" si="30"/>
-        <v>85295</v>
-      </c>
-      <c r="AA40" s="10">
-        <v>223633</v>
-      </c>
-      <c r="AB40" s="10">
-        <v>387737</v>
-      </c>
-      <c r="AC40" s="10">
-        <v>517587</v>
-      </c>
-      <c r="AD40" s="15">
-        <f t="shared" si="36"/>
-        <v>639599</v>
-      </c>
-    </row>
-    <row r="41" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
-        <v>124</v>
-      </c>
-      <c r="D41" s="10">
-        <v>163035</v>
-      </c>
-      <c r="F41" s="10">
-        <v>147031</v>
-      </c>
-      <c r="G41" s="10">
-        <v>286506</v>
-      </c>
-      <c r="H41" s="10">
-        <f t="shared" si="27"/>
-        <v>317942</v>
-      </c>
-      <c r="I41" s="10">
-        <v>329742</v>
-      </c>
-      <c r="J41" s="10"/>
-      <c r="K41" s="10"/>
-      <c r="L41" s="10">
-        <f t="shared" si="28"/>
-        <v>528874</v>
-      </c>
-      <c r="M41" s="10">
-        <v>520775</v>
-      </c>
-      <c r="N41" s="10">
-        <v>482940</v>
-      </c>
-      <c r="O41" s="10">
-        <v>670784</v>
-      </c>
-      <c r="P41" s="10">
-        <f t="shared" si="29"/>
-        <v>686173</v>
-      </c>
-      <c r="Q41" s="10">
-        <v>670456</v>
-      </c>
-      <c r="R41" s="10">
-        <v>600146</v>
-      </c>
-      <c r="S41" s="10">
-        <v>856334</v>
-      </c>
-      <c r="T41" s="15">
-        <v>851898</v>
-      </c>
-      <c r="Y41" s="10"/>
-      <c r="Z41" s="10">
-        <f t="shared" si="30"/>
-        <v>163035</v>
-      </c>
-      <c r="AA41" s="10">
-        <v>317942</v>
-      </c>
-      <c r="AB41" s="10">
-        <v>528874</v>
-      </c>
-      <c r="AC41" s="10">
-        <v>686173</v>
-      </c>
-      <c r="AD41" s="15">
-        <f t="shared" si="36"/>
-        <v>851898</v>
-      </c>
-    </row>
-    <row r="42" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
-        <v>125</v>
-      </c>
-      <c r="D42" s="10">
-        <v>6750</v>
-      </c>
-      <c r="F42" s="10"/>
-      <c r="G42" s="10"/>
-      <c r="H42" s="10">
-        <f t="shared" si="27"/>
-        <v>12837</v>
-      </c>
-      <c r="I42" s="10">
-        <v>13370</v>
-      </c>
-      <c r="J42" s="10"/>
-      <c r="K42" s="10"/>
-      <c r="L42" s="10">
-        <f t="shared" si="28"/>
-        <v>12814</v>
-      </c>
-      <c r="M42" s="10">
-        <v>12911</v>
-      </c>
-      <c r="N42" s="10">
-        <f>5726+17283</f>
-        <v>23009</v>
-      </c>
-      <c r="O42" s="10">
-        <f>5645+47951</f>
-        <v>53596</v>
-      </c>
-      <c r="P42" s="10">
-        <f t="shared" si="29"/>
-        <v>42697</v>
-      </c>
-      <c r="Q42" s="10">
-        <f>3975+48733</f>
-        <v>52708</v>
-      </c>
-      <c r="R42" s="10">
-        <f>3305+37520</f>
-        <v>40825</v>
-      </c>
-      <c r="S42" s="10">
-        <f>12132+65930</f>
-        <v>78062</v>
-      </c>
-      <c r="T42" s="15">
-        <f>11499+46624</f>
-        <v>58123</v>
-      </c>
-      <c r="Y42" s="10"/>
-      <c r="Z42" s="10">
-        <f t="shared" si="30"/>
-        <v>6750</v>
-      </c>
-      <c r="AA42" s="10">
-        <v>12837</v>
-      </c>
-      <c r="AB42" s="10">
-        <v>12814</v>
-      </c>
-      <c r="AC42" s="10">
-        <f>4253+38444</f>
-        <v>42697</v>
-      </c>
-      <c r="AD42" s="15">
-        <f>T42</f>
-        <v>58123</v>
-      </c>
-    </row>
-    <row r="43" spans="1:30" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="D43" s="11">
-        <f>SUM(D40:D42)</f>
-        <v>255080</v>
-      </c>
-      <c r="E43" s="11"/>
-      <c r="F43" s="11">
-        <f t="shared" ref="F43:T43" si="42">SUM(F40:F42)</f>
-        <v>269977</v>
-      </c>
-      <c r="G43" s="11">
-        <f t="shared" si="42"/>
-        <v>512838</v>
-      </c>
-      <c r="H43" s="11">
-        <f t="shared" si="42"/>
-        <v>554412</v>
-      </c>
-      <c r="I43" s="11">
-        <f t="shared" si="42"/>
-        <v>638418</v>
-      </c>
-      <c r="J43" s="11">
-        <f t="shared" si="42"/>
-        <v>0</v>
-      </c>
-      <c r="K43" s="11">
-        <f t="shared" si="42"/>
-        <v>0</v>
-      </c>
-      <c r="L43" s="11">
-        <f t="shared" si="42"/>
-        <v>929425</v>
-      </c>
-      <c r="M43" s="11">
-        <f>SUM(M40:M42)</f>
-        <v>912940</v>
-      </c>
-      <c r="N43" s="11">
-        <f t="shared" si="42"/>
-        <v>920629</v>
-      </c>
-      <c r="O43" s="11">
-        <f t="shared" si="42"/>
-        <v>1285174</v>
-      </c>
-      <c r="P43" s="11">
-        <f t="shared" si="42"/>
-        <v>1246457</v>
-      </c>
-      <c r="Q43" s="11">
-        <f t="shared" si="42"/>
-        <v>1231889</v>
-      </c>
-      <c r="R43" s="11">
-        <f t="shared" si="42"/>
-        <v>1077236</v>
-      </c>
-      <c r="S43" s="11">
-        <f t="shared" si="42"/>
-        <v>1528463</v>
-      </c>
-      <c r="T43" s="14">
-        <f t="shared" si="42"/>
-        <v>1549620</v>
-      </c>
-      <c r="U43" s="11"/>
-      <c r="V43" s="11"/>
-      <c r="W43" s="11"/>
-      <c r="X43" s="11"/>
-      <c r="Y43" s="11">
-        <f t="shared" ref="Y43:Z43" si="43">SUM(Y40:Y42)</f>
-        <v>0</v>
-      </c>
-      <c r="Z43" s="11">
-        <f t="shared" si="43"/>
-        <v>255080</v>
-      </c>
-      <c r="AA43" s="11">
-        <f t="shared" ref="AA43" si="44">SUM(AA40:AA42)</f>
-        <v>554412</v>
-      </c>
-      <c r="AB43" s="11">
-        <f t="shared" ref="AB43" si="45">SUM(AB40:AB42)</f>
-        <v>929425</v>
-      </c>
-      <c r="AC43" s="11">
-        <f t="shared" ref="AC43:AD43" si="46">SUM(AC40:AC42)</f>
-        <v>1246457</v>
-      </c>
-      <c r="AD43" s="14">
-        <f t="shared" si="46"/>
-        <v>1549620</v>
-      </c>
-    </row>
-    <row r="44" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
-        <v>127</v>
-      </c>
-      <c r="D44" s="10">
-        <v>68363</v>
-      </c>
-      <c r="F44" s="10"/>
-      <c r="G44" s="10"/>
-      <c r="H44" s="10">
-        <f t="shared" si="27"/>
-        <v>0</v>
-      </c>
-      <c r="I44" s="10">
-        <v>1247113</v>
-      </c>
-      <c r="J44" s="10"/>
-      <c r="K44" s="10"/>
-      <c r="L44" s="10">
-        <f t="shared" si="28"/>
-        <v>1248452</v>
-      </c>
-      <c r="M44" s="10">
-        <v>1249106</v>
-      </c>
-      <c r="N44" s="10">
-        <v>1249766</v>
-      </c>
-      <c r="O44" s="10">
-        <v>1250434</v>
-      </c>
-      <c r="P44" s="10">
-        <f t="shared" si="29"/>
-        <v>1251103</v>
-      </c>
-      <c r="Q44" s="10">
-        <v>1251758</v>
-      </c>
-      <c r="R44" s="10">
-        <v>1252420</v>
-      </c>
-      <c r="S44" s="10">
-        <v>1253089</v>
-      </c>
-      <c r="T44" s="15">
-        <v>1253760</v>
-      </c>
-      <c r="Y44" s="10"/>
-      <c r="Z44" s="10">
-        <f t="shared" si="30"/>
-        <v>68363</v>
-      </c>
-      <c r="AA44" s="10"/>
-      <c r="AB44" s="10">
-        <v>1248452</v>
-      </c>
-      <c r="AC44" s="10">
-        <v>1251103</v>
-      </c>
-      <c r="AD44" s="15">
-        <f t="shared" si="36"/>
-        <v>1253760</v>
-      </c>
-    </row>
-    <row r="45" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
-        <v>133</v>
-      </c>
-      <c r="D45" s="10"/>
-      <c r="F45" s="10"/>
-      <c r="G45" s="10"/>
-      <c r="H45" s="10">
-        <f t="shared" si="27"/>
-        <v>68775</v>
-      </c>
-      <c r="I45" s="10">
-        <v>66811</v>
-      </c>
-      <c r="J45" s="10"/>
-      <c r="K45" s="10"/>
-      <c r="L45" s="10">
-        <f t="shared" si="28"/>
-        <v>57341</v>
-      </c>
-      <c r="M45" s="10">
-        <v>54457</v>
-      </c>
-      <c r="N45" s="10">
-        <v>78176</v>
-      </c>
-      <c r="O45" s="10">
-        <v>76080</v>
-      </c>
-      <c r="P45" s="10">
-        <f t="shared" si="29"/>
-        <v>69332</v>
-      </c>
-      <c r="Q45" s="10">
-        <v>66466</v>
-      </c>
-      <c r="R45" s="10">
-        <v>64418</v>
-      </c>
-      <c r="S45" s="10">
-        <v>76926</v>
-      </c>
-      <c r="T45" s="15">
-        <v>80827</v>
-      </c>
-      <c r="Y45" s="10"/>
-      <c r="Z45" s="10"/>
-      <c r="AA45" s="10">
-        <v>68775</v>
-      </c>
-      <c r="AB45" s="10">
-        <v>57341</v>
-      </c>
-      <c r="AC45" s="10">
-        <v>69332</v>
-      </c>
-      <c r="AD45" s="15">
-        <f t="shared" si="36"/>
-        <v>80827</v>
-      </c>
-    </row>
-    <row r="46" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
-        <v>134</v>
-      </c>
-      <c r="D46" s="10"/>
-      <c r="F46" s="10"/>
-      <c r="G46" s="10"/>
-      <c r="H46" s="10">
-        <f t="shared" si="27"/>
-        <v>72066</v>
-      </c>
-      <c r="I46" s="10">
-        <v>70296</v>
-      </c>
-      <c r="J46" s="10"/>
-      <c r="K46" s="10"/>
-      <c r="L46" s="10">
-        <f t="shared" si="28"/>
-        <v>79125</v>
-      </c>
-      <c r="M46" s="10">
-        <v>78947</v>
-      </c>
-      <c r="N46" s="10">
-        <v>73859</v>
-      </c>
-      <c r="O46" s="10">
-        <v>67925</v>
-      </c>
-      <c r="P46" s="10">
-        <f t="shared" si="29"/>
-        <v>69858</v>
-      </c>
-      <c r="Q46" s="10">
-        <v>69238</v>
-      </c>
-      <c r="R46" s="10">
-        <v>69283</v>
-      </c>
-      <c r="S46" s="10">
-        <v>68253</v>
-      </c>
-      <c r="T46" s="15">
-        <v>63568</v>
-      </c>
-      <c r="Y46" s="10"/>
-      <c r="Z46" s="10"/>
-      <c r="AA46" s="10">
-        <v>72066</v>
-      </c>
-      <c r="AB46" s="10">
-        <v>79125</v>
-      </c>
-      <c r="AC46" s="10">
-        <v>69858</v>
-      </c>
-      <c r="AD46" s="15">
-        <f t="shared" si="36"/>
-        <v>63568</v>
-      </c>
-    </row>
-    <row r="47" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A47" t="s">
-        <v>32</v>
-      </c>
-      <c r="D47" s="10">
-        <v>56862</v>
-      </c>
-      <c r="F47" s="10"/>
-      <c r="G47" s="10">
-        <v>59088</v>
-      </c>
-      <c r="H47" s="10">
-        <f t="shared" si="27"/>
-        <v>47287</v>
-      </c>
-      <c r="I47" s="10">
-        <f>48421+90862</f>
-        <v>139283</v>
-      </c>
-      <c r="J47" s="10"/>
-      <c r="K47" s="10"/>
-      <c r="L47" s="10">
-        <f t="shared" si="28"/>
-        <v>76183</v>
-      </c>
-      <c r="M47" s="10">
-        <f>51035+14230</f>
-        <v>65265</v>
-      </c>
-      <c r="N47" s="10">
-        <f>54369+13081</f>
-        <v>67450</v>
-      </c>
-      <c r="O47" s="10">
-        <f>57447+19877</f>
-        <v>77324</v>
-      </c>
-      <c r="P47" s="10">
-        <f t="shared" si="29"/>
-        <v>80709</v>
-      </c>
-      <c r="Q47" s="10">
-        <f>74428+27715</f>
-        <v>102143</v>
-      </c>
-      <c r="R47" s="10">
-        <f>78130+46286</f>
-        <v>124416</v>
-      </c>
-      <c r="S47" s="10">
-        <f>79668+53695</f>
-        <v>133363</v>
-      </c>
-      <c r="T47" s="15">
-        <f>72810+83975</f>
-        <v>156785</v>
-      </c>
-      <c r="Y47" s="10"/>
-      <c r="Z47" s="10">
-        <f>D47</f>
-        <v>56862</v>
-      </c>
-      <c r="AA47" s="10">
-        <v>47287</v>
-      </c>
-      <c r="AB47" s="10">
-        <f>49272+26911</f>
-        <v>76183</v>
-      </c>
-      <c r="AC47" s="10">
-        <f>10680+70029</f>
-        <v>80709</v>
-      </c>
-      <c r="AD47" s="15">
-        <f t="shared" si="36"/>
-        <v>156785</v>
-      </c>
-    </row>
-    <row r="48" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A48" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B48" s="11"/>
-      <c r="C48" s="11"/>
-      <c r="D48" s="11">
-        <f>SUM(D43:D47)</f>
-        <v>380305</v>
-      </c>
-      <c r="E48" s="11"/>
-      <c r="F48" s="11">
-        <f t="shared" ref="F48:S48" si="47">SUM(F43:F47)</f>
-        <v>269977</v>
-      </c>
-      <c r="G48" s="11">
-        <f t="shared" si="47"/>
-        <v>571926</v>
-      </c>
-      <c r="H48" s="11">
-        <f t="shared" si="47"/>
-        <v>742540</v>
-      </c>
-      <c r="I48" s="11">
-        <f t="shared" si="47"/>
-        <v>2161921</v>
-      </c>
-      <c r="J48" s="11">
-        <f t="shared" si="47"/>
-        <v>0</v>
-      </c>
-      <c r="K48" s="11">
-        <f t="shared" si="47"/>
-        <v>0</v>
-      </c>
-      <c r="L48" s="11">
-        <f t="shared" si="47"/>
-        <v>2390526</v>
-      </c>
-      <c r="M48" s="11">
-        <f t="shared" si="47"/>
-        <v>2360715</v>
-      </c>
-      <c r="N48" s="11">
-        <f t="shared" si="47"/>
-        <v>2389880</v>
-      </c>
-      <c r="O48" s="11">
-        <f t="shared" si="47"/>
-        <v>2756937</v>
-      </c>
-      <c r="P48" s="11">
-        <f t="shared" si="47"/>
-        <v>2717459</v>
-      </c>
-      <c r="Q48" s="11">
-        <f t="shared" si="47"/>
-        <v>2721494</v>
-      </c>
-      <c r="R48" s="11">
-        <f t="shared" si="47"/>
-        <v>2587773</v>
-      </c>
-      <c r="S48" s="11">
-        <f t="shared" si="47"/>
-        <v>3060094</v>
-      </c>
-      <c r="T48" s="14">
-        <f>SUM(T43:T47)</f>
-        <v>3104560</v>
-      </c>
-      <c r="Y48" s="11">
-        <f>SUM(Y43:Y47)</f>
-        <v>0</v>
-      </c>
-      <c r="Z48" s="11">
-        <f>SUM(Z43:Z47)</f>
-        <v>380305</v>
-      </c>
-      <c r="AA48" s="11">
-        <f t="shared" ref="AA48:AD48" si="48">SUM(AA43:AA47)</f>
-        <v>742540</v>
-      </c>
-      <c r="AB48" s="11">
-        <f t="shared" si="48"/>
-        <v>2390526</v>
-      </c>
-      <c r="AC48" s="11">
-        <f t="shared" si="48"/>
-        <v>2717459</v>
-      </c>
-      <c r="AD48" s="14">
-        <f t="shared" si="48"/>
-        <v>3104560</v>
-      </c>
-    </row>
-    <row r="49" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="AA49" s="11"/>
-      <c r="AB49" s="11"/>
-      <c r="AC49" s="11"/>
-    </row>
-    <row r="51" spans="1:30" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="T51" s="16"/>
-      <c r="AD51" s="16"/>
-    </row>
-    <row r="52" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A52" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="53" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A53" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="54" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A54" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="55" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A55" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="56" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A56" t="s">
+    </row>
+    <row r="65" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="66" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="67" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="68" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="57" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A57" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="58" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A58" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="59" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A59" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="60" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A60" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="61" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A61" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="62" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A62" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="63" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A63" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="64" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A64" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="65" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A65" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="66" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A66" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="67" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A67" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="68" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A68" t="s">
+    <row r="69" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="69" spans="1:30" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="9" t="s">
+    <row r="70" spans="1:27" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A70" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="T69" s="51"/>
-      <c r="AD69" s="51"/>
-    </row>
-    <row r="70" spans="1:30" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="1" t="s">
+      <c r="Q70" s="50"/>
+      <c r="AA70" s="50"/>
+    </row>
+    <row r="71" spans="1:27" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A71" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="T70" s="16"/>
-      <c r="AD70" s="16"/>
+      <c r="Q71" s="16"/>
+      <c r="AA71" s="16"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
@@ -20950,9 +21057,6 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <ignoredErrors>
-    <ignoredError sqref="Z32 Z39 Z43" formula="1"/>
-  </ignoredErrors>
 </worksheet>
 </file>
 
@@ -20960,8 +21064,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E48E03BE-2423-4BDB-9A98-002F9CED8953}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="W35" sqref="W35"/>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="V20" sqref="V20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
